--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2C2669-C213-4B85-9AF8-29940B634AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8EC2F-DED6-4BE2-AB6C-85C122D4E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t xml:space="preserve">AVAILABLE BEDS </t>
   </si>
@@ -84,9 +84,6 @@
     <t>Salamanca 46</t>
   </si>
   <si>
-    <t>Facultades 2</t>
-  </si>
-  <si>
     <t>BILBAO</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
   </si>
   <si>
     <t>MADRID</t>
-  </si>
-  <si>
-    <t>Carlos III 1</t>
-  </si>
-  <si>
-    <t>Carlos III 2</t>
   </si>
   <si>
     <t>3rd PARTIES</t>
@@ -114,19 +105,10 @@
     <t>Consell De Cent 222</t>
   </si>
   <si>
-    <t>Córcega 52</t>
-  </si>
-  <si>
-    <t>Corcega 207</t>
-  </si>
-  <si>
     <t>Encarnación 160</t>
   </si>
   <si>
     <t>Gran Via 598</t>
-  </si>
-  <si>
-    <t>Ramón Albó 006</t>
   </si>
   <si>
     <t>Robrenyo 67</t>
@@ -166,6 +148,21 @@
   </si>
   <si>
     <t>SERVICES INCOME (REAL + OTB)</t>
+  </si>
+  <si>
+    <t>Facultades</t>
+  </si>
+  <si>
+    <t>Carlos III Campus Getafe</t>
+  </si>
+  <si>
+    <t>Còrsega 52</t>
+  </si>
+  <si>
+    <t>Còrsega 207</t>
+  </si>
+  <si>
+    <t>Ramón Albó 6</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B18" s="24">
         <f>IF($A18&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A18,'data-beds'!E:E),"")</f>
@@ -1536,7 +1533,7 @@
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="22">
         <f t="shared" ref="B20" si="5">SUM(B21:B24)</f>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="23">
         <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!E:E),"")</f>
@@ -1575,7 +1572,7 @@
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="22">
         <f t="shared" ref="B25" si="6">SUM(B26:B29)</f>
@@ -1584,7 +1581,7 @@
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B26" s="23">
         <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!E:E),"")</f>
@@ -1592,12 +1589,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="24">
+      <c r="A27" s="13"/>
+      <c r="B27" s="24" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A27,'data-beds'!E:E),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,7 +1611,7 @@
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30" s="21">
         <f t="shared" ref="B30" si="7">SUM(B32:B44)</f>
@@ -1634,7 +1629,7 @@
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" s="23">
         <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!E:E),"")</f>
@@ -1643,7 +1638,7 @@
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="24">
         <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!E:E),"")</f>
@@ -1652,7 +1647,7 @@
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" s="24">
         <f>IF($A34&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A34,'data-beds'!E:E),"")</f>
@@ -1661,7 +1656,7 @@
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B35" s="24">
         <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!E:E),"")</f>
@@ -1670,7 +1665,7 @@
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B36" s="24">
         <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!E:E),"")</f>
@@ -1679,7 +1674,7 @@
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B37" s="24">
         <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!E:E),"")</f>
@@ -1688,7 +1683,7 @@
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38" s="24">
         <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!E:E),"")</f>
@@ -1697,7 +1692,7 @@
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B39" s="24">
         <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!E:E),"")</f>
@@ -1706,7 +1701,7 @@
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B40" s="24">
         <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!E:E),"")</f>
@@ -1715,7 +1710,7 @@
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B41" s="24">
         <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!E:E),"")</f>
@@ -1724,7 +1719,7 @@
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B42" s="24">
         <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!E:E),"")</f>
@@ -1775,7 +1770,7 @@
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="22">
         <f t="shared" ref="B50" si="10">SUM(B51:B56)</f>
@@ -1806,7 +1801,7 @@
     </row>
     <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="22">
         <f t="shared" ref="B55" si="11">SUM(B56:B61)</f>
@@ -1852,16 +1847,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1897,16 +1892,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1952,7 +1947,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="18">
         <f>'data-beds'!E1</f>
@@ -2109,7 +2104,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades 2</v>
+        <v>Facultades</v>
       </c>
       <c r="B18" s="38">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
@@ -2189,7 +2184,7 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III 1</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B26" s="37">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
@@ -2199,11 +2194,11 @@
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v>Carlos III 2</v>
-      </c>
-      <c r="B27" s="38">
+        <v/>
+      </c>
+      <c r="B27" s="38" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2279,7 +2274,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Córcega 52</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B35" s="38">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
@@ -2289,7 +2284,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Corcega 207</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B36" s="38">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,Nights!B36/(Occupancy!B$3*Beds!B36),0),"")</f>
@@ -2319,7 +2314,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 006</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="38">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,Nights!B39/(Occupancy!B$3*Beds!B39),0),"")</f>
@@ -2502,7 +2497,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="18">
         <f>'data-beds'!E1</f>
@@ -2659,7 +2654,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades 2</v>
+        <v>Facultades</v>
       </c>
       <c r="B18" s="30">
         <f>IF($A18&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A18,'data-rent'!E:E),"")</f>
@@ -2739,7 +2734,7 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III 1</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A26,'data-rent'!E:E),"")</f>
@@ -2749,11 +2744,11 @@
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v>Carlos III 2</v>
-      </c>
-      <c r="B27" s="30">
+        <v/>
+      </c>
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A27,'data-rent'!E:E),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2829,7 +2824,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Córcega 52</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B35" s="30">
         <f>IF($A35&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A35,'data-rent'!E:E),"")</f>
@@ -2839,7 +2834,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Corcega 207</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B36" s="30">
         <f>IF($A36&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A36,'data-rent'!E:E),"")</f>
@@ -2869,7 +2864,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 006</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="30">
         <f>IF($A39&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A39,'data-rent'!E:E),"")</f>
@@ -3052,7 +3047,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="18">
         <f>'data-beds'!E1</f>
@@ -3209,7 +3204,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades 2</v>
+        <v>Facultades</v>
       </c>
       <c r="B18" s="30">
         <f>IF($A18&lt;&gt;"",SUMIF('data-services'!$A:$A,$A18,'data-services'!E:E),"")</f>
@@ -3289,7 +3284,7 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III 1</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",SUMIF('data-services'!$A:$A,$A26,'data-services'!E:E),"")</f>
@@ -3299,11 +3294,11 @@
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v>Carlos III 2</v>
-      </c>
-      <c r="B27" s="30">
+        <v/>
+      </c>
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-services'!$A:$A,$A27,'data-services'!E:E),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3379,7 +3374,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Córcega 52</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B35" s="30">
         <f>IF($A35&lt;&gt;"",SUMIF('data-services'!$A:$A,$A35,'data-services'!E:E),"")</f>
@@ -3389,7 +3384,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Corcega 207</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B36" s="30">
         <f>IF($A36&lt;&gt;"",SUMIF('data-services'!$A:$A,$A36,'data-services'!E:E),"")</f>
@@ -3419,7 +3414,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 006</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="30">
         <f>IF($A39&lt;&gt;"",SUMIF('data-services'!$A:$A,$A39,'data-services'!E:E),"")</f>
@@ -3602,7 +3597,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="18">
         <f>'data-beds'!E1</f>
@@ -3759,7 +3754,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades 2</v>
+        <v>Facultades</v>
       </c>
       <c r="B18" s="30">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
@@ -3839,7 +3834,7 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III 1</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26*Occupancy!B26&lt;&gt;0,'Income rent'!B26/(Beds!B26*Occupancy!B26),0),"")</f>
@@ -3849,11 +3844,11 @@
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v>Carlos III 2</v>
-      </c>
-      <c r="B27" s="30">
+        <v/>
+      </c>
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,7 +3924,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Córcega 52</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B35" s="30">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B35*Occupancy!B35),0),"")</f>
@@ -3939,7 +3934,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Corcega 207</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B36" s="30">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B36*Occupancy!B36),0),"")</f>
@@ -3969,7 +3964,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 006</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="30">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39*Occupancy!B39&lt;&gt;0,'Income rent'!B39/(Beds!B39*Occupancy!B39),0),"")</f>
@@ -4152,7 +4147,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="18">
         <f>'data-beds'!E1</f>
@@ -4309,7 +4304,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades 2</v>
+        <v>Facultades</v>
       </c>
       <c r="B18" s="30">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
@@ -4389,7 +4384,7 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III 1</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,'Income rent'!B26/Beds!B26,0),"")</f>
@@ -4399,11 +4394,11 @@
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v>Carlos III 2</v>
-      </c>
-      <c r="B27" s="30">
+        <v/>
+      </c>
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4479,7 +4474,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Córcega 52</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B35" s="30">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B35/Beds!B35,0),"")</f>
@@ -4489,7 +4484,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Corcega 207</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B36" s="30">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,'Income rent'!B36/Beds!B36,0),"")</f>
@@ -4519,7 +4514,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 006</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="30">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,'Income rent'!B39/Beds!B39,0),"")</f>
@@ -4702,7 +4697,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="18">
         <f>'data-beds'!E1</f>
@@ -4859,7 +4854,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades 2</v>
+        <v>Facultades</v>
       </c>
       <c r="B18" s="46">
         <f>IF($A18&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A18,'data-nights'!E:E),"")</f>
@@ -4939,7 +4934,7 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III 1</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B26" s="45">
         <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!E:E),"")</f>
@@ -4949,11 +4944,11 @@
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v>Carlos III 2</v>
-      </c>
-      <c r="B27" s="46">
+        <v/>
+      </c>
+      <c r="B27" s="46" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A27,'data-nights'!E:E),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5029,7 +5024,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Córcega 52</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B35" s="46">
         <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!E:E),"")</f>
@@ -5039,7 +5034,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Corcega 207</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B36" s="46">
         <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!E:E),"")</f>
@@ -5069,7 +5064,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 006</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="46">
         <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!E:E),"")</f>
@@ -5245,16 +5240,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -5290,16 +5285,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8EC2F-DED6-4BE2-AB6C-85C122D4E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0BEB5-BFE9-48B4-925D-415AFC5597B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t xml:space="preserve">AVAILABLE BEDS </t>
   </si>
@@ -164,6 +164,18 @@
   <si>
     <t>Ramón Albó 6</t>
   </si>
+  <si>
+    <t>Nau 14</t>
+  </si>
+  <si>
+    <t>Concordia 12</t>
+  </si>
+  <si>
+    <t>Consell De Cent 538</t>
+  </si>
+  <si>
+    <t>Còrsega 396</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -343,19 +355,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,23 +447,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,16 +475,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,28 +499,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,13 +526,13 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,22 +541,19 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,22 +562,19 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,19 +583,16 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1364,7 +1340,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,20 +1351,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -1397,8 +1373,8 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
-        <f t="shared" ref="B4" si="1">B5+B30</f>
+      <c r="B4" s="19">
+        <f>B5+B33</f>
         <v>0</v>
       </c>
     </row>
@@ -1406,8 +1382,8 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
-        <f t="shared" ref="B5" si="2">B6+B15+B20+B25</f>
+      <c r="B5" s="20">
+        <f>B6+B18+B25+B29</f>
         <v>0</v>
       </c>
     </row>
@@ -1415,8 +1391,8 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22">
-        <f t="shared" ref="B6" si="3">SUM(B7:B14)</f>
+      <c r="B6" s="21">
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1400,7 @@
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <f>IF($A7&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A7,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -1433,7 +1409,7 @@
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <f>IF($A8&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A8,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -1442,7 +1418,7 @@
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <f>IF($A9&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A9,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -1451,7 +1427,7 @@
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <f>IF($A10&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A10,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -1460,7 +1436,7 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <f>IF($A11&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A11,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -1469,80 +1445,82 @@
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <f>IF($A12&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A12,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24" t="str">
+      <c r="A13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="23">
         <f>IF($A13&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A13,'data-beds'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="25" t="str">
+      <c r="A14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="23">
         <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="23">
+        <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="23" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A16,'data-beds'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="24" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A17,'data-beds'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="22">
-        <f t="shared" ref="B15" si="4">SUM(B16:B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B18" s="21">
+        <f>SUM(B19:B24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="23">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A16,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B19" s="22">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A17,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="24">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A18,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="str">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="22">
-        <f t="shared" ref="B20" si="5">SUM(B21:B24)</f>
+      <c r="B20" s="23">
+        <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
+      <c r="A21" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="23">
         <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!E:E),"")</f>
@@ -1550,283 +1528,217 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="24" t="str">
+      <c r="A22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="23">
         <f>IF($A22&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A22,'data-beds'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="23" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A23,'data-beds'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="23" t="str">
         <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="22">
-        <f t="shared" ref="B25" si="6">SUM(B26:B29)</f>
+        <v>13</v>
+      </c>
+      <c r="B25" s="21">
+        <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="23">
+        <v>14</v>
+      </c>
+      <c r="B26" s="22">
         <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="24" t="str">
+      <c r="B27" s="23" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A27,'data-beds'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="24" t="str">
+      <c r="A28" s="15"/>
+      <c r="B28" s="23" t="str">
         <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!E:E),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="24" t="str">
-        <f>IF($A29&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A29,'data-beds'!E:E),"")</f>
-        <v/>
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="21">
+        <f>SUM(B30:B32)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="22">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A30,'data-beds'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="23" t="str">
+        <f>IF($A31&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A31,'data-beds'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="23" t="str">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="21">
-        <f t="shared" ref="B30" si="7">SUM(B32:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="B33" s="20">
+        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="22">
-        <f t="shared" ref="B31" si="8">SUM(B32:B39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="B34" s="21">
+        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="23">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="24">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="24">
-        <f>IF($A34&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A34,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="24">
+      <c r="B35" s="22">
         <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="24">
+        <v>18</v>
+      </c>
+      <c r="B36" s="23">
         <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="24">
+        <v>19</v>
+      </c>
+      <c r="B37" s="23">
         <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="24">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23">
         <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="23">
         <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="24">
+        <v>20</v>
+      </c>
+      <c r="B40" s="23">
         <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="24">
+        <v>21</v>
+      </c>
+      <c r="B41" s="23">
         <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="23">
+        <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="23">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A43,'data-beds'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="23">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A44,'data-beds'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="24">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="51"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="25" t="str">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A44,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="22">
-        <f t="shared" ref="B45" si="9">SUM(B46:B51)</f>
+      <c r="B45" s="23">
+        <f>IF($A45&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A45,'data-beds'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="24" t="str">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A46,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="47"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="24"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="24"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="24" t="str">
-        <f>IF($A49&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A49,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="22">
-        <f t="shared" ref="B50" si="10">SUM(B51:B56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="24" t="str">
-        <f>IF($A51&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A51,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="24"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="24"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="24" t="str">
-        <f>IF($A54&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A54,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="22">
-        <f t="shared" ref="B55" si="11">SUM(B56:B61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="24" t="str">
-        <f>IF($A56&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A56,'data-beds'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="51"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="51"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="25" t="str">
-        <f>IF($A59&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A59,'data-beds'!E:E),"")</f>
+      <c r="A47" s="16"/>
+      <c r="B47" s="24" t="str">
+        <f>IF($A47&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A47,'data-beds'!E:E),"")</f>
         <v/>
       </c>
     </row>
@@ -1932,7 +1844,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1943,20 +1855,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -1966,7 +1878,7 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <f>IF($A4&lt;&gt;"",IF(Beds!B4&lt;&gt;0,Nights!B4/(Occupancy!B$3*Beds!B4),0),"")</f>
         <v>0</v>
       </c>
@@ -1976,7 +1888,7 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <f>IF($A5&lt;&gt;"",IF(Beds!B5&lt;&gt;0,Nights!B5/(Occupancy!B$3*Beds!B5),0),"")</f>
         <v>0</v>
       </c>
@@ -1986,7 +1898,7 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <f>IF($A6&lt;&gt;"",IF(Beds!B6&lt;&gt;0,Nights!B6/(Occupancy!B$3*Beds!B6),0),"")</f>
         <v>0</v>
       </c>
@@ -1996,7 +1908,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="35">
         <f>IF($A7&lt;&gt;"",IF(Beds!B7&lt;&gt;0,Nights!B7/(Occupancy!B$3*Beds!B7),0),"")</f>
         <v>0</v>
       </c>
@@ -2006,7 +1918,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Napols 206</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="36">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8&lt;&gt;0,Nights!B8/(Occupancy!B$3*Beds!B8),0),"")</f>
         <v>0</v>
       </c>
@@ -2016,7 +1928,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="36">
         <f>IF($A9&lt;&gt;"",IF(Beds!B9&lt;&gt;0,Nights!B9/(Occupancy!B$3*Beds!B9),0),"")</f>
         <v>0</v>
       </c>
@@ -2026,7 +1938,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <f>IF($A10&lt;&gt;"",IF(Beds!B10&lt;&gt;0,Nights!B10/(Occupancy!B$3*Beds!B10),0),"")</f>
         <v>0</v>
       </c>
@@ -2036,7 +1948,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <f>IF($A11&lt;&gt;"",IF(Beds!B11&lt;&gt;0,Nights!B11/(Occupancy!B$3*Beds!B11),0),"")</f>
         <v>0</v>
       </c>
@@ -2046,85 +1958,85 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="36">
         <f>IF($A12&lt;&gt;"",IF(Beds!B12&lt;&gt;0,Nights!B12/(Occupancy!B$3*Beds!B12),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="39" t="str">
-        <f>IF($A13&lt;&gt;"",IF(Beds!B13&lt;&gt;0,Nights!B13/(Occupancy!B$3*Beds!B13),0),"")</f>
-        <v/>
+        <v>Concordia 12</v>
+      </c>
+      <c r="B13" s="36">
+        <f>IF($A13&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B13/(Occupancy!B$3*Beds!B14),0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="40" t="str">
-        <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B14/(Occupancy!B$3*Beds!B14),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+        <v>Consell De Cent 538</v>
+      </c>
+      <c r="B14" s="36">
+        <f>IF($A14&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B14/(Occupancy!B$3*Beds!B15),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
+        <v>Còrsega 396</v>
+      </c>
+      <c r="B15" s="37">
+        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B15),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="37" t="str">
+        <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,Nights!B16/(Occupancy!B$3*Beds!B16),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="38" t="str">
+        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,Nights!B17/(Occupancy!B$3*Beds!B17),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B15" s="36">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B15),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+      <c r="B18" s="34">
+        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B16" s="37">
-        <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,Nights!B16/(Occupancy!B$3*Beds!B16),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+      <c r="B19" s="35">
+        <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,Nights!B19/(Occupancy!B$3*Beds!B19),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="str">
+        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
-      </c>
-      <c r="B17" s="38">
-        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,Nights!B17/(Occupancy!B$3*Beds!B17),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B18" s="38">
-        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="40" t="str">
-        <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,Nights!B19/(Occupancy!B$3*Beds!B19),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>BILBAO</v>
       </c>
       <c r="B20" s="36">
         <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,Nights!B20/(Occupancy!B$3*Beds!B20),0),"")</f>
@@ -2132,23 +2044,23 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>General Concha 24</v>
-      </c>
-      <c r="B21" s="37">
+        <v>Nau 14</v>
+      </c>
+      <c r="B21" s="36">
         <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,Nights!B21/(Occupancy!B$3*Beds!B21),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="41" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="36">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,Nights!B22/(Occupancy!B$3*Beds!B22),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,7 +2068,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="38" t="str">
+      <c r="B23" s="36" t="str">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,Nights!B23/(Occupancy!B$3*Beds!B23),0),"")</f>
         <v/>
       </c>
@@ -2166,7 +2078,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="40" t="str">
+      <c r="B24" s="38" t="str">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,Nights!B24/(Occupancy!B$3*Beds!B24),0),"")</f>
         <v/>
       </c>
@@ -2174,9 +2086,9 @@
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B25" s="36">
+        <v>BILBAO</v>
+      </c>
+      <c r="B25" s="34">
         <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,Nights!B25/(Occupancy!B$3*Beds!B25),0),"")</f>
         <v>0</v>
       </c>
@@ -2184,9 +2096,9 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B26" s="37">
+        <v>General Concha 24</v>
+      </c>
+      <c r="B26" s="35">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
         <v>0</v>
       </c>
@@ -2196,13 +2108,13 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="38" t="str">
+      <c r="B27" s="36" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v/>
       </c>
@@ -2211,72 +2123,72 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="40" t="str">
+        <v>MADRID</v>
+      </c>
+      <c r="B29" s="34">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,Nights!B29/(Occupancy!B$3*Beds!B29),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="12" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>3rd PARTIES</v>
+        <v>Carlos III Campus Getafe</v>
       </c>
       <c r="B30" s="35">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="36" t="str">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="38" t="str">
+        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B33" s="33">
+        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="36">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B34" s="34">
+        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="37">
-        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="38">
-        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
-      </c>
-      <c r="B34" s="38">
-        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
-      </c>
-      <c r="B35" s="38">
+      <c r="B35" s="35">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
         <v>0</v>
       </c>
@@ -2284,9 +2196,9 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
-      </c>
-      <c r="B36" s="38">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B36" s="36">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,Nights!B36/(Occupancy!B$3*Beds!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -2294,9 +2206,9 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
-      </c>
-      <c r="B37" s="38">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B37" s="36">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,Nights!B37/(Occupancy!B$3*Beds!B37),0),"")</f>
         <v>0</v>
       </c>
@@ -2304,9 +2216,9 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
-      </c>
-      <c r="B38" s="38">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B38" s="36">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,Nights!B38/(Occupancy!B$3*Beds!B38),0),"")</f>
         <v>0</v>
       </c>
@@ -2314,9 +2226,9 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B39" s="38">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B39" s="36">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,Nights!B39/(Occupancy!B$3*Beds!B39),0),"")</f>
         <v>0</v>
       </c>
@@ -2324,9 +2236,9 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B40" s="38">
+        <v>Encarnación 160</v>
+      </c>
+      <c r="B40" s="36">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,Nights!B40/(Occupancy!B$3*Beds!B40),0),"")</f>
         <v>0</v>
       </c>
@@ -2334,9 +2246,9 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B41" s="38">
+        <v>Gran Via 598</v>
+      </c>
+      <c r="B41" s="36">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,Nights!B41/(Occupancy!B$3*Beds!B41),0),"")</f>
         <v>0</v>
       </c>
@@ -2344,31 +2256,37 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
+        <v>Ramón Albó 6</v>
+      </c>
+      <c r="B42" s="36">
+        <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,Nights!B42/(Occupancy!B$3*Beds!B42),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
+        <v>Robrenyo 67</v>
+      </c>
+      <c r="B43" s="36">
+        <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,Nights!B43/(Occupancy!B$3*Beds!B43),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v>Sardenya 326</v>
+      </c>
+      <c r="B44" s="36">
+        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,Nights!B44/(Occupancy!B$3*Beds!B44),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
         <v>Travessera 43</v>
-      </c>
-      <c r="B42" s="38">
-        <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,Nights!B42/(Occupancy!B$3*Beds!B42),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="39"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="40" t="str">
-        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,Nights!B44/(Occupancy!B$3*Beds!B44),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>VALENCIA</v>
       </c>
       <c r="B45" s="36">
         <f>IF($A45&lt;&gt;"",IF(Beds!B45&lt;&gt;0,Nights!B45/(Occupancy!B$3*Beds!B45),0),"")</f>
@@ -2376,97 +2294,16 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="38" t="str">
-        <f>IF($A46&lt;&gt;"",IF(Beds!B46&lt;&gt;0,Nights!B46/(Occupancy!B$3*Beds!B46),0),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="37"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="39"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="39"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="str">
-        <f>IF(Beds!A49&lt;&gt;"",Beds!A49,"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="40" t="str">
-        <f>IF($A49&lt;&gt;"",IF(Beds!B49&lt;&gt;0,Nights!B49/(Occupancy!B$3*Beds!B49),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(Beds!A50&lt;&gt;"",Beds!A50,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B50" s="36">
-        <f>IF($A50&lt;&gt;"",IF(Beds!B50&lt;&gt;0,Nights!B50/(Occupancy!B$3*Beds!B50),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="38" t="str">
-        <f>IF($A51&lt;&gt;"",IF(Beds!B51&lt;&gt;0,Nights!B51/(Occupancy!B$3*Beds!B51),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="39"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="39"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="str">
-        <f>IF(Beds!A54&lt;&gt;"",Beds!A54,"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="40" t="str">
-        <f>IF($A54&lt;&gt;"",IF(Beds!B54&lt;&gt;0,Nights!B54/(Occupancy!B$3*Beds!B54),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(Beds!A55&lt;&gt;"",Beds!A55,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B55" s="36">
-        <f>IF($A55&lt;&gt;"",IF(Beds!B55&lt;&gt;0,Nights!B55/(Occupancy!B$3*Beds!B55),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="38" t="str">
-        <f>IF($A56&lt;&gt;"",IF(Beds!B56&lt;&gt;0,Nights!B56/(Occupancy!B$3*Beds!B56),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="39"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="39"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="str">
-        <f>IF(Beds!A59&lt;&gt;"",Beds!A59,"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="40" t="str">
-        <f>IF($A59&lt;&gt;"",IF(Beds!B59&lt;&gt;0,Nights!B59/(Occupancy!B$3*Beds!B59),0),"")</f>
+      <c r="A47" s="16" t="str">
+        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="38" t="str">
+        <f>IF($A47&lt;&gt;"",IF(Beds!B47&lt;&gt;0,Nights!B47/(Occupancy!B$3*Beds!B47),0),"")</f>
         <v/>
       </c>
     </row>
@@ -2482,7 +2319,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2493,20 +2330,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -2516,8 +2353,8 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="26">
-        <f t="shared" ref="B4" si="1">B5+B30</f>
+      <c r="B4" s="25">
+        <f>B5+B33</f>
         <v>0</v>
       </c>
     </row>
@@ -2526,8 +2363,8 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="27">
-        <f t="shared" ref="B5" si="2">B6+B15+B20+B25</f>
+      <c r="B5" s="26">
+        <f>B6+B18+B25+B29</f>
         <v>0</v>
       </c>
     </row>
@@ -2536,8 +2373,8 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="28">
-        <f t="shared" ref="B6" si="3">SUM(B7:B14)</f>
+      <c r="B6" s="27">
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +2383,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <f>IF($A7&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A7,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2556,7 +2393,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Napols 206</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A8,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2566,7 +2403,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f>IF($A9&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A9,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2576,7 +2413,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f>IF($A10&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A10,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2586,7 +2423,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f>IF($A11&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A11,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2596,95 +2433,95 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f>IF($A12&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A12,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="31" t="str">
+        <v>Concordia 12</v>
+      </c>
+      <c r="B13" s="29">
         <f>IF($A13&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A13,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="32" t="str">
+        <v>Consell De Cent 538</v>
+      </c>
+      <c r="B14" s="29">
         <f>IF($A14&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A14,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
+        <v>Còrsega 396</v>
+      </c>
+      <c r="B15" s="30">
+        <f>IF($A15&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A15,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A16,'data-rent'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A17,'data-rent'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B15" s="28">
-        <f t="shared" ref="B15" si="4">SUM(B16:B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+      <c r="B18" s="27">
+        <f>SUM(B19:B24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B16" s="29">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A16,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+      <c r="B19" s="28">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A19,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="str">
+        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B17" s="30">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A17,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B18" s="30">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A18,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="32" t="str">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A19,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B20" s="28">
-        <f t="shared" ref="B20" si="5">SUM(B21:B24)</f>
+      <c r="B20" s="29">
+        <f>IF($A20&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A20,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>General Concha 24</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="29">
         <f>IF($A21&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A21,'data-rent'!E:E),"")</f>
@@ -2692,13 +2529,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="33" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A22,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,7 +2543,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="29" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A23,'data-rent'!E:E),"")</f>
         <v/>
       </c>
@@ -2716,7 +2553,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="32" t="str">
+      <c r="B24" s="31" t="str">
         <f>IF($A24&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A24,'data-rent'!E:E),"")</f>
         <v/>
       </c>
@@ -2724,19 +2561,19 @@
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B25" s="28">
-        <f t="shared" ref="B25" si="6">SUM(B26:B29)</f>
+        <v>BILBAO</v>
+      </c>
+      <c r="B25" s="27">
+        <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B26" s="29">
+        <v>General Concha 24</v>
+      </c>
+      <c r="B26" s="28">
         <f>IF($A26&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A26,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2746,87 +2583,87 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="29" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A27,'data-rent'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v/>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B28" s="31" t="str">
         <f>IF($A28&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A28,'data-rent'!E:E),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="32" t="str">
-        <f>IF($A29&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A29,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>MADRID</v>
+      </c>
+      <c r="B29" s="27">
+        <f>SUM(B30:B32)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="12" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B30" s="28">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A30,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>IF($A31&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A31,'data-rent'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="31" t="str">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A32,'data-rent'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="27">
-        <f t="shared" ref="B30" si="7">SUM(B32:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B33" s="26">
+        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="28">
-        <f t="shared" ref="B31" si="8">SUM(B32:B39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B34" s="27">
+        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="29">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A32,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="30">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A33,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
-      </c>
-      <c r="B34" s="30">
-        <f>IF($A34&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A34,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
-      </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <f>IF($A35&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A35,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2834,9 +2671,9 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
-      </c>
-      <c r="B36" s="30">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A36,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2844,9 +2681,9 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
-      </c>
-      <c r="B37" s="30">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A37,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2854,9 +2691,9 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
-      </c>
-      <c r="B38" s="30">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A38,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2864,9 +2701,9 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B39" s="30">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A39,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2874,9 +2711,9 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B40" s="30">
+        <v>Encarnación 160</v>
+      </c>
+      <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A40,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2884,9 +2721,9 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B41" s="30">
+        <v>Gran Via 598</v>
+      </c>
+      <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A41,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2894,129 +2731,54 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
+        <v>Ramón Albó 6</v>
+      </c>
+      <c r="B42" s="29">
+        <f>IF($A42&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A42,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
+        <v>Robrenyo 67</v>
+      </c>
+      <c r="B43" s="29">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A43,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v>Sardenya 326</v>
+      </c>
+      <c r="B44" s="29">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A44,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B42" s="30">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A42,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="32" t="str">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A44,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B45" s="28">
-        <f t="shared" ref="B45" si="9">SUM(B46:B51)</f>
+      <c r="B45" s="29">
+        <f>IF($A45&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A45,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="30" t="str">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A46,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="31"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="str">
-        <f>IF(Beds!A49&lt;&gt;"",Beds!A49,"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="32" t="str">
-        <f>IF($A49&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A49,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(Beds!A50&lt;&gt;"",Beds!A50,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B50" s="28">
-        <f t="shared" ref="B50" si="10">SUM(B51:B56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="30" t="str">
-        <f>IF($A51&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A51,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="31"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="str">
-        <f>IF(Beds!A54&lt;&gt;"",Beds!A54,"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="32" t="str">
-        <f>IF($A54&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A54,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(Beds!A55&lt;&gt;"",Beds!A55,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B55" s="28">
-        <f t="shared" ref="B55" si="11">SUM(B56:B61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="30" t="str">
-        <f>IF($A56&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A56,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="31"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="31"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="str">
-        <f>IF(Beds!A59&lt;&gt;"",Beds!A59,"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="32" t="str">
-        <f>IF($A59&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A59,'data-rent'!E:E),"")</f>
+      <c r="A47" s="16" t="str">
+        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="31" t="str">
+        <f>IF($A47&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A47,'data-rent'!E:E),"")</f>
         <v/>
       </c>
     </row>
@@ -3032,7 +2794,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3043,20 +2805,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -3066,8 +2828,8 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="26">
-        <f t="shared" ref="B4" si="1">B5+B30</f>
+      <c r="B4" s="25">
+        <f>B5+B33</f>
         <v>0</v>
       </c>
     </row>
@@ -3076,8 +2838,8 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="27">
-        <f t="shared" ref="B5" si="2">B6+B15+B20+B25</f>
+      <c r="B5" s="26">
+        <f>B6+B18+B25+B29</f>
         <v>0</v>
       </c>
     </row>
@@ -3086,8 +2848,8 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="28">
-        <f t="shared" ref="B6" si="3">SUM(B7:B14)</f>
+      <c r="B6" s="27">
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -3096,7 +2858,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <f>IF($A7&lt;&gt;"",SUMIF('data-services'!$A:$A,$A7,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3106,7 +2868,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Napols 206</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",SUMIF('data-services'!$A:$A,$A8,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3116,7 +2878,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f>IF($A9&lt;&gt;"",SUMIF('data-services'!$A:$A,$A9,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3126,7 +2888,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f>IF($A10&lt;&gt;"",SUMIF('data-services'!$A:$A,$A10,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3136,7 +2898,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f>IF($A11&lt;&gt;"",SUMIF('data-services'!$A:$A,$A11,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3146,95 +2908,95 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f>IF($A12&lt;&gt;"",SUMIF('data-services'!$A:$A,$A12,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="31" t="str">
+        <v>Concordia 12</v>
+      </c>
+      <c r="B13" s="29">
         <f>IF($A13&lt;&gt;"",SUMIF('data-services'!$A:$A,$A13,'data-services'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="32" t="str">
+        <v>Consell De Cent 538</v>
+      </c>
+      <c r="B14" s="29">
         <f>IF($A14&lt;&gt;"",SUMIF('data-services'!$A:$A,$A14,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
+        <v>Còrsega 396</v>
+      </c>
+      <c r="B15" s="30">
+        <f>IF($A15&lt;&gt;"",SUMIF('data-services'!$A:$A,$A15,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-services'!$A:$A,$A16,'data-services'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-services'!$A:$A,$A17,'data-services'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B15" s="28">
-        <f t="shared" ref="B15" si="4">SUM(B16:B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+      <c r="B18" s="27">
+        <f>SUM(B19:B24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B16" s="29">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-services'!$A:$A,$A16,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+      <c r="B19" s="28">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-services'!$A:$A,$A19,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="str">
+        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B17" s="30">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-services'!$A:$A,$A17,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B18" s="30">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-services'!$A:$A,$A18,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="32" t="str">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-services'!$A:$A,$A19,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B20" s="28">
-        <f t="shared" ref="B20" si="5">SUM(B21:B24)</f>
+      <c r="B20" s="29">
+        <f>IF($A20&lt;&gt;"",SUMIF('data-services'!$A:$A,$A20,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>General Concha 24</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="29">
         <f>IF($A21&lt;&gt;"",SUMIF('data-services'!$A:$A,$A21,'data-services'!E:E),"")</f>
@@ -3242,13 +3004,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="33" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",SUMIF('data-services'!$A:$A,$A22,'data-services'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3256,7 +3018,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="29" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-services'!$A:$A,$A23,'data-services'!E:E),"")</f>
         <v/>
       </c>
@@ -3266,7 +3028,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="32" t="str">
+      <c r="B24" s="31" t="str">
         <f>IF($A24&lt;&gt;"",SUMIF('data-services'!$A:$A,$A24,'data-services'!E:E),"")</f>
         <v/>
       </c>
@@ -3274,19 +3036,19 @@
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B25" s="28">
-        <f t="shared" ref="B25" si="6">SUM(B26:B29)</f>
+        <v>BILBAO</v>
+      </c>
+      <c r="B25" s="27">
+        <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B26" s="29">
+        <v>General Concha 24</v>
+      </c>
+      <c r="B26" s="28">
         <f>IF($A26&lt;&gt;"",SUMIF('data-services'!$A:$A,$A26,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3296,87 +3058,87 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="29" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-services'!$A:$A,$A27,'data-services'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v/>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B28" s="31" t="str">
         <f>IF($A28&lt;&gt;"",SUMIF('data-services'!$A:$A,$A28,'data-services'!E:E),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="32" t="str">
-        <f>IF($A29&lt;&gt;"",SUMIF('data-services'!$A:$A,$A29,'data-services'!E:E),"")</f>
-        <v/>
+        <v>MADRID</v>
+      </c>
+      <c r="B29" s="27">
+        <f>SUM(B30:B32)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="12" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B30" s="28">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-services'!$A:$A,$A30,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>IF($A31&lt;&gt;"",SUMIF('data-services'!$A:$A,$A31,'data-services'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="31" t="str">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-services'!$A:$A,$A32,'data-services'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="27">
-        <f t="shared" ref="B30" si="7">SUM(B32:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B33" s="26">
+        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="28">
-        <f t="shared" ref="B31" si="8">SUM(B32:B39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B34" s="27">
+        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="29">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-services'!$A:$A,$A32,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="30">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-services'!$A:$A,$A33,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
-      </c>
-      <c r="B34" s="30">
-        <f>IF($A34&lt;&gt;"",SUMIF('data-services'!$A:$A,$A34,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
-      </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <f>IF($A35&lt;&gt;"",SUMIF('data-services'!$A:$A,$A35,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3384,9 +3146,9 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
-      </c>
-      <c r="B36" s="30">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",SUMIF('data-services'!$A:$A,$A36,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3394,9 +3156,9 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
-      </c>
-      <c r="B37" s="30">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-services'!$A:$A,$A37,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3404,9 +3166,9 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
-      </c>
-      <c r="B38" s="30">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",SUMIF('data-services'!$A:$A,$A38,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3414,9 +3176,9 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B39" s="30">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",SUMIF('data-services'!$A:$A,$A39,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3424,9 +3186,9 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B40" s="30">
+        <v>Encarnación 160</v>
+      </c>
+      <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",SUMIF('data-services'!$A:$A,$A40,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3434,9 +3196,9 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B41" s="30">
+        <v>Gran Via 598</v>
+      </c>
+      <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",SUMIF('data-services'!$A:$A,$A41,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3444,129 +3206,54 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
+        <v>Ramón Albó 6</v>
+      </c>
+      <c r="B42" s="29">
+        <f>IF($A42&lt;&gt;"",SUMIF('data-services'!$A:$A,$A42,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
+        <v>Robrenyo 67</v>
+      </c>
+      <c r="B43" s="29">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-services'!$A:$A,$A43,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v>Sardenya 326</v>
+      </c>
+      <c r="B44" s="29">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-services'!$A:$A,$A44,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B42" s="30">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-services'!$A:$A,$A42,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="32" t="str">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-services'!$A:$A,$A44,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B45" s="28">
-        <f t="shared" ref="B45" si="9">SUM(B46:B51)</f>
+      <c r="B45" s="29">
+        <f>IF($A45&lt;&gt;"",SUMIF('data-services'!$A:$A,$A45,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="30" t="str">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-services'!$A:$A,$A46,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="31"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="str">
-        <f>IF(Beds!A49&lt;&gt;"",Beds!A49,"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="32" t="str">
-        <f>IF($A49&lt;&gt;"",SUMIF('data-services'!$A:$A,$A49,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(Beds!A50&lt;&gt;"",Beds!A50,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B50" s="28">
-        <f t="shared" ref="B50" si="10">SUM(B51:B56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="30" t="str">
-        <f>IF($A51&lt;&gt;"",SUMIF('data-services'!$A:$A,$A51,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="31"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="str">
-        <f>IF(Beds!A54&lt;&gt;"",Beds!A54,"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="32" t="str">
-        <f>IF($A54&lt;&gt;"",SUMIF('data-services'!$A:$A,$A54,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(Beds!A55&lt;&gt;"",Beds!A55,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B55" s="28">
-        <f t="shared" ref="B55" si="11">SUM(B56:B61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="30" t="str">
-        <f>IF($A56&lt;&gt;"",SUMIF('data-services'!$A:$A,$A56,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="31"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="31"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="str">
-        <f>IF(Beds!A59&lt;&gt;"",Beds!A59,"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="32" t="str">
-        <f>IF($A59&lt;&gt;"",SUMIF('data-services'!$A:$A,$A59,'data-services'!E:E),"")</f>
+      <c r="A47" s="16" t="str">
+        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="31" t="str">
+        <f>IF($A47&lt;&gt;"",SUMIF('data-services'!$A:$A,$A47,'data-services'!E:E),"")</f>
         <v/>
       </c>
     </row>
@@ -3582,7 +3269,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3593,20 +3280,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -3616,7 +3303,7 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <f>IF($A4&lt;&gt;"",IF(Beds!B4*Occupancy!B4&lt;&gt;0,'Income rent'!B4/(Beds!B4*Occupancy!B4),0),"")</f>
         <v>0</v>
       </c>
@@ -3626,7 +3313,7 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <f>IF($A5&lt;&gt;"",IF(Beds!B5*Occupancy!B5&lt;&gt;0,'Income rent'!B5/(Beds!B5*Occupancy!B5),0),"")</f>
         <v>0</v>
       </c>
@@ -3636,7 +3323,7 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <f>IF($A6&lt;&gt;"",IF(Beds!B6*Occupancy!B6&lt;&gt;0,'Income rent'!B6/(Beds!B6*Occupancy!B6),0),"")</f>
         <v>0</v>
       </c>
@@ -3646,7 +3333,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <f>IF($A7&lt;&gt;"",IF(Beds!B7*Occupancy!B7&lt;&gt;0,'Income rent'!B7/(Beds!B7*Occupancy!B7),0),"")</f>
         <v>0</v>
       </c>
@@ -3656,7 +3343,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Napols 206</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8*Occupancy!B8&lt;&gt;0,'Income rent'!B8/(Beds!B8*Occupancy!B8),0),"")</f>
         <v>0</v>
       </c>
@@ -3666,7 +3353,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f>IF($A9&lt;&gt;"",IF(Beds!B9*Occupancy!B9&lt;&gt;0,'Income rent'!B9/(Beds!B9*Occupancy!B9),0),"")</f>
         <v>0</v>
       </c>
@@ -3676,7 +3363,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f>IF($A10&lt;&gt;"",IF(Beds!B10*Occupancy!B10&lt;&gt;0,'Income rent'!B10/(Beds!B10*Occupancy!B10),0),"")</f>
         <v>0</v>
       </c>
@@ -3686,7 +3373,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f>IF($A11&lt;&gt;"",IF(Beds!B11*Occupancy!B11&lt;&gt;0,'Income rent'!B11/(Beds!B11*Occupancy!B11),0),"")</f>
         <v>0</v>
       </c>
@@ -3696,109 +3383,109 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f>IF($A12&lt;&gt;"",IF(Beds!B12*Occupancy!B12&lt;&gt;0,'Income rent'!B12/(Beds!B12*Occupancy!B12),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="31" t="str">
-        <f>IF($A13&lt;&gt;"",IF(Beds!B13*Occupancy!B13&lt;&gt;0,'Income rent'!B13/(Beds!B13*Occupancy!B13),0),"")</f>
-        <v/>
+        <v>Concordia 12</v>
+      </c>
+      <c r="B13" s="29">
+        <f>IF($A13&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="32" t="str">
-        <f>IF($A14&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+        <v>Consell De Cent 538</v>
+      </c>
+      <c r="B14" s="29">
+        <f>IF($A14&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
+        <v>Còrsega 396</v>
+      </c>
+      <c r="B15" s="30">
+        <f>IF($A15&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>IF($A16&lt;&gt;"",IF(Beds!B16*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B16*Occupancy!B17),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",IF(Beds!B17*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B17*Occupancy!B17),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B15" s="28">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+      <c r="B18" s="27">
+        <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B16" s="29">
-        <f>IF($A16&lt;&gt;"",IF(Beds!B16*Occupancy!B16&lt;&gt;0,'Income rent'!B16/(Beds!B16*Occupancy!B16),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+      <c r="B19" s="28">
+        <f>IF($A19&lt;&gt;"",IF(Beds!B19*Occupancy!B19&lt;&gt;0,'Income rent'!B19/(Beds!B19*Occupancy!B19),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="str">
+        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B17" s="30">
-        <f>IF($A17&lt;&gt;"",IF(Beds!B17*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B17*Occupancy!B17),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B20" s="29">
+        <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B20*Occupancy!B20),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="str">
+        <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
+        <v>Nau 14</v>
+      </c>
+      <c r="B21" s="29">
+        <f>IF($A21&lt;&gt;"",IF(Beds!B21*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B21*Occupancy!B20),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="str">
+        <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v>Facultades</v>
       </c>
-      <c r="B18" s="30">
-        <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="32" t="str">
-        <f>IF($A19&lt;&gt;"",IF(Beds!B19*Occupancy!B19&lt;&gt;0,'Income rent'!B19/(Beds!B19*Occupancy!B19),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B20" s="28">
-        <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B20*Occupancy!B20),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
-        <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>General Concha 24</v>
-      </c>
-      <c r="B21" s="29">
-        <f>IF($A21&lt;&gt;"",IF(Beds!B21*Occupancy!B21&lt;&gt;0,'Income rent'!B21/(Beds!B21*Occupancy!B21),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
-        <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="33" t="str">
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22*Occupancy!B22&lt;&gt;0,'Income rent'!B22/(Beds!B22*Occupancy!B22),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3806,7 +3493,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="29" t="str">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23*Occupancy!B23&lt;&gt;0,'Income rent'!B23/(Beds!B23*Occupancy!B23),0),"")</f>
         <v/>
       </c>
@@ -3816,7 +3503,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="32" t="str">
+      <c r="B24" s="31" t="str">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24*Occupancy!B24&lt;&gt;0,'Income rent'!B24/(Beds!B24*Occupancy!B24),0),"")</f>
         <v/>
       </c>
@@ -3824,9 +3511,9 @@
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B25" s="28">
+        <v>BILBAO</v>
+      </c>
+      <c r="B25" s="27">
         <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B25&lt;&gt;0,'Income rent'!B25/(Beds!B25*Occupancy!B25),0),"")</f>
         <v>0</v>
       </c>
@@ -3834,9 +3521,9 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B26" s="29">
+        <v>General Concha 24</v>
+      </c>
+      <c r="B26" s="28">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26*Occupancy!B26&lt;&gt;0,'Income rent'!B26/(Beds!B26*Occupancy!B26),0),"")</f>
         <v>0</v>
       </c>
@@ -3846,87 +3533,87 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="29" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v/>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B28" s="31" t="str">
         <f>IF($A28&lt;&gt;"",IF(Beds!B28*Occupancy!B28&lt;&gt;0,'Income rent'!B28/(Beds!B28*Occupancy!B28),0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="32" t="str">
+        <v>MADRID</v>
+      </c>
+      <c r="B29" s="27">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29*Occupancy!B29&lt;&gt;0,'Income rent'!B29/(Beds!B29*Occupancy!B29),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="12" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B30" s="28">
+        <f>IF($A30&lt;&gt;"",IF(Beds!B30*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B30*Occupancy!B30),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B31&lt;&gt;0,'Income rent'!B31/(Beds!B31*Occupancy!B31),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="31" t="str">
+        <f>IF($A32&lt;&gt;"",IF(Beds!B32*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B32*Occupancy!B32),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="27">
-        <f>IF($A30&lt;&gt;"",IF(Beds!B30*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B30*Occupancy!B30),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B33" s="26">
+        <f>IF($A33&lt;&gt;"",IF(Beds!B33*Occupancy!B33&lt;&gt;0,'Income rent'!B33/(Beds!B33*Occupancy!B33),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="28">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B31*Occupancy!B32),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B34" s="27">
+        <f>IF($A34&lt;&gt;"",IF(Beds!B34*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B34*Occupancy!B35),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="29">
-        <f>IF($A32&lt;&gt;"",IF(Beds!B32*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B32*Occupancy!B32),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="30">
-        <f>IF($A33&lt;&gt;"",IF(Beds!B33*Occupancy!B33&lt;&gt;0,'Income rent'!B33/(Beds!B33*Occupancy!B33),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
-      </c>
-      <c r="B34" s="30">
-        <f>IF($A34&lt;&gt;"",IF(Beds!B34*Occupancy!B34&lt;&gt;0,'Income rent'!B34/(Beds!B34*Occupancy!B34),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
-      </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B35*Occupancy!B35),0),"")</f>
         <v>0</v>
       </c>
@@ -3934,9 +3621,9 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
-      </c>
-      <c r="B36" s="30">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B36*Occupancy!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -3944,9 +3631,9 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
-      </c>
-      <c r="B37" s="30">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37*Occupancy!B37&lt;&gt;0,'Income rent'!B37/(Beds!B37*Occupancy!B37),0),"")</f>
         <v>0</v>
       </c>
@@ -3954,9 +3641,9 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
-      </c>
-      <c r="B38" s="30">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38*Occupancy!B38&lt;&gt;0,'Income rent'!B38/(Beds!B38*Occupancy!B38),0),"")</f>
         <v>0</v>
       </c>
@@ -3964,9 +3651,9 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B39" s="30">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39*Occupancy!B39&lt;&gt;0,'Income rent'!B39/(Beds!B39*Occupancy!B39),0),"")</f>
         <v>0</v>
       </c>
@@ -3974,9 +3661,9 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B40" s="30">
+        <v>Encarnación 160</v>
+      </c>
+      <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40*Occupancy!B40&lt;&gt;0,'Income rent'!B40/(Beds!B40*Occupancy!B40),0),"")</f>
         <v>0</v>
       </c>
@@ -3984,9 +3671,9 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B41" s="30">
+        <v>Gran Via 598</v>
+      </c>
+      <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41*Occupancy!B41&lt;&gt;0,'Income rent'!B41/(Beds!B41*Occupancy!B41),0),"")</f>
         <v>0</v>
       </c>
@@ -3994,129 +3681,54 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
+        <v>Ramón Albó 6</v>
+      </c>
+      <c r="B42" s="29">
+        <f>IF($A42&lt;&gt;"",IF(Beds!B42*Occupancy!B42&lt;&gt;0,'Income rent'!B42/(Beds!B42*Occupancy!B42),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
+        <v>Robrenyo 67</v>
+      </c>
+      <c r="B43" s="29">
+        <f>IF($A43&lt;&gt;"",IF(Beds!B43*Occupancy!B43&lt;&gt;0,'Income rent'!B43/(Beds!B43*Occupancy!B43),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v>Sardenya 326</v>
+      </c>
+      <c r="B44" s="29">
+        <f>IF($A44&lt;&gt;"",IF(Beds!B44*Occupancy!B44&lt;&gt;0,'Income rent'!B44/(Beds!B44*Occupancy!B44),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B42" s="30">
-        <f>IF($A42&lt;&gt;"",IF(Beds!B42*Occupancy!B42&lt;&gt;0,'Income rent'!B42/(Beds!B42*Occupancy!B42),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="32" t="str">
-        <f>IF($A44&lt;&gt;"",IF(Beds!B44*Occupancy!B44&lt;&gt;0,'Income rent'!B44/(Beds!B44*Occupancy!B44),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B45" s="28">
+      <c r="B45" s="29">
         <f>IF($A45&lt;&gt;"",IF(Beds!B45*Occupancy!B45&lt;&gt;0,'Income rent'!B45/(Beds!B45*Occupancy!B45),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="30" t="str">
-        <f>IF($A46&lt;&gt;"",IF(Beds!B46*Occupancy!B46&lt;&gt;0,'Income rent'!B46/(Beds!B46*Occupancy!B46),0),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="31"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="str">
-        <f>IF(Beds!A49&lt;&gt;"",Beds!A49,"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="32" t="str">
-        <f>IF($A49&lt;&gt;"",IF(Beds!B49*Occupancy!B49&lt;&gt;0,'Income rent'!B49/(Beds!B49*Occupancy!B49),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(Beds!A50&lt;&gt;"",Beds!A50,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B50" s="28">
-        <f>IF($A50&lt;&gt;"",IF(Beds!B50*Occupancy!B50&lt;&gt;0,'Income rent'!B50/(Beds!B50*Occupancy!B50),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="30" t="str">
-        <f>IF($A51&lt;&gt;"",IF(Beds!B51*Occupancy!B51&lt;&gt;0,'Income rent'!B51/(Beds!B51*Occupancy!B51),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="31"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="str">
-        <f>IF(Beds!A54&lt;&gt;"",Beds!A54,"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="32" t="str">
-        <f>IF($A54&lt;&gt;"",IF(Beds!B54*Occupancy!B54&lt;&gt;0,'Income rent'!B54/(Beds!B54*Occupancy!B54),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(Beds!A55&lt;&gt;"",Beds!A55,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B55" s="28">
-        <f>IF($A55&lt;&gt;"",IF(Beds!B55*Occupancy!B55&lt;&gt;0,'Income rent'!B55/(Beds!B55*Occupancy!B55),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="30" t="str">
-        <f>IF($A56&lt;&gt;"",IF(Beds!B56*Occupancy!B56&lt;&gt;0,'Income rent'!B56/(Beds!B56*Occupancy!B56),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="31"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="31"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="str">
-        <f>IF(Beds!A59&lt;&gt;"",Beds!A59,"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="32" t="str">
-        <f>IF($A59&lt;&gt;"",IF(Beds!B59*Occupancy!B59&lt;&gt;0,'Income rent'!B59/(Beds!B59*Occupancy!B59),0),"")</f>
+      <c r="A47" s="16" t="str">
+        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="31" t="str">
+        <f>IF($A47&lt;&gt;"",IF(Beds!B47*Occupancy!B47&lt;&gt;0,'Income rent'!B47/(Beds!B47*Occupancy!B47),0),"")</f>
         <v/>
       </c>
     </row>
@@ -4132,7 +3744,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4143,20 +3755,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -4166,7 +3778,7 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <f>IF($A4&lt;&gt;"",IF(Beds!B4&lt;&gt;0,'Income rent'!B4/Beds!B4,0),"")</f>
         <v>0</v>
       </c>
@@ -4176,7 +3788,7 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <f>IF($A5&lt;&gt;"",IF(Beds!B5&lt;&gt;0,'Income rent'!B5/Beds!B5,0),"")</f>
         <v>0</v>
       </c>
@@ -4186,7 +3798,7 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <f>IF($A6&lt;&gt;"",IF(Beds!B6&lt;&gt;0,'Income rent'!B6/Beds!B6,0),"")</f>
         <v>0</v>
       </c>
@@ -4196,7 +3808,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <f>IF($A7&lt;&gt;"",IF(Beds!B7&lt;&gt;0,'Income rent'!B7/Beds!B7,0),"")</f>
         <v>0</v>
       </c>
@@ -4206,7 +3818,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Napols 206</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8&lt;&gt;0,'Income rent'!B8/Beds!B8,0),"")</f>
         <v>0</v>
       </c>
@@ -4216,7 +3828,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f>IF($A9&lt;&gt;"",IF(Beds!B9&lt;&gt;0,'Income rent'!B9/Beds!B9,0),"")</f>
         <v>0</v>
       </c>
@@ -4226,7 +3838,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <f>IF($A10&lt;&gt;"",IF(Beds!B10&lt;&gt;0,'Income rent'!B10/Beds!B10,0),"")</f>
         <v>0</v>
       </c>
@@ -4236,7 +3848,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <f>IF($A11&lt;&gt;"",IF(Beds!B11&lt;&gt;0,'Income rent'!B11/Beds!B11,0),"")</f>
         <v>0</v>
       </c>
@@ -4246,109 +3858,109 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f>IF($A12&lt;&gt;"",IF(Beds!B12&lt;&gt;0,'Income rent'!B12/Beds!B12,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="31" t="str">
-        <f>IF($A13&lt;&gt;"",IF(Beds!B13&lt;&gt;0,'Income rent'!B13/Beds!B13,0),"")</f>
-        <v/>
+        <v>Concordia 12</v>
+      </c>
+      <c r="B13" s="29">
+        <f>IF($A13&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="32" t="str">
-        <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+        <v>Consell De Cent 538</v>
+      </c>
+      <c r="B14" s="29">
+        <f>IF($A14&lt;&gt;"",IF(Beds!B15&lt;&gt;0,'Income rent'!B15/Beds!B15,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
+        <v>Còrsega 396</v>
+      </c>
+      <c r="B15" s="30">
+        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,'Income rent'!B15/Beds!B15,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,'Income rent'!B17/Beds!B16,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,'Income rent'!B17/Beds!B17,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B15" s="28">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,'Income rent'!B15/Beds!B15,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+      <c r="B18" s="27">
+        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B16" s="29">
-        <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,'Income rent'!B16/Beds!B16,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+      <c r="B19" s="28">
+        <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,'Income rent'!B19/Beds!B19,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="str">
+        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B17" s="30">
-        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,'Income rent'!B17/Beds!B17,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B20" s="29">
+        <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B20/Beds!B20,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="str">
+        <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
+        <v>Nau 14</v>
+      </c>
+      <c r="B21" s="29">
+        <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,'Income rent'!B20/Beds!B21,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="str">
+        <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v>Facultades</v>
       </c>
-      <c r="B18" s="30">
-        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="32" t="str">
-        <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,'Income rent'!B19/Beds!B19,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B20" s="28">
-        <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B20/Beds!B20,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
-        <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>General Concha 24</v>
-      </c>
-      <c r="B21" s="29">
-        <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,'Income rent'!B21/Beds!B21,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
-        <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="33" t="str">
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,'Income rent'!B22/Beds!B22,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4356,7 +3968,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="29" t="str">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,'Income rent'!B23/Beds!B23,0),"")</f>
         <v/>
       </c>
@@ -4366,7 +3978,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="32" t="str">
+      <c r="B24" s="31" t="str">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,'Income rent'!B24/Beds!B24,0),"")</f>
         <v/>
       </c>
@@ -4374,9 +3986,9 @@
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B25" s="28">
+        <v>BILBAO</v>
+      </c>
+      <c r="B25" s="27">
         <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B25/Beds!B25,0),"")</f>
         <v>0</v>
       </c>
@@ -4384,9 +3996,9 @@
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B26" s="29">
+        <v>General Concha 24</v>
+      </c>
+      <c r="B26" s="28">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,'Income rent'!B26/Beds!B26,0),"")</f>
         <v>0</v>
       </c>
@@ -4396,87 +4008,87 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="29" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v/>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B28" s="31" t="str">
         <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,'Income rent'!B28/Beds!B28,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="32" t="str">
+        <v>MADRID</v>
+      </c>
+      <c r="B29" s="27">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,'Income rent'!B29/Beds!B29,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="12" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B30" s="28">
+        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B31/Beds!B31,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="31" t="str">
+        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,'Income rent'!B32/Beds!B32,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="27">
-        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B33" s="26">
+        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,'Income rent'!B33/Beds!B33,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="28">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B32/Beds!B31,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B34" s="27">
+        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,'Income rent'!B35/Beds!B34,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="29">
-        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,'Income rent'!B32/Beds!B32,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="30">
-        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,'Income rent'!B33/Beds!B33,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
-      </c>
-      <c r="B34" s="30">
-        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,'Income rent'!B34/Beds!B34,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
-      </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B35/Beds!B35,0),"")</f>
         <v>0</v>
       </c>
@@ -4484,9 +4096,9 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
-      </c>
-      <c r="B36" s="30">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,'Income rent'!B36/Beds!B36,0),"")</f>
         <v>0</v>
       </c>
@@ -4494,9 +4106,9 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
-      </c>
-      <c r="B37" s="30">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,'Income rent'!B37/Beds!B37,0),"")</f>
         <v>0</v>
       </c>
@@ -4504,9 +4116,9 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
-      </c>
-      <c r="B38" s="30">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,'Income rent'!B38/Beds!B38,0),"")</f>
         <v>0</v>
       </c>
@@ -4514,9 +4126,9 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B39" s="30">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,'Income rent'!B39/Beds!B39,0),"")</f>
         <v>0</v>
       </c>
@@ -4524,9 +4136,9 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B40" s="30">
+        <v>Encarnación 160</v>
+      </c>
+      <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,'Income rent'!B40/Beds!B40,0),"")</f>
         <v>0</v>
       </c>
@@ -4534,9 +4146,9 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B41" s="30">
+        <v>Gran Via 598</v>
+      </c>
+      <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,'Income rent'!B41/Beds!B41,0),"")</f>
         <v>0</v>
       </c>
@@ -4544,129 +4156,54 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
+        <v>Ramón Albó 6</v>
+      </c>
+      <c r="B42" s="29">
+        <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,'Income rent'!B42/Beds!B42,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
+        <v>Robrenyo 67</v>
+      </c>
+      <c r="B43" s="29">
+        <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,'Income rent'!B43/Beds!B43,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v>Sardenya 326</v>
+      </c>
+      <c r="B44" s="29">
+        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,'Income rent'!B44/Beds!B44,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B42" s="30">
-        <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,'Income rent'!B42/Beds!B42,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="32" t="str">
-        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,'Income rent'!B44/Beds!B44,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B45" s="28">
+      <c r="B45" s="29">
         <f>IF($A45&lt;&gt;"",IF(Beds!B45&lt;&gt;0,'Income rent'!B45/Beds!B45,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="30" t="str">
-        <f>IF($A46&lt;&gt;"",IF(Beds!B46&lt;&gt;0,'Income rent'!B46/Beds!B46,0),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="31"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="str">
-        <f>IF(Beds!A49&lt;&gt;"",Beds!A49,"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="32" t="str">
-        <f>IF($A49&lt;&gt;"",IF(Beds!B49&lt;&gt;0,'Income rent'!B49/Beds!B49,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(Beds!A50&lt;&gt;"",Beds!A50,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B50" s="28">
-        <f>IF($A50&lt;&gt;"",IF(Beds!B50&lt;&gt;0,'Income rent'!B50/Beds!B50,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="30" t="str">
-        <f>IF($A51&lt;&gt;"",IF(Beds!B51&lt;&gt;0,'Income rent'!B51/Beds!B51,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="31"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="str">
-        <f>IF(Beds!A54&lt;&gt;"",Beds!A54,"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="32" t="str">
-        <f>IF($A54&lt;&gt;"",IF(Beds!B54&lt;&gt;0,'Income rent'!B54/Beds!B54,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(Beds!A55&lt;&gt;"",Beds!A55,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B55" s="28">
-        <f>IF($A55&lt;&gt;"",IF(Beds!B55&lt;&gt;0,'Income rent'!B55/Beds!B55,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="30" t="str">
-        <f>IF($A56&lt;&gt;"",IF(Beds!B56&lt;&gt;0,'Income rent'!B56/Beds!B56,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="31"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="31"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="str">
-        <f>IF(Beds!A59&lt;&gt;"",Beds!A59,"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="32" t="str">
-        <f>IF($A59&lt;&gt;"",IF(Beds!B59&lt;&gt;0,'Income rent'!B59/Beds!B59,0),"")</f>
+      <c r="A47" s="16" t="str">
+        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="31" t="str">
+        <f>IF($A47&lt;&gt;"",IF(Beds!B47&lt;&gt;0,'Income rent'!B47/Beds!B47,0),"")</f>
         <v/>
       </c>
     </row>
@@ -4682,7 +4219,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4693,20 +4230,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <f>'data-beds'!E1</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f t="shared" ref="B3" si="0">DAY(EOMONTH(B2,0))</f>
         <v>31</v>
       </c>
@@ -4716,8 +4253,8 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="42">
-        <f t="shared" ref="B4" si="1">B5+B30</f>
+      <c r="B4" s="39">
+        <f>B5+B33</f>
         <v>0</v>
       </c>
     </row>
@@ -4726,8 +4263,8 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="43">
-        <f t="shared" ref="B5" si="2">B6+B15+B20+B25</f>
+      <c r="B5" s="40">
+        <f>B6+B18+B25+B29</f>
         <v>0</v>
       </c>
     </row>
@@ -4736,8 +4273,8 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="44">
-        <f t="shared" ref="B6" si="3">SUM(B7:B14)</f>
+      <c r="B6" s="41">
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -4746,7 +4283,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="42">
         <f>IF($A7&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A7,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4756,7 +4293,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Napols 206</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="43">
         <f>IF($A8&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A8,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4766,7 +4303,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <f>IF($A9&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A9,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4776,7 +4313,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="43">
         <f>IF($A10&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A10,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4786,7 +4323,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="43">
         <f>IF($A11&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A11,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4796,109 +4333,109 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="43">
         <f>IF($A12&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A12,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="13" t="str">
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="47" t="str">
+        <v>Concordia 12</v>
+      </c>
+      <c r="B13" s="43">
         <f>IF($A13&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A13,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="48" t="str">
+        <v>Consell De Cent 538</v>
+      </c>
+      <c r="B14" s="43">
         <f>IF($A14&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A14,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
+        <v>Còrsega 396</v>
+      </c>
+      <c r="B15" s="44">
+        <f>IF($A15&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A15,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="44" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="45" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A17,'data-nights'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B15" s="44">
-        <f t="shared" ref="B15" si="4">SUM(B16:B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
+      <c r="B18" s="41">
+        <f>SUM(B19:B24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B16" s="45">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+      <c r="B19" s="42">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="str">
+        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B17" s="46">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A17,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B20" s="43">
+        <f>IF($A20&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A20,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="str">
+        <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
+        <v>Nau 14</v>
+      </c>
+      <c r="B21" s="43">
+        <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="str">
+        <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v>Facultades</v>
       </c>
-      <c r="B18" s="46">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A18,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="48" t="str">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B20" s="44">
-        <f t="shared" ref="B20" si="5">SUM(B21:B24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
-        <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>General Concha 24</v>
-      </c>
-      <c r="B21" s="45">
-        <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
-        <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="49" t="str">
+      <c r="B22" s="43">
         <f>IF($A22&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A22,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,7 +4443,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="46" t="str">
+      <c r="B23" s="43" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A23,'data-nights'!E:E),"")</f>
         <v/>
       </c>
@@ -4916,7 +4453,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="48" t="str">
+      <c r="B24" s="45" t="str">
         <f>IF($A24&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A24,'data-nights'!E:E),"")</f>
         <v/>
       </c>
@@ -4924,19 +4461,19 @@
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B25" s="44">
-        <f t="shared" ref="B25" si="6">SUM(B26:B29)</f>
+        <v>BILBAO</v>
+      </c>
+      <c r="B25" s="41">
+        <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B26" s="45">
+        <v>General Concha 24</v>
+      </c>
+      <c r="B26" s="42">
         <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4946,87 +4483,87 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="46" t="str">
+      <c r="B27" s="43" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A27,'data-nights'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="15" t="str">
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v/>
       </c>
-      <c r="B28" s="46" t="str">
+      <c r="B28" s="45" t="str">
         <f>IF($A28&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A28,'data-nights'!E:E),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="48" t="str">
-        <f>IF($A29&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A29,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>MADRID</v>
+      </c>
+      <c r="B29" s="41">
+        <f>SUM(B30:B32)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="12" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B30" s="42">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A30,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="43" t="str">
+        <f>IF($A31&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A31,'data-nights'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="45" t="str">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="43">
-        <f t="shared" ref="B30" si="7">SUM(B32:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B33" s="40">
+        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="44">
-        <f t="shared" ref="B31" si="8">SUM(B32:B39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B34" s="41">
+        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="45">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="46">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
-      </c>
-      <c r="B34" s="46">
-        <f>IF($A34&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A34,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
-      </c>
-      <c r="B35" s="46">
+      <c r="B35" s="42">
         <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5034,9 +4571,9 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
-      </c>
-      <c r="B36" s="46">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B36" s="43">
         <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5044,9 +4581,9 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
-      </c>
-      <c r="B37" s="46">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B37" s="43">
         <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5054,9 +4591,9 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
-      </c>
-      <c r="B38" s="46">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B38" s="43">
         <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5064,9 +4601,9 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B39" s="46">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B39" s="43">
         <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5074,9 +4611,9 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B40" s="46">
+        <v>Encarnación 160</v>
+      </c>
+      <c r="B40" s="43">
         <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5084,9 +4621,9 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B41" s="46">
+        <v>Gran Via 598</v>
+      </c>
+      <c r="B41" s="43">
         <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -5094,129 +4631,54 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
+        <v>Ramón Albó 6</v>
+      </c>
+      <c r="B42" s="43">
+        <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
+        <v>Robrenyo 67</v>
+      </c>
+      <c r="B43" s="43">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v>Sardenya 326</v>
+      </c>
+      <c r="B44" s="43">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A44,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B42" s="46">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="47"/>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v/>
-      </c>
-      <c r="B44" s="48" t="str">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A44,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B45" s="44">
-        <f t="shared" ref="B45" si="9">SUM(B46:B51)</f>
+      <c r="B45" s="43">
+        <f>IF($A45&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A45,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="46" t="str">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A46,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
+      <c r="A46" s="14"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="47"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="47"/>
-    </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="str">
-        <f>IF(Beds!A49&lt;&gt;"",Beds!A49,"")</f>
-        <v/>
-      </c>
-      <c r="B49" s="48" t="str">
-        <f>IF($A49&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A49,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(Beds!A50&lt;&gt;"",Beds!A50,"")</f>
-        <v>BILBAO</v>
-      </c>
-      <c r="B50" s="44">
-        <f t="shared" ref="B50" si="10">SUM(B51:B56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="46" t="str">
-        <f>IF($A51&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A51,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="47"/>
-    </row>
-    <row r="53" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="47"/>
-    </row>
-    <row r="54" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="str">
-        <f>IF(Beds!A54&lt;&gt;"",Beds!A54,"")</f>
-        <v/>
-      </c>
-      <c r="B54" s="48" t="str">
-        <f>IF($A54&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A54,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(Beds!A55&lt;&gt;"",Beds!A55,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B55" s="44">
-        <f t="shared" ref="B55" si="11">SUM(B56:B61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="46" t="str">
-        <f>IF($A56&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A56,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="47"/>
-    </row>
-    <row r="58" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="47"/>
-    </row>
-    <row r="59" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="str">
-        <f>IF(Beds!A59&lt;&gt;"",Beds!A59,"")</f>
-        <v/>
-      </c>
-      <c r="B59" s="48" t="str">
-        <f>IF($A59&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A59,'data-nights'!E:E),"")</f>
+      <c r="A47" s="16" t="str">
+        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="45" t="str">
+        <f>IF($A47&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A47,'data-nights'!E:E),"")</f>
         <v/>
       </c>
     </row>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0BEB5-BFE9-48B4-925D-415AFC5597B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCE1680-3A9E-4502-9419-4D12A8F8BDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve">AVAILABLE BEDS </t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Balmes 335</t>
-  </si>
-  <si>
-    <t>Napols 206</t>
   </si>
   <si>
     <t>Rocafort 219</t>
@@ -175,6 +172,12 @@
   </si>
   <si>
     <t>Còrsega 396</t>
+  </si>
+  <si>
+    <t>Nàpols 206</t>
+  </si>
+  <si>
+    <t>Donoso Cortés 75</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="19">
-        <f>B5+B33</f>
+        <f>B5+B34</f>
         <v>0</v>
       </c>
     </row>
@@ -1401,99 +1404,99 @@
         <v>4</v>
       </c>
       <c r="B7" s="22">
-        <f>IF($A7&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A7,'data-beds'!E:E),"")</f>
+        <f>IF($A7&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A7,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" s="23">
-        <f>IF($A8&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A8,'data-beds'!E:E),"")</f>
+        <f>IF($A8&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A8,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="23">
-        <f>IF($A9&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A9,'data-beds'!E:E),"")</f>
+        <f>IF($A9&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A9,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="23">
-        <f>IF($A10&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A10,'data-beds'!E:E),"")</f>
+        <f>IF($A10&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A10,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="23">
-        <f>IF($A11&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A11,'data-beds'!E:E),"")</f>
+        <f>IF($A11&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A11,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="23">
-        <f>IF($A12&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A12,'data-beds'!E:E),"")</f>
+        <f>IF($A12&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A12,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="23">
-        <f>IF($A13&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A13,'data-beds'!E:E),"")</f>
+        <f>IF($A13&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A13,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="23">
-        <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!E:E),"")</f>
+        <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="23">
-        <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!E:E),"")</f>
+        <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="23" t="str">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A16,'data-beds'!E:E),"")</f>
+        <f>IF($A16&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A16,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="24" t="str">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A17,'data-beds'!E:E),"")</f>
+        <f>IF($A17&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A17,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="21">
         <f>SUM(B19:B24)</f>
@@ -1502,57 +1505,57 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="22">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!E:E),"")</f>
+        <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="23">
-        <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!E:E),"")</f>
+        <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="23">
-        <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!E:E),"")</f>
+        <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="23">
-        <f>IF($A22&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A22,'data-beds'!E:E),"")</f>
+        <f>IF($A22&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A22,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="23" t="str">
-        <f>IF($A23&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A23,'data-beds'!E:E),"")</f>
+        <f>IF($A23&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A23,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="23" t="str">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!E:E),"")</f>
+        <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="21">
         <f>SUM(B26:B28)</f>
@@ -1561,184 +1564,193 @@
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="22">
-        <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!E:E),"")</f>
+        <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="23" t="str">
-        <f>IF($A27&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A27,'data-beds'!E:E),"")</f>
+        <f>IF($A27&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A27,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="23" t="str">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!E:E),"")</f>
+        <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="21">
-        <f>SUM(B30:B32)</f>
+        <f>SUM(B30:B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="22">
-        <f>IF($A30&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A30,'data-beds'!E:E),"")</f>
+        <f>IF($A30&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A30,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="23" t="str">
-        <f>IF($A31&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A31,'data-beds'!E:E),"")</f>
-        <v/>
+      <c r="A31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="23">
+        <f>IF($A31&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A31,'data-beds'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="23" t="str">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!E:E),"")</f>
+        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="23" t="str">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="20">
+        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="21">
+        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="20">
-        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="21">
-        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="22">
-        <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="23">
-        <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!E:E),"")</f>
+      <c r="B36" s="22">
+        <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="23">
-        <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!E:E),"")</f>
+        <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B38" s="23">
-        <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!E:E),"")</f>
+        <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="23">
-        <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!E:E),"")</f>
+        <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B40" s="23">
-        <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!E:E),"")</f>
+        <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41" s="23">
-        <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!E:E),"")</f>
+        <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B42" s="23">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!E:E),"")</f>
+        <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B43" s="23">
-        <f>IF($A43&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A43,'data-beds'!E:E),"")</f>
+        <f>IF($A43&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A43,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" s="23">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A44,'data-beds'!E:E),"")</f>
+        <f>IF($A44&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A44,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45" s="23">
-        <f>IF($A45&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A45,'data-beds'!E:E),"")</f>
+        <f>IF($A45&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A45,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="23">
+        <f>IF($A46&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A46,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="24" t="str">
-        <f>IF($A47&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A47,'data-beds'!E:E),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="47"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="24" t="str">
+        <f>IF($A48&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A48,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
@@ -1751,24 +1763,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1786,8 +1801,6 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1796,24 +1809,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1831,8 +1847,6 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1844,7 +1858,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1859,10 +1873,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +1930,7 @@
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
-        <v>Napols 206</v>
+        <v>Nàpols 206</v>
       </c>
       <c r="B8" s="36">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8&lt;&gt;0,Nights!B8/(Occupancy!B$3*Beds!B8),0),"")</f>
@@ -2146,59 +2160,59 @@
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="36" t="str">
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B31" s="36">
         <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="38" t="str">
+      <c r="B32" s="36" t="str">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="38" t="str">
+        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B33" s="33">
-        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
+      <c r="B34" s="33">
+        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B34" s="34">
-        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
+      <c r="B35" s="34">
+        <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B35" s="35">
-        <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,Nights!B36/(Occupancy!B$3*Beds!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -2206,7 +2220,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B37" s="36">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,Nights!B37/(Occupancy!B$3*Beds!B37),0),"")</f>
@@ -2216,7 +2230,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B38" s="36">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,Nights!B38/(Occupancy!B$3*Beds!B38),0),"")</f>
@@ -2226,7 +2240,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B39" s="36">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,Nights!B39/(Occupancy!B$3*Beds!B39),0),"")</f>
@@ -2236,7 +2250,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Encarnación 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B40" s="36">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,Nights!B40/(Occupancy!B$3*Beds!B40),0),"")</f>
@@ -2246,7 +2260,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B41" s="36">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,Nights!B41/(Occupancy!B$3*Beds!B41),0),"")</f>
@@ -2256,7 +2270,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B42" s="36">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,Nights!B42/(Occupancy!B$3*Beds!B42),0),"")</f>
@@ -2266,7 +2280,7 @@
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B43" s="36">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,Nights!B43/(Occupancy!B$3*Beds!B43),0),"")</f>
@@ -2276,7 +2290,7 @@
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B44" s="36">
         <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,Nights!B44/(Occupancy!B$3*Beds!B44),0),"")</f>
@@ -2286,7 +2300,7 @@
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B45" s="36">
         <f>IF($A45&lt;&gt;"",IF(Beds!B45&lt;&gt;0,Nights!B45/(Occupancy!B$3*Beds!B45),0),"")</f>
@@ -2294,16 +2308,26 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="13" t="str">
+        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
+        <v>Travessera 43</v>
+      </c>
+      <c r="B46" s="36">
+        <f>IF($A46&lt;&gt;"",IF(Beds!B46&lt;&gt;0,Nights!B46/(Occupancy!B$3*Beds!B46),0),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
-        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="38" t="str">
-        <f>IF($A47&lt;&gt;"",IF(Beds!B47&lt;&gt;0,Nights!B47/(Occupancy!B$3*Beds!B47),0),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="37"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="str">
+        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="38" t="str">
+        <f>IF($A48&lt;&gt;"",IF(Beds!B48&lt;&gt;0,Nights!B48/(Occupancy!B$3*Beds!B48),0),"")</f>
         <v/>
       </c>
     </row>
@@ -2319,7 +2343,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2334,10 +2358,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -2354,7 +2378,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="25">
-        <f>B5+B33</f>
+        <f>B5+B34</f>
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2415,7 @@
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
-        <v>Napols 206</v>
+        <v>Nàpols 206</v>
       </c>
       <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A8,'data-rent'!E:E),"")</f>
@@ -2604,7 +2628,7 @@
         <v>MADRID</v>
       </c>
       <c r="B29" s="27">
-        <f>SUM(B30:B32)</f>
+        <f>SUM(B30:B33)</f>
         <v>0</v>
       </c>
     </row>
@@ -2621,59 +2645,59 @@
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="29" t="str">
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B31" s="29">
         <f>IF($A31&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A31,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="31" t="str">
+      <c r="B32" s="29" t="str">
         <f>IF($A32&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A32,'data-rent'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A33,'data-rent'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B33" s="26">
-        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
+      <c r="B34" s="26">
+        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B34" s="27">
-        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
+      <c r="B35" s="27">
+        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B35" s="28">
-        <f>IF($A35&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A35,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <f>IF($A36&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A36,'data-rent'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -2681,7 +2705,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A37,'data-rent'!E:E),"")</f>
@@ -2691,7 +2715,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A38,'data-rent'!E:E),"")</f>
@@ -2701,7 +2725,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A39,'data-rent'!E:E),"")</f>
@@ -2711,7 +2735,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Encarnación 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A40,'data-rent'!E:E),"")</f>
@@ -2721,7 +2745,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A41,'data-rent'!E:E),"")</f>
@@ -2731,7 +2755,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A42,'data-rent'!E:E),"")</f>
@@ -2741,7 +2765,7 @@
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A43,'data-rent'!E:E),"")</f>
@@ -2751,7 +2775,7 @@
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B44" s="29">
         <f>IF($A44&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A44,'data-rent'!E:E),"")</f>
@@ -2761,7 +2785,7 @@
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B45" s="29">
         <f>IF($A45&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A45,'data-rent'!E:E),"")</f>
@@ -2769,16 +2793,26 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="13" t="str">
+        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
+        <v>Travessera 43</v>
+      </c>
+      <c r="B46" s="29">
+        <f>IF($A46&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A46,'data-rent'!E:E),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
-        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="31" t="str">
-        <f>IF($A47&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A47,'data-rent'!E:E),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="str">
+        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="31" t="str">
+        <f>IF($A48&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A48,'data-rent'!E:E),"")</f>
         <v/>
       </c>
     </row>
@@ -2794,7 +2828,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2809,10 +2843,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -2829,7 +2863,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="25">
-        <f>B5+B33</f>
+        <f>B5+B34</f>
         <v>0</v>
       </c>
     </row>
@@ -2866,7 +2900,7 @@
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
-        <v>Napols 206</v>
+        <v>Nàpols 206</v>
       </c>
       <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",SUMIF('data-services'!$A:$A,$A8,'data-services'!E:E),"")</f>
@@ -3079,7 +3113,7 @@
         <v>MADRID</v>
       </c>
       <c r="B29" s="27">
-        <f>SUM(B30:B32)</f>
+        <f>SUM(B30:B33)</f>
         <v>0</v>
       </c>
     </row>
@@ -3096,59 +3130,59 @@
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="29" t="str">
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B31" s="29">
         <f>IF($A31&lt;&gt;"",SUMIF('data-services'!$A:$A,$A31,'data-services'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="31" t="str">
+      <c r="B32" s="29" t="str">
         <f>IF($A32&lt;&gt;"",SUMIF('data-services'!$A:$A,$A32,'data-services'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-services'!$A:$A,$A33,'data-services'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B33" s="26">
-        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
+      <c r="B34" s="26">
+        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B34" s="27">
-        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
+      <c r="B35" s="27">
+        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B35" s="28">
-        <f>IF($A35&lt;&gt;"",SUMIF('data-services'!$A:$A,$A35,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <f>IF($A36&lt;&gt;"",SUMIF('data-services'!$A:$A,$A36,'data-services'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -3156,7 +3190,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-services'!$A:$A,$A37,'data-services'!E:E),"")</f>
@@ -3166,7 +3200,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",SUMIF('data-services'!$A:$A,$A38,'data-services'!E:E),"")</f>
@@ -3176,7 +3210,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",SUMIF('data-services'!$A:$A,$A39,'data-services'!E:E),"")</f>
@@ -3186,7 +3220,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Encarnación 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",SUMIF('data-services'!$A:$A,$A40,'data-services'!E:E),"")</f>
@@ -3196,7 +3230,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",SUMIF('data-services'!$A:$A,$A41,'data-services'!E:E),"")</f>
@@ -3206,7 +3240,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",SUMIF('data-services'!$A:$A,$A42,'data-services'!E:E),"")</f>
@@ -3216,7 +3250,7 @@
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",SUMIF('data-services'!$A:$A,$A43,'data-services'!E:E),"")</f>
@@ -3226,7 +3260,7 @@
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B44" s="29">
         <f>IF($A44&lt;&gt;"",SUMIF('data-services'!$A:$A,$A44,'data-services'!E:E),"")</f>
@@ -3236,7 +3270,7 @@
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B45" s="29">
         <f>IF($A45&lt;&gt;"",SUMIF('data-services'!$A:$A,$A45,'data-services'!E:E),"")</f>
@@ -3244,16 +3278,26 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="13" t="str">
+        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
+        <v>Travessera 43</v>
+      </c>
+      <c r="B46" s="29">
+        <f>IF($A46&lt;&gt;"",SUMIF('data-services'!$A:$A,$A46,'data-services'!E:E),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
-        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="31" t="str">
-        <f>IF($A47&lt;&gt;"",SUMIF('data-services'!$A:$A,$A47,'data-services'!E:E),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="str">
+        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="31" t="str">
+        <f>IF($A48&lt;&gt;"",SUMIF('data-services'!$A:$A,$A48,'data-services'!E:E),"")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3313,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3284,10 +3328,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -3341,7 +3385,7 @@
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
-        <v>Napols 206</v>
+        <v>Nàpols 206</v>
       </c>
       <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8*Occupancy!B8&lt;&gt;0,'Income rent'!B8/(Beds!B8*Occupancy!B8),0),"")</f>
@@ -3571,59 +3615,59 @@
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="29" t="str">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B31&lt;&gt;0,'Income rent'!B31/(Beds!B31*Occupancy!B31),0),"")</f>
-        <v/>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B31" s="29">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B31*Occupancy!B30),0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="31" t="str">
+      <c r="B32" s="29" t="str">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B32*Occupancy!B32),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f>IF($A33&lt;&gt;"",IF(Beds!B33*Occupancy!B33&lt;&gt;0,'Income rent'!B33/(Beds!B33*Occupancy!B33),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B33" s="26">
-        <f>IF($A33&lt;&gt;"",IF(Beds!B33*Occupancy!B33&lt;&gt;0,'Income rent'!B33/(Beds!B33*Occupancy!B33),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
+      <c r="B34" s="26">
+        <f>IF($A34&lt;&gt;"",IF(Beds!B34*Occupancy!B34&lt;&gt;0,'Income rent'!B34/(Beds!B34*Occupancy!B34),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B34" s="27">
-        <f>IF($A34&lt;&gt;"",IF(Beds!B34*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B34*Occupancy!B35),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
+      <c r="B35" s="27">
+        <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B35*Occupancy!B36),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B35" s="28">
-        <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B35*Occupancy!B35),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B36*Occupancy!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -3631,7 +3675,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37*Occupancy!B37&lt;&gt;0,'Income rent'!B37/(Beds!B37*Occupancy!B37),0),"")</f>
@@ -3641,7 +3685,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38*Occupancy!B38&lt;&gt;0,'Income rent'!B38/(Beds!B38*Occupancy!B38),0),"")</f>
@@ -3651,7 +3695,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39*Occupancy!B39&lt;&gt;0,'Income rent'!B39/(Beds!B39*Occupancy!B39),0),"")</f>
@@ -3661,7 +3705,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Encarnación 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40*Occupancy!B40&lt;&gt;0,'Income rent'!B40/(Beds!B40*Occupancy!B40),0),"")</f>
@@ -3671,7 +3715,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41*Occupancy!B41&lt;&gt;0,'Income rent'!B41/(Beds!B41*Occupancy!B41),0),"")</f>
@@ -3681,7 +3725,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42*Occupancy!B42&lt;&gt;0,'Income rent'!B42/(Beds!B42*Occupancy!B42),0),"")</f>
@@ -3691,7 +3735,7 @@
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43*Occupancy!B43&lt;&gt;0,'Income rent'!B43/(Beds!B43*Occupancy!B43),0),"")</f>
@@ -3701,7 +3745,7 @@
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B44" s="29">
         <f>IF($A44&lt;&gt;"",IF(Beds!B44*Occupancy!B44&lt;&gt;0,'Income rent'!B44/(Beds!B44*Occupancy!B44),0),"")</f>
@@ -3711,7 +3755,7 @@
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B45" s="29">
         <f>IF($A45&lt;&gt;"",IF(Beds!B45*Occupancy!B45&lt;&gt;0,'Income rent'!B45/(Beds!B45*Occupancy!B45),0),"")</f>
@@ -3719,16 +3763,26 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="13" t="str">
+        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
+        <v>Travessera 43</v>
+      </c>
+      <c r="B46" s="29">
+        <f>IF($A46&lt;&gt;"",IF(Beds!B46*Occupancy!B46&lt;&gt;0,'Income rent'!B46/(Beds!B46*Occupancy!B46),0),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
-        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="31" t="str">
-        <f>IF($A47&lt;&gt;"",IF(Beds!B47*Occupancy!B47&lt;&gt;0,'Income rent'!B47/(Beds!B47*Occupancy!B47),0),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="str">
+        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="31" t="str">
+        <f>IF($A48&lt;&gt;"",IF(Beds!B48*Occupancy!B48&lt;&gt;0,'Income rent'!B48/(Beds!B48*Occupancy!B48),0),"")</f>
         <v/>
       </c>
     </row>
@@ -3744,7 +3798,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3759,10 +3813,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -3816,7 +3870,7 @@
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
-        <v>Napols 206</v>
+        <v>Nàpols 206</v>
       </c>
       <c r="B8" s="29">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8&lt;&gt;0,'Income rent'!B8/Beds!B8,0),"")</f>
@@ -4046,59 +4100,59 @@
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="29" t="str">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B31/Beds!B31,0),"")</f>
-        <v/>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B31" s="29">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B30/Beds!B31,0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="31" t="str">
+      <c r="B32" s="29" t="str">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,'Income rent'!B32/Beds!B32,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,'Income rent'!B33/Beds!B33,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B33" s="26">
-        <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,'Income rent'!B33/Beds!B33,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
+      <c r="B34" s="26">
+        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,'Income rent'!B34/Beds!B34,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B34" s="27">
-        <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,'Income rent'!B35/Beds!B34,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
+      <c r="B35" s="27">
+        <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B36/Beds!B35,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B35" s="28">
-        <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B35/Beds!B35,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,'Income rent'!B36/Beds!B36,0),"")</f>
         <v>0</v>
       </c>
@@ -4106,7 +4160,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,'Income rent'!B37/Beds!B37,0),"")</f>
@@ -4116,7 +4170,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,'Income rent'!B38/Beds!B38,0),"")</f>
@@ -4126,7 +4180,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,'Income rent'!B39/Beds!B39,0),"")</f>
@@ -4136,7 +4190,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Encarnación 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,'Income rent'!B40/Beds!B40,0),"")</f>
@@ -4146,7 +4200,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,'Income rent'!B41/Beds!B41,0),"")</f>
@@ -4156,7 +4210,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,'Income rent'!B42/Beds!B42,0),"")</f>
@@ -4166,7 +4220,7 @@
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,'Income rent'!B43/Beds!B43,0),"")</f>
@@ -4176,7 +4230,7 @@
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B44" s="29">
         <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,'Income rent'!B44/Beds!B44,0),"")</f>
@@ -4186,7 +4240,7 @@
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B45" s="29">
         <f>IF($A45&lt;&gt;"",IF(Beds!B45&lt;&gt;0,'Income rent'!B45/Beds!B45,0),"")</f>
@@ -4194,16 +4248,26 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="13" t="str">
+        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
+        <v>Travessera 43</v>
+      </c>
+      <c r="B46" s="29">
+        <f>IF($A46&lt;&gt;"",IF(Beds!B46&lt;&gt;0,'Income rent'!B46/Beds!B46,0),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
-        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="31" t="str">
-        <f>IF($A47&lt;&gt;"",IF(Beds!B47&lt;&gt;0,'Income rent'!B47/Beds!B47,0),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="str">
+        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="31" t="str">
+        <f>IF($A48&lt;&gt;"",IF(Beds!B48&lt;&gt;0,'Income rent'!B48/Beds!B48,0),"")</f>
         <v/>
       </c>
     </row>
@@ -4219,7 +4283,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4234,10 +4298,10 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="17">
-        <f>'data-beds'!E1</f>
+        <f>'data-beds'!C1</f>
         <v>0</v>
       </c>
     </row>
@@ -4254,7 +4318,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="39">
-        <f>B5+B33</f>
+        <f>B5+B34</f>
         <v>0</v>
       </c>
     </row>
@@ -4291,7 +4355,7 @@
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
-        <v>Napols 206</v>
+        <v>Nàpols 206</v>
       </c>
       <c r="B8" s="43">
         <f>IF($A8&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A8,'data-nights'!E:E),"")</f>
@@ -4504,7 +4568,7 @@
         <v>MADRID</v>
       </c>
       <c r="B29" s="41">
-        <f>SUM(B30:B32)</f>
+        <f>SUM(B30:B33)</f>
         <v>0</v>
       </c>
     </row>
@@ -4521,59 +4585,59 @@
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="43" t="str">
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B31" s="43">
         <f>IF($A31&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A31,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="45" t="str">
+      <c r="B32" s="43" t="str">
         <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!E:E),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+      <c r="A33" s="15" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="45" t="str">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!E:E),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B33" s="40">
-        <f t="shared" ref="B33" si="1">SUM(B35:B47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
+      <c r="B34" s="40">
+        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="str">
+        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B34" s="41">
-        <f t="shared" ref="B34" si="2">SUM(B35:B42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
-        <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
+      <c r="B35" s="41">
+        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
+        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B35" s="42">
-        <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
-        <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B36" s="43">
+      <c r="B36" s="42">
         <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!E:E),"")</f>
         <v>0</v>
       </c>
@@ -4581,7 +4645,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B37" s="43">
         <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!E:E),"")</f>
@@ -4591,7 +4655,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B38" s="43">
         <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!E:E),"")</f>
@@ -4601,7 +4665,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B39" s="43">
         <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!E:E),"")</f>
@@ -4611,7 +4675,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Encarnación 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B40" s="43">
         <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!E:E),"")</f>
@@ -4621,7 +4685,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B41" s="43">
         <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!E:E),"")</f>
@@ -4631,7 +4695,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B42" s="43">
         <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!E:E),"")</f>
@@ -4641,7 +4705,7 @@
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B43" s="43">
         <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!E:E),"")</f>
@@ -4651,7 +4715,7 @@
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B44" s="43">
         <f>IF($A44&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A44,'data-nights'!E:E),"")</f>
@@ -4661,7 +4725,7 @@
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B45" s="43">
         <f>IF($A45&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A45,'data-nights'!E:E),"")</f>
@@ -4669,16 +4733,26 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="13" t="str">
+        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
+        <v>Travessera 43</v>
+      </c>
+      <c r="B46" s="43">
+        <f>IF($A46&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A46,'data-nights'!E:E),"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
-        <f>IF(Beds!A47&lt;&gt;"",Beds!A47,"")</f>
-        <v/>
-      </c>
-      <c r="B47" s="45" t="str">
-        <f>IF($A47&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A47,'data-nights'!E:E),"")</f>
+      <c r="A47" s="14"/>
+      <c r="B47" s="44"/>
+    </row>
+    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="str">
+        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="45" t="str">
+        <f>IF($A48&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A48,'data-nights'!E:E),"")</f>
         <v/>
       </c>
     </row>
@@ -4691,28 +4765,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -4729,8 +4799,6 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4739,24 +4807,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -4774,8 +4845,6 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCE1680-3A9E-4502-9419-4D12A8F8BDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B07A2-DFAA-4C58-8812-EDC0CF9C81E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t xml:space="preserve">AVAILABLE BEDS </t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>Building</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Location</t>
   </si>
   <si>
     <t>Resource</t>
@@ -455,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,9 +588,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1343,7 +1334,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="19">
-        <f>B5+B34</f>
+        <f>B5+B30</f>
         <v>0</v>
       </c>
     </row>
@@ -1386,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20">
-        <f>B6+B18+B25+B29</f>
+        <f>B6+B17+B27+B23</f>
         <v>0</v>
       </c>
     </row>
@@ -1395,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21">
-        <f>SUM(B7:B17)</f>
+        <f>SUM(B7:B16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1410,7 +1401,7 @@
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="23">
         <f>IF($A8&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A8,'data-beds'!C:C),"")</f>
@@ -1455,7 +1446,7 @@
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="23">
         <f>IF($A13&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A13,'data-beds'!C:C),"")</f>
@@ -1464,7 +1455,7 @@
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="23">
         <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!C:C),"")</f>
@@ -1473,7 +1464,7 @@
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="23">
         <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!C:C),"")</f>
@@ -1481,40 +1472,42 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="23" t="str">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="str">
         <f>IF($A16&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A16,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="24" t="str">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A17,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="21">
-        <f>SUM(B19:B24)</f>
+      <c r="B17" s="21">
+        <f>SUM(B18:B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="22">
+        <f>IF($A18&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A18,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="22">
+      <c r="A19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="23">
         <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B20" s="23">
         <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!C:C),"")</f>
@@ -1523,7 +1516,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B21" s="23">
         <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!C:C),"")</f>
@@ -1531,131 +1524,137 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="23" t="str">
+        <f>IF($A22&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A22,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="21">
+        <f>SUM(B24:B26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="22">
+        <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="23">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A25,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="23" t="str">
+        <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="21">
+        <f>SUM(B28:B29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="22">
+        <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="23" t="str">
+        <f>IF($A29&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A29,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="20">
+        <f>SUM(B32:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="21">
+        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="22">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="23">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="23">
+        <f>IF($A34&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A34,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="23">
-        <f>IF($A22&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A22,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="23" t="str">
-        <f>IF($A23&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A23,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="23" t="str">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="21">
-        <f>SUM(B26:B28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="22">
-        <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="23" t="str">
-        <f>IF($A27&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A27,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="23" t="str">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="21">
-        <f>SUM(B30:B33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="B35" s="23">
+        <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="22">
-        <f>IF($A30&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A30,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="23">
-        <f>IF($A31&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A31,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="23" t="str">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="23" t="str">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="20">
-        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="21">
-        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="22">
+      <c r="B36" s="23">
         <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37" s="23">
         <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!C:C),"")</f>
@@ -1664,7 +1663,7 @@
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" s="23">
         <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!C:C),"")</f>
@@ -1682,7 +1681,7 @@
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B40" s="23">
         <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!C:C),"")</f>
@@ -1691,7 +1690,7 @@
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B41" s="23">
         <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!C:C),"")</f>
@@ -1700,7 +1699,7 @@
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B42" s="23">
         <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!C:C),"")</f>
@@ -1708,49 +1707,9 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="23">
+      <c r="A43" s="16"/>
+      <c r="B43" s="24" t="str">
         <f>IF($A43&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A43,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="23">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A44,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="23">
-        <f>IF($A45&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A45,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="23">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A46,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="47"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="24" t="str">
-        <f>IF($A48&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A48,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
@@ -1763,28 +1722,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
+    <col min="3" max="68" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -1799,8 +1755,50 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1809,28 +1807,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
+    <col min="3" max="68" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -1845,8 +1840,50 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1858,7 +1895,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2008,41 +2045,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="37" t="str">
+      <c r="B16" s="38" t="str">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,Nights!B16/(Occupancy!B$3*Beds!B16),0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="38" t="str">
+        <v>VALENCIA</v>
+      </c>
+      <c r="B17" s="34">
         <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,Nights!B17/(Occupancy!B$3*Beds!B17),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B18" s="34">
+        <v>Rodriguez De Cepeda 044</v>
+      </c>
+      <c r="B18" s="35">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
-      </c>
-      <c r="B19" s="35">
+        <v>Salamanca 46</v>
+      </c>
+      <c r="B19" s="36">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,Nights!B19/(Occupancy!B$3*Beds!B19),0),"")</f>
         <v>0</v>
       </c>
@@ -2050,7 +2087,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Salamanca 46</v>
+        <v>Nau 14</v>
       </c>
       <c r="B20" s="36">
         <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,Nights!B20/(Occupancy!B$3*Beds!B20),0),"")</f>
@@ -2060,7 +2097,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Nau 14</v>
+        <v>Facultades</v>
       </c>
       <c r="B21" s="36">
         <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,Nights!B21/(Occupancy!B$3*Beds!B21),0),"")</f>
@@ -2068,151 +2105,151 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B22" s="36">
+        <v/>
+      </c>
+      <c r="B22" s="38" t="str">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,Nights!B22/(Occupancy!B$3*Beds!B22),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="36" t="str">
+        <v>MADRID</v>
+      </c>
+      <c r="B23" s="34">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,Nights!B23/(Occupancy!B$3*Beds!B23),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="12" t="str">
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="38" t="str">
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B24" s="35">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,Nights!B24/(Occupancy!B$3*Beds!B24),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B25" s="36">
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,Nights!B25/(Occupancy!B$3*Beds!B25),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="38" t="str">
+        <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B25" s="34">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,Nights!B25/(Occupancy!B$3*Beds!B25),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+      <c r="B27" s="34">
+        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B26" s="35">
-        <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="36" t="str">
-        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="38" t="str">
+      <c r="B28" s="35">
         <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,Nights!B28/(Occupancy!B$3*Beds!B28),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B29" s="34">
+        <v/>
+      </c>
+      <c r="B29" s="38" t="str">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,Nights!B29/(Occupancy!B$3*Beds!B29),0),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="4" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B30" s="35">
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B30" s="33">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v>Donoso Cortés 75</v>
-      </c>
-      <c r="B31" s="36">
+        <v>BARCELONA</v>
+      </c>
+      <c r="B31" s="34">
         <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="36" t="str">
+        <v>Artesania 30</v>
+      </c>
+      <c r="B32" s="35">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="38" t="str">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B33" s="36">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>3rd PARTIES</v>
-      </c>
-      <c r="B34" s="33">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B34" s="36">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>BARCELONA</v>
-      </c>
-      <c r="B35" s="34">
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B35" s="36">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Artesania 30</v>
-      </c>
-      <c r="B36" s="35">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B36" s="36">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,Nights!B36/(Occupancy!B$3*Beds!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -2220,7 +2257,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Bailén 33</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B37" s="36">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,Nights!B37/(Occupancy!B$3*Beds!B37),0),"")</f>
@@ -2230,7 +2267,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B38" s="36">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,Nights!B38/(Occupancy!B$3*Beds!B38),0),"")</f>
@@ -2240,7 +2277,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 52</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="36">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,Nights!B39/(Occupancy!B$3*Beds!B39),0),"")</f>
@@ -2250,7 +2287,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Còrsega 207</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B40" s="36">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,Nights!B40/(Occupancy!B$3*Beds!B40),0),"")</f>
@@ -2260,7 +2297,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Encarnación 160</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B41" s="36">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,Nights!B41/(Occupancy!B$3*Beds!B41),0),"")</f>
@@ -2270,7 +2307,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Gran Via 598</v>
+        <v>Travessera 43</v>
       </c>
       <c r="B42" s="36">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,Nights!B42/(Occupancy!B$3*Beds!B42),0),"")</f>
@@ -2278,56 +2315,12 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B43" s="36">
+        <v/>
+      </c>
+      <c r="B43" s="38" t="str">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,Nights!B43/(Occupancy!B$3*Beds!B43),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B44" s="36">
-        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,Nights!B44/(Occupancy!B$3*Beds!B44),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B45" s="36">
-        <f>IF($A45&lt;&gt;"",IF(Beds!B45&lt;&gt;0,Nights!B45/(Occupancy!B$3*Beds!B45),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
-        <v>Travessera 43</v>
-      </c>
-      <c r="B46" s="36">
-        <f>IF($A46&lt;&gt;"",IF(Beds!B46&lt;&gt;0,Nights!B46/(Occupancy!B$3*Beds!B46),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="37"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="str">
-        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="38" t="str">
-        <f>IF($A48&lt;&gt;"",IF(Beds!B48&lt;&gt;0,Nights!B48/(Occupancy!B$3*Beds!B48),0),"")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2336,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2358,7 +2351,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2378,7 +2371,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="25">
-        <f>B5+B34</f>
+        <f>B5+B30</f>
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2381,7 @@
         <v>VANDOR</v>
       </c>
       <c r="B5" s="26">
-        <f>B6+B18+B25+B29</f>
+        <f>B6+B17+B27+B23</f>
         <v>0</v>
       </c>
     </row>
@@ -2398,7 +2391,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B6" s="27">
-        <f>SUM(B7:B17)</f>
+        <f>SUM(B7:B16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2408,7 +2401,7 @@
         <v>Balmes 335</v>
       </c>
       <c r="B7" s="28">
-        <f>IF($A7&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A7,'data-rent'!E:E),"")</f>
+        <f>IF($A7&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A7,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2418,7 +2411,7 @@
         <v>Nàpols 206</v>
       </c>
       <c r="B8" s="29">
-        <f>IF($A8&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A8,'data-rent'!E:E),"")</f>
+        <f>IF($A8&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A8,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2428,7 +2421,7 @@
         <v>Rocafort 219</v>
       </c>
       <c r="B9" s="29">
-        <f>IF($A9&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A9,'data-rent'!E:E),"")</f>
+        <f>IF($A9&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A9,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2438,7 +2431,7 @@
         <v>Entença 069</v>
       </c>
       <c r="B10" s="29">
-        <f>IF($A10&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A10,'data-rent'!E:E),"")</f>
+        <f>IF($A10&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A10,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2448,7 +2441,7 @@
         <v>Avenida Madrid 110</v>
       </c>
       <c r="B11" s="29">
-        <f>IF($A11&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A11,'data-rent'!E:E),"")</f>
+        <f>IF($A11&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A11,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2458,7 +2451,7 @@
         <v>Muntaner 448</v>
       </c>
       <c r="B12" s="29">
-        <f>IF($A12&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A12,'data-rent'!E:E),"")</f>
+        <f>IF($A12&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A12,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2468,7 +2461,7 @@
         <v>Concordia 12</v>
       </c>
       <c r="B13" s="29">
-        <f>IF($A13&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A13,'data-rent'!E:E),"")</f>
+        <f>IF($A13&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A13,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2478,7 +2471,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B14" s="29">
-        <f>IF($A14&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A14,'data-rent'!E:E),"")</f>
+        <f>IF($A14&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A14,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2488,331 +2481,287 @@
         <v>Còrsega 396</v>
       </c>
       <c r="B15" s="30">
-        <f>IF($A15&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A15,'data-rent'!E:E),"")</f>
+        <f>IF($A15&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A15,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="30" t="str">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A16,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="B16" s="31" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A16,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="31" t="str">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A17,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+        <v>VALENCIA</v>
+      </c>
+      <c r="B17" s="27">
+        <f>SUM(B18:B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B18" s="27">
-        <f>SUM(B19:B24)</f>
+        <v>Rodriguez De Cepeda 044</v>
+      </c>
+      <c r="B18" s="28">
+        <f>IF($A18&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A18,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
-      </c>
-      <c r="B19" s="28">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A19,'data-rent'!E:E),"")</f>
+        <v>Salamanca 46</v>
+      </c>
+      <c r="B19" s="29">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A19,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Salamanca 46</v>
+        <v>Nau 14</v>
       </c>
       <c r="B20" s="29">
-        <f>IF($A20&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A20,'data-rent'!E:E),"")</f>
+        <f>IF($A20&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A20,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Nau 14</v>
+        <v>Facultades</v>
       </c>
       <c r="B21" s="29">
-        <f>IF($A21&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A21,'data-rent'!E:E),"")</f>
+        <f>IF($A21&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A21,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B22" s="29">
-        <f>IF($A22&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A22,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+        <v/>
+      </c>
+      <c r="B22" s="31" t="str">
+        <f>IF($A22&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A22,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="29" t="str">
-        <f>IF($A23&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A23,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>MADRID</v>
+      </c>
+      <c r="B23" s="27">
+        <f>SUM(B24:B26)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="12" t="str">
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="31" t="str">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A24,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B24" s="28">
+        <f>IF($A24&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A24,'data-rent'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B25" s="29">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A25,'data-rent'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="31" t="str">
+        <f>IF($A26&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A26,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B25" s="27">
-        <f>SUM(B26:B28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+      <c r="B27" s="27">
+        <f>SUM(B28:B29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B26" s="28">
-        <f>IF($A26&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A26,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="29" t="str">
-        <f>IF($A27&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A27,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="31" t="str">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A28,'data-rent'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+      <c r="B28" s="28">
+        <f>IF($A28&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A28,'data-rent'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B29" s="27">
-        <f>SUM(B30:B33)</f>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="B29" s="31" t="str">
+        <f>IF($A29&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A29,'data-rent'!C:C),"")</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="4" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B30" s="28">
-        <f>IF($A30&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A30,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B30" s="26">
+        <f>SUM(B32:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v>Donoso Cortés 75</v>
-      </c>
-      <c r="B31" s="29">
-        <f>IF($A31&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A31,'data-rent'!E:E),"")</f>
+        <v>BARCELONA</v>
+      </c>
+      <c r="B31" s="27">
+        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="29" t="str">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A32,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>Artesania 30</v>
+      </c>
+      <c r="B32" s="28">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A32,'data-rent'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="31" t="str">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A33,'data-rent'!E:E),"")</f>
-        <v/>
+        <v>Bailén 33</v>
+      </c>
+      <c r="B33" s="29">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A33,'data-rent'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>3rd PARTIES</v>
-      </c>
-      <c r="B34" s="26">
-        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B34" s="29">
+        <f>IF($A34&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A34,'data-rent'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>BARCELONA</v>
-      </c>
-      <c r="B35" s="27">
-        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B35" s="29">
+        <f>IF($A35&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A35,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Artesania 30</v>
-      </c>
-      <c r="B36" s="28">
-        <f>IF($A36&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A36,'data-rent'!E:E),"")</f>
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B36" s="29">
+        <f>IF($A36&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A36,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Bailén 33</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B37" s="29">
-        <f>IF($A37&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A37,'data-rent'!E:E),"")</f>
+        <f>IF($A37&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A37,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B38" s="29">
-        <f>IF($A38&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A38,'data-rent'!E:E),"")</f>
+        <f>IF($A38&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A38,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 52</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="29">
-        <f>IF($A39&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A39,'data-rent'!E:E),"")</f>
+        <f>IF($A39&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A39,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Còrsega 207</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B40" s="29">
-        <f>IF($A40&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A40,'data-rent'!E:E),"")</f>
+        <f>IF($A40&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A40,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Encarnación 160</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B41" s="29">
-        <f>IF($A41&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A41,'data-rent'!E:E),"")</f>
+        <f>IF($A41&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A41,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Gran Via 598</v>
+        <v>Travessera 43</v>
       </c>
       <c r="B42" s="29">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A42,'data-rent'!E:E),"")</f>
+        <f>IF($A42&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A42,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B43" s="29">
-        <f>IF($A43&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A43,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B44" s="29">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A44,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B45" s="29">
-        <f>IF($A45&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A45,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
-        <v>Travessera 43</v>
-      </c>
-      <c r="B46" s="29">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A46,'data-rent'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="30"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="str">
-        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="31" t="str">
-        <f>IF($A48&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A48,'data-rent'!E:E),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="31" t="str">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A43,'data-rent'!C:C),"")</f>
         <v/>
       </c>
     </row>
@@ -2828,7 +2777,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2843,7 +2792,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2863,7 +2812,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="25">
-        <f>B5+B34</f>
+        <f>B5+B30</f>
         <v>0</v>
       </c>
     </row>
@@ -2873,7 +2822,7 @@
         <v>VANDOR</v>
       </c>
       <c r="B5" s="26">
-        <f>B6+B18+B25+B29</f>
+        <f>B6+B17+B27+B23</f>
         <v>0</v>
       </c>
     </row>
@@ -2883,7 +2832,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B6" s="27">
-        <f>SUM(B7:B17)</f>
+        <f>SUM(B7:B16)</f>
         <v>0</v>
       </c>
     </row>
@@ -2893,7 +2842,7 @@
         <v>Balmes 335</v>
       </c>
       <c r="B7" s="28">
-        <f>IF($A7&lt;&gt;"",SUMIF('data-services'!$A:$A,$A7,'data-services'!E:E),"")</f>
+        <f>IF($A7&lt;&gt;"",SUMIF('data-services'!$A:$A,$A7,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2903,7 +2852,7 @@
         <v>Nàpols 206</v>
       </c>
       <c r="B8" s="29">
-        <f>IF($A8&lt;&gt;"",SUMIF('data-services'!$A:$A,$A8,'data-services'!E:E),"")</f>
+        <f>IF($A8&lt;&gt;"",SUMIF('data-services'!$A:$A,$A8,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2913,7 +2862,7 @@
         <v>Rocafort 219</v>
       </c>
       <c r="B9" s="29">
-        <f>IF($A9&lt;&gt;"",SUMIF('data-services'!$A:$A,$A9,'data-services'!E:E),"")</f>
+        <f>IF($A9&lt;&gt;"",SUMIF('data-services'!$A:$A,$A9,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2923,7 +2872,7 @@
         <v>Entença 069</v>
       </c>
       <c r="B10" s="29">
-        <f>IF($A10&lt;&gt;"",SUMIF('data-services'!$A:$A,$A10,'data-services'!E:E),"")</f>
+        <f>IF($A10&lt;&gt;"",SUMIF('data-services'!$A:$A,$A10,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +2882,7 @@
         <v>Avenida Madrid 110</v>
       </c>
       <c r="B11" s="29">
-        <f>IF($A11&lt;&gt;"",SUMIF('data-services'!$A:$A,$A11,'data-services'!E:E),"")</f>
+        <f>IF($A11&lt;&gt;"",SUMIF('data-services'!$A:$A,$A11,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2943,7 +2892,7 @@
         <v>Muntaner 448</v>
       </c>
       <c r="B12" s="29">
-        <f>IF($A12&lt;&gt;"",SUMIF('data-services'!$A:$A,$A12,'data-services'!E:E),"")</f>
+        <f>IF($A12&lt;&gt;"",SUMIF('data-services'!$A:$A,$A12,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2953,7 +2902,7 @@
         <v>Concordia 12</v>
       </c>
       <c r="B13" s="29">
-        <f>IF($A13&lt;&gt;"",SUMIF('data-services'!$A:$A,$A13,'data-services'!E:E),"")</f>
+        <f>IF($A13&lt;&gt;"",SUMIF('data-services'!$A:$A,$A13,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2963,7 +2912,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B14" s="29">
-        <f>IF($A14&lt;&gt;"",SUMIF('data-services'!$A:$A,$A14,'data-services'!E:E),"")</f>
+        <f>IF($A14&lt;&gt;"",SUMIF('data-services'!$A:$A,$A14,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2973,331 +2922,287 @@
         <v>Còrsega 396</v>
       </c>
       <c r="B15" s="30">
-        <f>IF($A15&lt;&gt;"",SUMIF('data-services'!$A:$A,$A15,'data-services'!E:E),"")</f>
+        <f>IF($A15&lt;&gt;"",SUMIF('data-services'!$A:$A,$A15,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="30" t="str">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-services'!$A:$A,$A16,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="B16" s="31" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-services'!$A:$A,$A16,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="31" t="str">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-services'!$A:$A,$A17,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+        <v>VALENCIA</v>
+      </c>
+      <c r="B17" s="27">
+        <f>SUM(B18:B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B18" s="27">
-        <f>SUM(B19:B24)</f>
+        <v>Rodriguez De Cepeda 044</v>
+      </c>
+      <c r="B18" s="28">
+        <f>IF($A18&lt;&gt;"",SUMIF('data-services'!$A:$A,$A18,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
-      </c>
-      <c r="B19" s="28">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-services'!$A:$A,$A19,'data-services'!E:E),"")</f>
+        <v>Salamanca 46</v>
+      </c>
+      <c r="B19" s="29">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-services'!$A:$A,$A19,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Salamanca 46</v>
+        <v>Nau 14</v>
       </c>
       <c r="B20" s="29">
-        <f>IF($A20&lt;&gt;"",SUMIF('data-services'!$A:$A,$A20,'data-services'!E:E),"")</f>
+        <f>IF($A20&lt;&gt;"",SUMIF('data-services'!$A:$A,$A20,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Nau 14</v>
+        <v>Facultades</v>
       </c>
       <c r="B21" s="29">
-        <f>IF($A21&lt;&gt;"",SUMIF('data-services'!$A:$A,$A21,'data-services'!E:E),"")</f>
+        <f>IF($A21&lt;&gt;"",SUMIF('data-services'!$A:$A,$A21,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B22" s="29">
-        <f>IF($A22&lt;&gt;"",SUMIF('data-services'!$A:$A,$A22,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+        <v/>
+      </c>
+      <c r="B22" s="31" t="str">
+        <f>IF($A22&lt;&gt;"",SUMIF('data-services'!$A:$A,$A22,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="29" t="str">
-        <f>IF($A23&lt;&gt;"",SUMIF('data-services'!$A:$A,$A23,'data-services'!E:E),"")</f>
-        <v/>
+        <v>MADRID</v>
+      </c>
+      <c r="B23" s="27">
+        <f>SUM(B24:B26)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="12" t="str">
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="31" t="str">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-services'!$A:$A,$A24,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B24" s="28">
+        <f>IF($A24&lt;&gt;"",SUMIF('data-services'!$A:$A,$A24,'data-services'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B25" s="29">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-services'!$A:$A,$A25,'data-services'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="31" t="str">
+        <f>IF($A26&lt;&gt;"",SUMIF('data-services'!$A:$A,$A26,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B25" s="27">
-        <f>SUM(B26:B28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+      <c r="B27" s="27">
+        <f>SUM(B28:B29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B26" s="28">
-        <f>IF($A26&lt;&gt;"",SUMIF('data-services'!$A:$A,$A26,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="29" t="str">
-        <f>IF($A27&lt;&gt;"",SUMIF('data-services'!$A:$A,$A27,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="31" t="str">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-services'!$A:$A,$A28,'data-services'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+      <c r="B28" s="28">
+        <f>IF($A28&lt;&gt;"",SUMIF('data-services'!$A:$A,$A28,'data-services'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B29" s="27">
-        <f>SUM(B30:B33)</f>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="B29" s="31" t="str">
+        <f>IF($A29&lt;&gt;"",SUMIF('data-services'!$A:$A,$A29,'data-services'!C:C),"")</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="4" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B30" s="28">
-        <f>IF($A30&lt;&gt;"",SUMIF('data-services'!$A:$A,$A30,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B30" s="26">
+        <f>SUM(B32:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v>Donoso Cortés 75</v>
-      </c>
-      <c r="B31" s="29">
-        <f>IF($A31&lt;&gt;"",SUMIF('data-services'!$A:$A,$A31,'data-services'!E:E),"")</f>
+        <v>BARCELONA</v>
+      </c>
+      <c r="B31" s="27">
+        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="29" t="str">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-services'!$A:$A,$A32,'data-services'!E:E),"")</f>
-        <v/>
+        <v>Artesania 30</v>
+      </c>
+      <c r="B32" s="28">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-services'!$A:$A,$A32,'data-services'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="31" t="str">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-services'!$A:$A,$A33,'data-services'!E:E),"")</f>
-        <v/>
+        <v>Bailén 33</v>
+      </c>
+      <c r="B33" s="29">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-services'!$A:$A,$A33,'data-services'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>3rd PARTIES</v>
-      </c>
-      <c r="B34" s="26">
-        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B34" s="29">
+        <f>IF($A34&lt;&gt;"",SUMIF('data-services'!$A:$A,$A34,'data-services'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>BARCELONA</v>
-      </c>
-      <c r="B35" s="27">
-        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B35" s="29">
+        <f>IF($A35&lt;&gt;"",SUMIF('data-services'!$A:$A,$A35,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Artesania 30</v>
-      </c>
-      <c r="B36" s="28">
-        <f>IF($A36&lt;&gt;"",SUMIF('data-services'!$A:$A,$A36,'data-services'!E:E),"")</f>
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B36" s="29">
+        <f>IF($A36&lt;&gt;"",SUMIF('data-services'!$A:$A,$A36,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Bailén 33</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B37" s="29">
-        <f>IF($A37&lt;&gt;"",SUMIF('data-services'!$A:$A,$A37,'data-services'!E:E),"")</f>
+        <f>IF($A37&lt;&gt;"",SUMIF('data-services'!$A:$A,$A37,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B38" s="29">
-        <f>IF($A38&lt;&gt;"",SUMIF('data-services'!$A:$A,$A38,'data-services'!E:E),"")</f>
+        <f>IF($A38&lt;&gt;"",SUMIF('data-services'!$A:$A,$A38,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 52</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="29">
-        <f>IF($A39&lt;&gt;"",SUMIF('data-services'!$A:$A,$A39,'data-services'!E:E),"")</f>
+        <f>IF($A39&lt;&gt;"",SUMIF('data-services'!$A:$A,$A39,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Còrsega 207</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B40" s="29">
-        <f>IF($A40&lt;&gt;"",SUMIF('data-services'!$A:$A,$A40,'data-services'!E:E),"")</f>
+        <f>IF($A40&lt;&gt;"",SUMIF('data-services'!$A:$A,$A40,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Encarnación 160</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B41" s="29">
-        <f>IF($A41&lt;&gt;"",SUMIF('data-services'!$A:$A,$A41,'data-services'!E:E),"")</f>
+        <f>IF($A41&lt;&gt;"",SUMIF('data-services'!$A:$A,$A41,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Gran Via 598</v>
+        <v>Travessera 43</v>
       </c>
       <c r="B42" s="29">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-services'!$A:$A,$A42,'data-services'!E:E),"")</f>
+        <f>IF($A42&lt;&gt;"",SUMIF('data-services'!$A:$A,$A42,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B43" s="29">
-        <f>IF($A43&lt;&gt;"",SUMIF('data-services'!$A:$A,$A43,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B44" s="29">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-services'!$A:$A,$A44,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B45" s="29">
-        <f>IF($A45&lt;&gt;"",SUMIF('data-services'!$A:$A,$A45,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
-        <v>Travessera 43</v>
-      </c>
-      <c r="B46" s="29">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-services'!$A:$A,$A46,'data-services'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="30"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="str">
-        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="31" t="str">
-        <f>IF($A48&lt;&gt;"",SUMIF('data-services'!$A:$A,$A48,'data-services'!E:E),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="31" t="str">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-services'!$A:$A,$A43,'data-services'!C:C),"")</f>
         <v/>
       </c>
     </row>
@@ -3313,7 +3218,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3463,41 +3368,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="30" t="str">
-        <f>IF($A16&lt;&gt;"",IF(Beds!B16*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B16*Occupancy!B17),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="B16" s="31" t="str">
+        <f>IF($A16&lt;&gt;"",IF(Beds!B16*Occupancy!B16&lt;&gt;0,'Income rent'!B16/(Beds!B16*Occupancy!B16),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="31" t="str">
+        <v>VALENCIA</v>
+      </c>
+      <c r="B17" s="27">
         <f>IF($A17&lt;&gt;"",IF(Beds!B17*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B17*Occupancy!B17),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B18" s="27">
+        <v>Rodriguez De Cepeda 044</v>
+      </c>
+      <c r="B18" s="28">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
-      </c>
-      <c r="B19" s="28">
+        <v>Salamanca 46</v>
+      </c>
+      <c r="B19" s="29">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19*Occupancy!B19&lt;&gt;0,'Income rent'!B19/(Beds!B19*Occupancy!B19),0),"")</f>
         <v>0</v>
       </c>
@@ -3505,169 +3410,169 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Salamanca 46</v>
+        <v>Nau 14</v>
       </c>
       <c r="B20" s="29">
-        <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B20*Occupancy!B20),0),"")</f>
+        <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B19&lt;&gt;0,'Income rent'!B19/(Beds!B20*Occupancy!B19),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Nau 14</v>
+        <v>Facultades</v>
       </c>
       <c r="B21" s="29">
-        <f>IF($A21&lt;&gt;"",IF(Beds!B21*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B21*Occupancy!B20),0),"")</f>
+        <f>IF($A21&lt;&gt;"",IF(Beds!B21*Occupancy!B21&lt;&gt;0,'Income rent'!B21/(Beds!B21*Occupancy!B21),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B22" s="29">
+        <v/>
+      </c>
+      <c r="B22" s="31" t="str">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22*Occupancy!B22&lt;&gt;0,'Income rent'!B22/(Beds!B22*Occupancy!B22),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="29" t="str">
+        <v>MADRID</v>
+      </c>
+      <c r="B23" s="27">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23*Occupancy!B23&lt;&gt;0,'Income rent'!B23/(Beds!B23*Occupancy!B23),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="12" t="str">
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="31" t="str">
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B24" s="28">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24*Occupancy!B24&lt;&gt;0,'Income rent'!B24/(Beds!B24*Occupancy!B24),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B25" s="29">
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B24&lt;&gt;0,'Income rent'!B24/(Beds!B25*Occupancy!B24),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="31" t="str">
+        <f>IF($A26&lt;&gt;"",IF(Beds!B26*Occupancy!B26&lt;&gt;0,'Income rent'!B26/(Beds!B26*Occupancy!B26),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B25" s="27">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B25&lt;&gt;0,'Income rent'!B25/(Beds!B25*Occupancy!B25),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+      <c r="B27" s="27">
+        <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B26" s="28">
-        <f>IF($A26&lt;&gt;"",IF(Beds!B26*Occupancy!B26&lt;&gt;0,'Income rent'!B26/(Beds!B26*Occupancy!B26),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="29" t="str">
-        <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="31" t="str">
+      <c r="B28" s="28">
         <f>IF($A28&lt;&gt;"",IF(Beds!B28*Occupancy!B28&lt;&gt;0,'Income rent'!B28/(Beds!B28*Occupancy!B28),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B29" s="27">
+        <v/>
+      </c>
+      <c r="B29" s="31" t="str">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29*Occupancy!B29&lt;&gt;0,'Income rent'!B29/(Beds!B29*Occupancy!B29),0),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="4" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B30" s="28">
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B30" s="26">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B30*Occupancy!B30),0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v>Donoso Cortés 75</v>
-      </c>
-      <c r="B31" s="29">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B31*Occupancy!B30),0),"")</f>
+        <v>BARCELONA</v>
+      </c>
+      <c r="B31" s="27">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B31*Occupancy!B32),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="29" t="str">
+        <v>Artesania 30</v>
+      </c>
+      <c r="B32" s="28">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B32*Occupancy!B32),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="31" t="str">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B33" s="29">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33*Occupancy!B33&lt;&gt;0,'Income rent'!B33/(Beds!B33*Occupancy!B33),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>3rd PARTIES</v>
-      </c>
-      <c r="B34" s="26">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B34" s="29">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34*Occupancy!B34&lt;&gt;0,'Income rent'!B34/(Beds!B34*Occupancy!B34),0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>BARCELONA</v>
-      </c>
-      <c r="B35" s="27">
-        <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B35*Occupancy!B36),0),"")</f>
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B35" s="29">
+        <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B35*Occupancy!B35),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Artesania 30</v>
-      </c>
-      <c r="B36" s="28">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B36*Occupancy!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -3675,7 +3580,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Bailén 33</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37*Occupancy!B37&lt;&gt;0,'Income rent'!B37/(Beds!B37*Occupancy!B37),0),"")</f>
@@ -3685,7 +3590,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38*Occupancy!B38&lt;&gt;0,'Income rent'!B38/(Beds!B38*Occupancy!B38),0),"")</f>
@@ -3695,7 +3600,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 52</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39*Occupancy!B39&lt;&gt;0,'Income rent'!B39/(Beds!B39*Occupancy!B39),0),"")</f>
@@ -3705,7 +3610,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Còrsega 207</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40*Occupancy!B40&lt;&gt;0,'Income rent'!B40/(Beds!B40*Occupancy!B40),0),"")</f>
@@ -3715,7 +3620,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Encarnación 160</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41*Occupancy!B41&lt;&gt;0,'Income rent'!B41/(Beds!B41*Occupancy!B41),0),"")</f>
@@ -3725,7 +3630,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Gran Via 598</v>
+        <v>Travessera 43</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42*Occupancy!B42&lt;&gt;0,'Income rent'!B42/(Beds!B42*Occupancy!B42),0),"")</f>
@@ -3733,56 +3638,12 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B43" s="29">
+        <v/>
+      </c>
+      <c r="B43" s="31" t="str">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43*Occupancy!B43&lt;&gt;0,'Income rent'!B43/(Beds!B43*Occupancy!B43),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B44" s="29">
-        <f>IF($A44&lt;&gt;"",IF(Beds!B44*Occupancy!B44&lt;&gt;0,'Income rent'!B44/(Beds!B44*Occupancy!B44),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B45" s="29">
-        <f>IF($A45&lt;&gt;"",IF(Beds!B45*Occupancy!B45&lt;&gt;0,'Income rent'!B45/(Beds!B45*Occupancy!B45),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
-        <v>Travessera 43</v>
-      </c>
-      <c r="B46" s="29">
-        <f>IF($A46&lt;&gt;"",IF(Beds!B46*Occupancy!B46&lt;&gt;0,'Income rent'!B46/(Beds!B46*Occupancy!B46),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="30"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="str">
-        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="31" t="str">
-        <f>IF($A48&lt;&gt;"",IF(Beds!B48*Occupancy!B48&lt;&gt;0,'Income rent'!B48/(Beds!B48*Occupancy!B48),0),"")</f>
         <v/>
       </c>
     </row>
@@ -3798,7 +3659,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3948,41 +3809,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="30" t="str">
-        <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,'Income rent'!B17/Beds!B16,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="B16" s="31" t="str">
+        <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,'Income rent'!B16/Beds!B16,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="31" t="str">
+        <v>VALENCIA</v>
+      </c>
+      <c r="B17" s="27">
         <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,'Income rent'!B17/Beds!B17,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B18" s="27">
+        <v>Rodriguez De Cepeda 044</v>
+      </c>
+      <c r="B18" s="28">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
-      </c>
-      <c r="B19" s="28">
+        <v>Salamanca 46</v>
+      </c>
+      <c r="B19" s="29">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,'Income rent'!B19/Beds!B19,0),"")</f>
         <v>0</v>
       </c>
@@ -3990,169 +3851,169 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Salamanca 46</v>
+        <v>Nau 14</v>
       </c>
       <c r="B20" s="29">
-        <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B20/Beds!B20,0),"")</f>
+        <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B19/Beds!B20,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Nau 14</v>
+        <v>Facultades</v>
       </c>
       <c r="B21" s="29">
-        <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,'Income rent'!B20/Beds!B21,0),"")</f>
+        <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,'Income rent'!B21/Beds!B21,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B22" s="29">
+        <v/>
+      </c>
+      <c r="B22" s="31" t="str">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,'Income rent'!B22/Beds!B22,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="29" t="str">
+        <v>MADRID</v>
+      </c>
+      <c r="B23" s="27">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,'Income rent'!B23/Beds!B23,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="12" t="str">
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="31" t="str">
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B24" s="28">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,'Income rent'!B24/Beds!B24,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B25" s="29">
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B24/Beds!B25,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="31" t="str">
+        <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,'Income rent'!B26/Beds!B26,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B25" s="27">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B25/Beds!B25,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+      <c r="B27" s="27">
+        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B26" s="28">
-        <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,'Income rent'!B26/Beds!B26,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="29" t="str">
-        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="31" t="str">
+      <c r="B28" s="28">
         <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,'Income rent'!B28/Beds!B28,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B29" s="27">
+        <v/>
+      </c>
+      <c r="B29" s="31" t="str">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,'Income rent'!B29/Beds!B29,0),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="4" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B30" s="28">
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B30" s="26">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v>Donoso Cortés 75</v>
-      </c>
-      <c r="B31" s="29">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B30/Beds!B31,0),"")</f>
+        <v>BARCELONA</v>
+      </c>
+      <c r="B31" s="27">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B32/Beds!B31,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="29" t="str">
+        <v>Artesania 30</v>
+      </c>
+      <c r="B32" s="28">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,'Income rent'!B32/Beds!B32,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="31" t="str">
+        <v>Bailén 33</v>
+      </c>
+      <c r="B33" s="29">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,'Income rent'!B33/Beds!B33,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>3rd PARTIES</v>
-      </c>
-      <c r="B34" s="26">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B34" s="29">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,'Income rent'!B34/Beds!B34,0),"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>BARCELONA</v>
-      </c>
-      <c r="B35" s="27">
-        <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B36/Beds!B35,0),"")</f>
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B35" s="29">
+        <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B35/Beds!B35,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Artesania 30</v>
-      </c>
-      <c r="B36" s="28">
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,'Income rent'!B36/Beds!B36,0),"")</f>
         <v>0</v>
       </c>
@@ -4160,7 +4021,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Bailén 33</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,'Income rent'!B37/Beds!B37,0),"")</f>
@@ -4170,7 +4031,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,'Income rent'!B38/Beds!B38,0),"")</f>
@@ -4180,7 +4041,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 52</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,'Income rent'!B39/Beds!B39,0),"")</f>
@@ -4190,7 +4051,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Còrsega 207</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,'Income rent'!B40/Beds!B40,0),"")</f>
@@ -4200,7 +4061,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Encarnación 160</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,'Income rent'!B41/Beds!B41,0),"")</f>
@@ -4210,7 +4071,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Gran Via 598</v>
+        <v>Travessera 43</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,'Income rent'!B42/Beds!B42,0),"")</f>
@@ -4218,56 +4079,12 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B43" s="29">
+        <v/>
+      </c>
+      <c r="B43" s="31" t="str">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,'Income rent'!B43/Beds!B43,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B44" s="29">
-        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,'Income rent'!B44/Beds!B44,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B45" s="29">
-        <f>IF($A45&lt;&gt;"",IF(Beds!B45&lt;&gt;0,'Income rent'!B45/Beds!B45,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
-        <v>Travessera 43</v>
-      </c>
-      <c r="B46" s="29">
-        <f>IF($A46&lt;&gt;"",IF(Beds!B46&lt;&gt;0,'Income rent'!B46/Beds!B46,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="30"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="str">
-        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="31" t="str">
-        <f>IF($A48&lt;&gt;"",IF(Beds!B48&lt;&gt;0,'Income rent'!B48/Beds!B48,0),"")</f>
         <v/>
       </c>
     </row>
@@ -4283,7 +4100,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4318,7 +4135,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="39">
-        <f>B5+B34</f>
+        <f>B5+B30</f>
         <v>0</v>
       </c>
     </row>
@@ -4328,7 +4145,7 @@
         <v>VANDOR</v>
       </c>
       <c r="B5" s="40">
-        <f>B6+B18+B25+B29</f>
+        <f>B6+B17+B27+B23</f>
         <v>0</v>
       </c>
     </row>
@@ -4338,7 +4155,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B6" s="41">
-        <f>SUM(B7:B17)</f>
+        <f>SUM(B7:B16)</f>
         <v>0</v>
       </c>
     </row>
@@ -4348,7 +4165,7 @@
         <v>Balmes 335</v>
       </c>
       <c r="B7" s="42">
-        <f>IF($A7&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A7,'data-nights'!E:E),"")</f>
+        <f>IF($A7&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A7,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4358,7 +4175,7 @@
         <v>Nàpols 206</v>
       </c>
       <c r="B8" s="43">
-        <f>IF($A8&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A8,'data-nights'!E:E),"")</f>
+        <f>IF($A8&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A8,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4368,7 +4185,7 @@
         <v>Rocafort 219</v>
       </c>
       <c r="B9" s="43">
-        <f>IF($A9&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A9,'data-nights'!E:E),"")</f>
+        <f>IF($A9&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A9,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4378,7 +4195,7 @@
         <v>Entença 069</v>
       </c>
       <c r="B10" s="43">
-        <f>IF($A10&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A10,'data-nights'!E:E),"")</f>
+        <f>IF($A10&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A10,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4388,7 +4205,7 @@
         <v>Avenida Madrid 110</v>
       </c>
       <c r="B11" s="43">
-        <f>IF($A11&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A11,'data-nights'!E:E),"")</f>
+        <f>IF($A11&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A11,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4398,7 +4215,7 @@
         <v>Muntaner 448</v>
       </c>
       <c r="B12" s="43">
-        <f>IF($A12&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A12,'data-nights'!E:E),"")</f>
+        <f>IF($A12&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A12,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4408,7 +4225,7 @@
         <v>Concordia 12</v>
       </c>
       <c r="B13" s="43">
-        <f>IF($A13&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A13,'data-nights'!E:E),"")</f>
+        <f>IF($A13&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A13,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4235,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B14" s="43">
-        <f>IF($A14&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A14,'data-nights'!E:E),"")</f>
+        <f>IF($A14&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A14,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4428,331 +4245,287 @@
         <v>Còrsega 396</v>
       </c>
       <c r="B15" s="44">
-        <f>IF($A15&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A15,'data-nights'!E:E),"")</f>
+        <f>IF($A15&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A15,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="15" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="44" t="str">
-        <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="str">
+      <c r="B16" s="45" t="str">
+        <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="45" t="str">
-        <f>IF($A17&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A17,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+        <v>VALENCIA</v>
+      </c>
+      <c r="B17" s="41">
+        <f>SUM(B18:B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>VALENCIA</v>
-      </c>
-      <c r="B18" s="41">
-        <f>SUM(B19:B24)</f>
+        <v>Rodriguez De Cepeda 044</v>
+      </c>
+      <c r="B18" s="42">
+        <f>IF($A18&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A18,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="13" t="str">
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
-      </c>
-      <c r="B19" s="42">
-        <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!E:E),"")</f>
+        <v>Salamanca 46</v>
+      </c>
+      <c r="B19" s="43">
+        <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Salamanca 46</v>
+        <v>Nau 14</v>
       </c>
       <c r="B20" s="43">
-        <f>IF($A20&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A20,'data-nights'!E:E),"")</f>
+        <f>IF($A20&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A20,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Nau 14</v>
+        <v>Facultades</v>
       </c>
       <c r="B21" s="43">
-        <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!E:E),"")</f>
+        <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v>Facultades</v>
-      </c>
-      <c r="B22" s="43">
-        <f>IF($A22&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A22,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+        <v/>
+      </c>
+      <c r="B22" s="45" t="str">
+        <f>IF($A22&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A22,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="43" t="str">
-        <f>IF($A23&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A23,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>MADRID</v>
+      </c>
+      <c r="B23" s="41">
+        <f>SUM(B24:B26)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="str">
+      <c r="A24" s="12" t="str">
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="45" t="str">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A24,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+        <v>Carlos III Campus Getafe</v>
+      </c>
+      <c r="B24" s="42">
+        <f>IF($A24&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A24,'data-nights'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+        <v>Donoso Cortés 75</v>
+      </c>
+      <c r="B25" s="43">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A25,'data-nights'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="45" t="str">
+        <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="str">
+        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B25" s="41">
-        <f>SUM(B26:B28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
+      <c r="B27" s="41">
+        <f>SUM(B28:B29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B26" s="42">
-        <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="43" t="str">
-        <f>IF($A27&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A27,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="45" t="str">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A28,'data-nights'!E:E),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+      <c r="B28" s="42">
+        <f>IF($A28&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A28,'data-nights'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v>MADRID</v>
-      </c>
-      <c r="B29" s="41">
-        <f>SUM(B30:B33)</f>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="B29" s="45" t="str">
+        <f>IF($A29&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A29,'data-nights'!C:C),"")</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="4" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
-        <v>Carlos III Campus Getafe</v>
-      </c>
-      <c r="B30" s="42">
-        <f>IF($A30&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A30,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+        <v>3rd PARTIES</v>
+      </c>
+      <c r="B30" s="40">
+        <f>SUM(B32:B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="str">
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
-        <v>Donoso Cortés 75</v>
-      </c>
-      <c r="B31" s="43">
-        <f>IF($A31&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A31,'data-nights'!E:E),"")</f>
+        <v>BARCELONA</v>
+      </c>
+      <c r="B31" s="41">
+        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="43" t="str">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>Artesania 30</v>
+      </c>
+      <c r="B32" s="42">
+        <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="45" t="str">
-        <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!E:E),"")</f>
-        <v/>
+        <v>Bailén 33</v>
+      </c>
+      <c r="B33" s="43">
+        <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!C:C),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>3rd PARTIES</v>
-      </c>
-      <c r="B34" s="40">
-        <f t="shared" ref="B34" si="1">SUM(B36:B48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+        <v>Consell De Cent 222</v>
+      </c>
+      <c r="B34" s="43">
+        <f>IF($A34&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A34,'data-nights'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>BARCELONA</v>
-      </c>
-      <c r="B35" s="41">
-        <f t="shared" ref="B35" si="2">SUM(B36:B43)</f>
+        <v>Còrsega 52</v>
+      </c>
+      <c r="B35" s="43">
+        <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Artesania 30</v>
-      </c>
-      <c r="B36" s="42">
-        <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!E:E),"")</f>
+        <v>Còrsega 207</v>
+      </c>
+      <c r="B36" s="43">
+        <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Bailén 33</v>
+        <v>Encarnación 160</v>
       </c>
       <c r="B37" s="43">
-        <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!E:E),"")</f>
+        <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B38" s="43">
-        <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!E:E),"")</f>
+        <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Còrsega 52</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B39" s="43">
-        <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!E:E),"")</f>
+        <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Còrsega 207</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B40" s="43">
-        <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!E:E),"")</f>
+        <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Encarnación 160</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B41" s="43">
-        <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!E:E),"")</f>
+        <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Gran Via 598</v>
+        <v>Travessera 43</v>
       </c>
       <c r="B42" s="43">
-        <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!E:E),"")</f>
+        <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+      <c r="A43" s="16" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v>Ramón Albó 6</v>
-      </c>
-      <c r="B43" s="43">
-        <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
-        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
-        <v>Robrenyo 67</v>
-      </c>
-      <c r="B44" s="43">
-        <f>IF($A44&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A44,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
-        <f>IF(Beds!A45&lt;&gt;"",Beds!A45,"")</f>
-        <v>Sardenya 326</v>
-      </c>
-      <c r="B45" s="43">
-        <f>IF($A45&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A45,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
-        <f>IF(Beds!A46&lt;&gt;"",Beds!A46,"")</f>
-        <v>Travessera 43</v>
-      </c>
-      <c r="B46" s="43">
-        <f>IF($A46&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A46,'data-nights'!E:E),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="44"/>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="str">
-        <f>IF(Beds!A48&lt;&gt;"",Beds!A48,"")</f>
-        <v/>
-      </c>
-      <c r="B48" s="45" t="str">
-        <f>IF($A48&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A48,'data-nights'!E:E),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="45" t="str">
+        <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!C:C),"")</f>
         <v/>
       </c>
     </row>
@@ -4765,21 +4538,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
+    <col min="3" max="68" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4799,6 +4573,54 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4807,28 +4629,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
+    <col min="3" max="68" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -4843,8 +4662,50 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B07A2-DFAA-4C58-8812-EDC0CF9C81E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34775E57-F45E-4F6E-9CCC-FAF201B897A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,9 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1342,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1906,7 +1903,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2020,7 +2017,7 @@
         <v>Concordia 12</v>
       </c>
       <c r="B13" s="36">
-        <f>IF($A13&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B13/(Occupancy!B$3*Beds!B14),0),"")</f>
+        <f>IF($A13&lt;&gt;"",IF(Beds!B13&lt;&gt;0,Nights!B13/(Occupancy!B$3*Beds!B13),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2030,7 +2027,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B14" s="36">
-        <f>IF($A14&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B14/(Occupancy!B$3*Beds!B15),0),"")</f>
+        <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B14/(Occupancy!B$3*Beds!B14),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2036,7 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B15),0),"")</f>
         <v>0</v>
       </c>
@@ -2049,7 +2046,7 @@
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="37" t="str">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,Nights!B16/(Occupancy!B$3*Beds!B16),0),"")</f>
         <v/>
       </c>
@@ -2109,7 +2106,7 @@
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v/>
       </c>
-      <c r="B22" s="38" t="str">
+      <c r="B22" s="37" t="str">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,Nights!B22/(Occupancy!B$3*Beds!B22),0),"")</f>
         <v/>
       </c>
@@ -2149,7 +2146,7 @@
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v/>
       </c>
-      <c r="B26" s="38" t="str">
+      <c r="B26" s="37" t="str">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
         <v/>
       </c>
@@ -2179,7 +2176,7 @@
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v/>
       </c>
-      <c r="B29" s="38" t="str">
+      <c r="B29" s="37" t="str">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,Nights!B29/(Occupancy!B$3*Beds!B29),0),"")</f>
         <v/>
       </c>
@@ -2319,7 +2316,7 @@
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
         <v/>
       </c>
-      <c r="B43" s="38" t="str">
+      <c r="B43" s="37" t="str">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,Nights!B43/(Occupancy!B$3*Beds!B43),0),"")</f>
         <v/>
       </c>
@@ -2347,7 +2344,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2480,7 +2477,7 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <f>IF($A15&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A15,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -2788,7 +2785,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2921,7 +2918,7 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <f>IF($A15&lt;&gt;"",SUMIF('data-services'!$A:$A,$A15,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -3229,7 +3226,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3343,7 +3340,7 @@
         <v>Concordia 12</v>
       </c>
       <c r="B13" s="29">
-        <f>IF($A13&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
+        <f>IF($A13&lt;&gt;"",IF(Beds!B13*Occupancy!B13&lt;&gt;0,'Income rent'!B13/(Beds!B13*Occupancy!B13),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3353,7 +3350,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B14" s="29">
-        <f>IF($A14&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
+        <f>IF($A14&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3359,7 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <f>IF($A15&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
         <v>0</v>
       </c>
@@ -3670,7 +3667,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4111,7 +4108,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4134,7 +4131,7 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <f>B5+B30</f>
         <v>0</v>
       </c>
@@ -4144,7 +4141,7 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <f>B6+B17+B27+B23</f>
         <v>0</v>
       </c>
@@ -4154,7 +4151,7 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <f>SUM(B7:B16)</f>
         <v>0</v>
       </c>
@@ -4164,7 +4161,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <f>IF($A7&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A7,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4174,7 +4171,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Nàpols 206</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="42">
         <f>IF($A8&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A8,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4184,7 +4181,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <f>IF($A9&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A9,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4194,7 +4191,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="42">
         <f>IF($A10&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A10,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4204,7 +4201,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <f>IF($A11&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A11,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4214,7 +4211,7 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <f>IF($A12&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A12,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4224,7 +4221,7 @@
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
         <v>Concordia 12</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <f>IF($A13&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A13,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4234,7 +4231,7 @@
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
         <v>Consell De Cent 538</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <f>IF($A14&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A14,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4244,7 +4241,7 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <f>IF($A15&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A15,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4254,7 +4251,7 @@
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="45" t="str">
+      <c r="B16" s="44" t="str">
         <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4264,7 +4261,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <f>SUM(B18:B22)</f>
         <v>0</v>
       </c>
@@ -4274,7 +4271,7 @@
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>Rodriguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <f>IF($A18&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A18,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4284,7 +4281,7 @@
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="42">
         <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4294,7 +4291,7 @@
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Nau 14</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="42">
         <f>IF($A20&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A20,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4304,7 +4301,7 @@
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
         <v>Facultades</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="42">
         <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4314,7 +4311,7 @@
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v/>
       </c>
-      <c r="B22" s="45" t="str">
+      <c r="B22" s="44" t="str">
         <f>IF($A22&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A22,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4324,7 +4321,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="40">
         <f>SUM(B24:B26)</f>
         <v>0</v>
       </c>
@@ -4334,7 +4331,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <f>IF($A24&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A24,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4344,7 +4341,7 @@
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="42">
         <f>IF($A25&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A25,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4354,7 +4351,7 @@
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v/>
       </c>
-      <c r="B26" s="45" t="str">
+      <c r="B26" s="44" t="str">
         <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4364,7 +4361,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <f>SUM(B28:B29)</f>
         <v>0</v>
       </c>
@@ -4374,7 +4371,7 @@
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="41">
         <f>IF($A28&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A28,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4384,7 +4381,7 @@
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v/>
       </c>
-      <c r="B29" s="45" t="str">
+      <c r="B29" s="44" t="str">
         <f>IF($A29&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A29,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4394,7 +4391,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="39">
         <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
@@ -4404,7 +4401,7 @@
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
         <v>0</v>
       </c>
@@ -4414,7 +4411,7 @@
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4424,7 +4421,7 @@
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Bailén 33</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="42">
         <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4434,7 +4431,7 @@
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>Consell De Cent 222</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <f>IF($A34&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A34,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4444,7 +4441,7 @@
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Còrsega 52</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="42">
         <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4454,7 +4451,7 @@
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Còrsega 207</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="42">
         <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4464,7 +4461,7 @@
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
         <v>Encarnación 160</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="42">
         <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4474,7 +4471,7 @@
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
         <v>Gran Via 598</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="42">
         <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4484,7 +4481,7 @@
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
         <v>Ramón Albó 6</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="42">
         <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4494,7 +4491,7 @@
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
         <v>Robrenyo 67</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="42">
         <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4504,7 +4501,7 @@
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
         <v>Sardenya 326</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="42">
         <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4514,7 +4511,7 @@
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="42">
         <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4524,7 +4521,7 @@
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
         <v/>
       </c>
-      <c r="B43" s="45" t="str">
+      <c r="B43" s="44" t="str">
         <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!C:C),"")</f>
         <v/>
       </c>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34775E57-F45E-4F6E-9CCC-FAF201B897A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C4C41-90A3-4598-859F-E49F00CB7012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3410,7 +3410,7 @@
         <v>Nau 14</v>
       </c>
       <c r="B20" s="29">
-        <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B19&lt;&gt;0,'Income rent'!B19/(Beds!B20*Occupancy!B19),0),"")</f>
+        <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B20*Occupancy!B20),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
         <v>Donoso Cortés 75</v>
       </c>
       <c r="B25" s="29">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B24&lt;&gt;0,'Income rent'!B24/(Beds!B25*Occupancy!B24),0),"")</f>
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B25&lt;&gt;0,'Income rent'!B25/(Beds!B25*Occupancy!B25),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
         <v>Concordia 12</v>
       </c>
       <c r="B13" s="29">
-        <f>IF($A13&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
+        <f>IF($A13&lt;&gt;"",IF(Beds!B13&lt;&gt;0,'Income rent'!B13/Beds!B13,0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B14" s="29">
-        <f>IF($A14&lt;&gt;"",IF(Beds!B15&lt;&gt;0,'Income rent'!B15/Beds!B15,0),"")</f>
+        <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
         <v>Nau 14</v>
       </c>
       <c r="B20" s="29">
-        <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B19/Beds!B20,0),"")</f>
+        <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B20/Beds!B20,0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
         <v>Donoso Cortés 75</v>
       </c>
       <c r="B25" s="29">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B24/Beds!B25,0),"")</f>
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B25/Beds!B25,0),"")</f>
         <v>0</v>
       </c>
     </row>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948C4C41-90A3-4598-859F-E49F00CB7012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8512DE6E-53D6-4A88-9EBC-C6C0EBF60515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="20">
-        <f>SUM(B32:B43)</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="21">
-        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="33">
-        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="34">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="26">
-        <f>SUM(B32:B43)</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="27">
-        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="26">
-        <f>SUM(B32:B43)</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="27">
-        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="26">
-        <f>IF($A30&lt;&gt;"",IF(Beds!B30*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B30*Occupancy!B30),0),"")</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="27">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B31*Occupancy!B32),0),"")</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="26">
-        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="27">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B32/Beds!B31,0),"")</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="39">
-        <f>SUM(B32:B43)</f>
+        <f>B31</f>
         <v>0</v>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="40">
-        <f t="shared" ref="B31" si="1">SUM(B32:B39)</f>
+        <f>SUM(B32:B43)</f>
         <v>0</v>
       </c>
     </row>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8512DE6E-53D6-4A88-9EBC-C6C0EBF60515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1EC271-3ACA-4A25-9C63-D1247C80CA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>Rodriguez De Cepeda 044</t>
   </si>
   <si>
     <t>Salamanca 46</t>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Donoso Cortés 75</t>
+  </si>
+  <si>
+    <t>Rodríguez De Cepeda 044</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="23">
         <f>IF($A8&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A8,'data-beds'!C:C),"")</f>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="23">
         <f>IF($A13&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A13,'data-beds'!C:C),"")</f>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="23">
         <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!C:C),"")</f>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="23">
         <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!C:C),"")</f>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B18" s="22">
         <f>IF($A18&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A18,'data-beds'!C:C),"")</f>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="23">
         <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!C:C),"")</f>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="23">
         <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!C:C),"")</f>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="23">
         <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!C:C),"")</f>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="21">
         <f>SUM(B24:B26)</f>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="22">
         <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!C:C),"")</f>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="23">
         <f>IF($A25&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A25,'data-beds'!C:C),"")</f>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="21">
         <f>SUM(B28:B29)</f>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="22">
         <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!C:C),"")</f>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="20">
         <f>B31</f>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="22">
         <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!C:C),"")</f>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="23">
         <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!C:C),"")</f>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="23">
         <f>IF($A34&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A34,'data-beds'!C:C),"")</f>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="23">
         <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!C:C),"")</f>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="23">
         <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!C:C),"")</f>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="23">
         <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!C:C),"")</f>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="23">
         <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!C:C),"")</f>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="23">
         <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!C:C),"")</f>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="23">
         <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!C:C),"")</f>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="23">
         <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!C:C),"")</f>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="23">
         <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!C:C),"")</f>
@@ -1731,10 +1731,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1816,10 +1816,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2064,7 +2064,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
+        <v>Rodríguez De Cepeda 044</v>
       </c>
       <c r="B18" s="35">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2505,7 +2505,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
+        <v>Rodríguez De Cepeda 044</v>
       </c>
       <c r="B18" s="28">
         <f>IF($A18&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A18,'data-rent'!C:C),"")</f>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2946,7 +2946,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
+        <v>Rodríguez De Cepeda 044</v>
       </c>
       <c r="B18" s="28">
         <f>IF($A18&lt;&gt;"",SUMIF('data-services'!$A:$A,$A18,'data-services'!C:C),"")</f>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -3387,7 +3387,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
+        <v>Rodríguez De Cepeda 044</v>
       </c>
       <c r="B18" s="28">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -3828,7 +3828,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
+        <v>Rodríguez De Cepeda 044</v>
       </c>
       <c r="B18" s="28">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -4269,7 +4269,7 @@
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
-        <v>Rodriguez De Cepeda 044</v>
+        <v>Rodríguez De Cepeda 044</v>
       </c>
       <c r="B18" s="41">
         <f>IF($A18&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A18,'data-nights'!C:C),"")</f>
@@ -4547,10 +4547,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4638,10 +4638,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1EC271-3ACA-4A25-9C63-D1247C80CA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AE015-938B-49A1-B911-D870EADF791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2187,7 +2187,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B30" s="33">
-        <f>B31</f>
+        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B31" s="34">
-        <f>SUM(B32:B43)</f>
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4099,7 +4099,9 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AE015-938B-49A1-B911-D870EADF791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E215D-29F1-45C7-B820-8ED8B29FEABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Consell De Cent 222</t>
   </si>
   <si>
-    <t>Encarnación 160</t>
-  </si>
-  <si>
     <t>Gran Via 598</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Rodríguez De Cepeda 044</t>
+  </si>
+  <si>
+    <t>Encarnació 160</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23">
         <f>IF($A8&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A8,'data-beds'!C:C),"")</f>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="23">
         <f>IF($A13&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A13,'data-beds'!C:C),"")</f>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23">
         <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!C:C),"")</f>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="23">
         <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!C:C),"")</f>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="22">
         <f>IF($A18&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A18,'data-beds'!C:C),"")</f>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="23">
         <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!C:C),"")</f>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="23">
         <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!C:C),"")</f>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="22">
         <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!C:C),"")</f>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="23">
         <f>IF($A25&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A25,'data-beds'!C:C),"")</f>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="23">
         <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!C:C),"")</f>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="23">
         <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!C:C),"")</f>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B37" s="23">
         <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!C:C),"")</f>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="23">
         <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!C:C),"")</f>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="23">
         <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!C:C),"")</f>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="23">
         <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!C:C),"")</f>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="23">
         <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!C:C),"")</f>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="23">
         <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!C:C),"")</f>
@@ -1731,10 +1731,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1816,10 +1816,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1894,7 +1894,9 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1907,7 +1909,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2254,7 +2256,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B37" s="36">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,Nights!B37/(Occupancy!B$3*Beds!B37),0),"")</f>
@@ -2348,7 +2350,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -2695,7 +2697,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A37,'data-rent'!C:C),"")</f>
@@ -2789,7 +2791,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -3136,7 +3138,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-services'!$A:$A,$A37,'data-services'!C:C),"")</f>
@@ -3230,7 +3232,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -3577,7 +3579,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37*Occupancy!B37&lt;&gt;0,'Income rent'!B37/(Beds!B37*Occupancy!B37),0),"")</f>
@@ -3671,7 +3673,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -4018,7 +4020,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,'Income rent'!B37/Beds!B37,0),"")</f>
@@ -4114,7 +4116,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17">
         <f>'data-beds'!C1</f>
@@ -4461,7 +4463,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnación 160</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B37" s="42">
         <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!C:C),"")</f>
@@ -4549,10 +4551,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4640,10 +4642,10 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E215D-29F1-45C7-B820-8ED8B29FEABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8689E69-BC54-434B-81B2-DA82D6E627B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t xml:space="preserve">AVAILABLE BEDS </t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Encarnació 160</t>
+  </si>
+  <si>
+    <t>Amigó 26</t>
   </si>
 </sst>
 </file>
@@ -1032,9 +1035,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1072,7 +1075,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1178,7 +1181,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1320,7 +1323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1331,7 +1334,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="19">
-        <f>B5+B30</f>
+        <f>B5+B31</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20">
-        <f>B6+B17+B27+B23</f>
+        <f>B6+B18+B28+B24</f>
         <v>0</v>
       </c>
     </row>
@@ -1383,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21">
-        <f>SUM(B7:B16)</f>
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1451,8 +1454,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>37</v>
+      <c r="A14" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="23">
         <f>IF($A14&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A14,'data-beds'!C:C),"")</f>
@@ -1460,8 +1463,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>38</v>
+      <c r="A15" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="23">
         <f>IF($A15&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A15,'data-beds'!C:C),"")</f>
@@ -1469,42 +1472,42 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="24" t="str">
+      <c r="A16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="23">
         <f>IF($A16&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A16,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="24" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A17,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="21">
-        <f>SUM(B18:B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B18" s="21">
+        <f>SUM(B19:B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="22">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A18,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <f>IF($A19&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A19,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B20" s="23">
         <f>IF($A20&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A20,'data-beds'!C:C),"")</f>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B21" s="23">
         <f>IF($A21&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A21,'data-beds'!C:C),"")</f>
@@ -1521,110 +1524,110 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="23" t="str">
+      <c r="A22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="23">
         <f>IF($A22&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A22,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="23" t="str">
+        <f>IF($A23&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A23,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="21">
-        <f>SUM(B24:B26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="B24" s="21">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="22">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A24,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="B25" s="22">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A25,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="23">
-        <f>IF($A25&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A25,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="23" t="str">
+      <c r="B26" s="23">
         <f>IF($A26&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A26,'data-beds'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="23" t="str">
+        <f>IF($A27&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A27,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="21">
-        <f>SUM(B28:B29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B28" s="21">
+        <f>SUM(B29:B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="22">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A28,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="22">
         <f>IF($A29&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A29,'data-beds'!C:C),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="23" t="str">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A30,'data-beds'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="20">
-        <f>B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="21">
-        <f>SUM(B32:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="B32" s="21">
+        <f>SUM(B33:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="22">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A32,'data-beds'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <f>IF($A33&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A33,'data-beds'!C:C),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="23">
         <f>IF($A34&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A34,'data-beds'!C:C),"")</f>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B35" s="23">
         <f>IF($A35&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A35,'data-beds'!C:C),"")</f>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="23">
         <f>IF($A36&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A36,'data-beds'!C:C),"")</f>
@@ -1651,7 +1654,7 @@
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B37" s="23">
         <f>IF($A37&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A37,'data-beds'!C:C),"")</f>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B38" s="23">
         <f>IF($A38&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A38,'data-beds'!C:C),"")</f>
@@ -1669,7 +1672,7 @@
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B39" s="23">
         <f>IF($A39&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A39,'data-beds'!C:C),"")</f>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B40" s="23">
         <f>IF($A40&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A40,'data-beds'!C:C),"")</f>
@@ -1687,7 +1690,7 @@
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="23">
         <f>IF($A41&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A41,'data-beds'!C:C),"")</f>
@@ -1696,7 +1699,7 @@
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="23">
         <f>IF($A42&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A42,'data-beds'!C:C),"")</f>
@@ -1704,9 +1707,18 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="24" t="str">
+      <c r="A43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="23">
         <f>IF($A43&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A43,'data-beds'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="24" t="str">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-beds'!$A:$A,Beds!$A44,'data-beds'!C:C),"")</f>
         <v/>
       </c>
     </row>
@@ -1725,8 +1737,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="68" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="68" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -1810,8 +1823,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="68" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="68" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -1892,11 +1906,9 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2026,7 +2038,7 @@
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v>Consell De Cent 538</v>
+        <v>Còrsega 396</v>
       </c>
       <c r="B14" s="36">
         <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B14/(Occupancy!B$3*Beds!B14),0),"")</f>
@@ -2036,49 +2048,49 @@
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
-        <v>Còrsega 396</v>
+        <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="36">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B15),0),"")</f>
+        <f>IF($A15&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B14),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="37" t="str">
+        <v>Amigó 26</v>
+      </c>
+      <c r="B16" s="36">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,Nights!B16/(Occupancy!B$3*Beds!B16),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="37" t="str">
+        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,Nights!B17/(Occupancy!B$3*Beds!B17),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="34">
-        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,Nights!B17/(Occupancy!B$3*Beds!B17),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B18" s="34">
+        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="35">
-        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Salamanca 46</v>
-      </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,Nights!B19/(Occupancy!B$3*Beds!B19),0),"")</f>
         <v>0</v>
       </c>
@@ -2086,7 +2098,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Nau 14</v>
+        <v>Salamanca 46</v>
       </c>
       <c r="B20" s="36">
         <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,Nights!B20/(Occupancy!B$3*Beds!B20),0),"")</f>
@@ -2096,7 +2108,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Facultades</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="36">
         <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,Nights!B21/(Occupancy!B$3*Beds!B21),0),"")</f>
@@ -2104,121 +2116,121 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="37" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="36">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,Nights!B22/(Occupancy!B$3*Beds!B22),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="37" t="str">
+        <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,Nights!B23/(Occupancy!B$3*Beds!B23),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="34">
-        <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,Nights!B23/(Occupancy!B$3*Beds!B23),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
+      <c r="B24" s="34">
+        <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,Nights!B24/(Occupancy!B$3*Beds!B24),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="35">
-        <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,Nights!B24/(Occupancy!B$3*Beds!B24),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+      <c r="B25" s="35">
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,Nights!B25/(Occupancy!B$3*Beds!B25),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="36">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,Nights!B25/(Occupancy!B$3*Beds!B25),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="37" t="str">
+      <c r="B26" s="36">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="37" t="str">
+        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="34">
-        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
+      <c r="B28" s="34">
+        <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,Nights!B28/(Occupancy!B$3*Beds!B28),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="35">
-        <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,Nights!B28/(Occupancy!B$3*Beds!B28),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
-        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="37" t="str">
+      <c r="B29" s="35">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,Nights!B29/(Occupancy!B$3*Beds!B29),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="37" t="str">
+        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="33">
-        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B31" s="33">
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="34">
-        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B32" s="34">
+        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="35">
-        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
         <v>0</v>
       </c>
@@ -2226,7 +2238,7 @@
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B34" s="36">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
@@ -2236,7 +2248,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B35" s="36">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
@@ -2246,7 +2258,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B36" s="36">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,Nights!B36/(Occupancy!B$3*Beds!B36),0),"")</f>
@@ -2256,7 +2268,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnació 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B37" s="36">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,Nights!B37/(Occupancy!B$3*Beds!B37),0),"")</f>
@@ -2266,7 +2278,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B38" s="36">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,Nights!B38/(Occupancy!B$3*Beds!B38),0),"")</f>
@@ -2276,7 +2288,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B39" s="36">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,Nights!B39/(Occupancy!B$3*Beds!B39),0),"")</f>
@@ -2286,7 +2298,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B40" s="36">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,Nights!B40/(Occupancy!B$3*Beds!B40),0),"")</f>
@@ -2296,7 +2308,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B41" s="36">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,Nights!B41/(Occupancy!B$3*Beds!B41),0),"")</f>
@@ -2306,7 +2318,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B42" s="36">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,Nights!B42/(Occupancy!B$3*Beds!B42),0),"")</f>
@@ -2314,12 +2326,22 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="37" t="str">
+        <v>Travessera 43</v>
+      </c>
+      <c r="B43" s="36">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,Nights!B43/(Occupancy!B$3*Beds!B43),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="37" t="str">
+        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,Nights!B44/(Occupancy!B$3*Beds!B44),0),"")</f>
         <v/>
       </c>
     </row>
@@ -2335,7 +2357,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2370,7 +2392,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="25">
-        <f>B5+B30</f>
+        <f>B5+B31</f>
         <v>0</v>
       </c>
     </row>
@@ -2380,7 +2402,7 @@
         <v>VANDOR</v>
       </c>
       <c r="B5" s="26">
-        <f>B6+B17+B27+B23</f>
+        <f>B6+B18+B28+B24</f>
         <v>0</v>
       </c>
     </row>
@@ -2390,7 +2412,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B6" s="27">
-        <f>SUM(B7:B16)</f>
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -2467,7 +2489,7 @@
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v>Consell De Cent 538</v>
+        <v>Còrsega 396</v>
       </c>
       <c r="B14" s="29">
         <f>IF($A14&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A14,'data-rent'!C:C),"")</f>
@@ -2477,7 +2499,7 @@
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
-        <v>Còrsega 396</v>
+        <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="29">
         <f>IF($A15&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A15,'data-rent'!C:C),"")</f>
@@ -2485,41 +2507,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="31" t="str">
+        <v>Amigó 26</v>
+      </c>
+      <c r="B16" s="29">
         <f>IF($A16&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A16,'data-rent'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A17,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="27">
-        <f>SUM(B18:B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B18" s="27">
+        <f>SUM(B19:B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="28">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A18,'data-rent'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Salamanca 46</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <f>IF($A19&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A19,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -2527,7 +2549,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Nau 14</v>
+        <v>Salamanca 46</v>
       </c>
       <c r="B20" s="29">
         <f>IF($A20&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A20,'data-rent'!C:C),"")</f>
@@ -2537,7 +2559,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Facultades</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="29">
         <f>IF($A21&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A21,'data-rent'!C:C),"")</f>
@@ -2545,121 +2567,121 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="31" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A22,'data-rent'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="31" t="str">
+        <f>IF($A23&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A23,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="27">
-        <f>SUM(B24:B26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
+      <c r="B24" s="27">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="28">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A24,'data-rent'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+      <c r="B25" s="28">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A25,'data-rent'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="29">
-        <f>IF($A25&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A25,'data-rent'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="31" t="str">
+      <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A26,'data-rent'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>IF($A27&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A27,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="27">
-        <f>SUM(B28:B29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
+      <c r="B28" s="27">
+        <f>SUM(B29:B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="28">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A28,'data-rent'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
-        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="28">
         <f>IF($A29&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A29,'data-rent'!C:C),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="31" t="str">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A30,'data-rent'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="26">
-        <f>B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B31" s="26">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="27">
-        <f>SUM(B32:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B32" s="27">
+        <f>SUM(B33:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="28">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A32,'data-rent'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>IF($A33&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A33,'data-rent'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -2667,7 +2689,7 @@
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B34" s="29">
         <f>IF($A34&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A34,'data-rent'!C:C),"")</f>
@@ -2677,7 +2699,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B35" s="29">
         <f>IF($A35&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A35,'data-rent'!C:C),"")</f>
@@ -2687,7 +2709,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A36,'data-rent'!C:C),"")</f>
@@ -2697,7 +2719,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnació 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A37,'data-rent'!C:C),"")</f>
@@ -2707,7 +2729,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A38,'data-rent'!C:C),"")</f>
@@ -2717,7 +2739,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A39,'data-rent'!C:C),"")</f>
@@ -2727,7 +2749,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A40,'data-rent'!C:C),"")</f>
@@ -2737,7 +2759,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A41,'data-rent'!C:C),"")</f>
@@ -2747,7 +2769,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A42,'data-rent'!C:C),"")</f>
@@ -2755,18 +2777,31 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="31" t="str">
+        <v>Travessera 43</v>
+      </c>
+      <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A43,'data-rent'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="31" t="str">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A44,'data-rent'!C:C),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="B18:B28" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2776,7 +2811,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2811,7 +2846,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="25">
-        <f>B5+B30</f>
+        <f>B5+B31</f>
         <v>0</v>
       </c>
     </row>
@@ -2821,7 +2856,7 @@
         <v>VANDOR</v>
       </c>
       <c r="B5" s="26">
-        <f>B6+B17+B27+B23</f>
+        <f>B6+B18+B28+B24</f>
         <v>0</v>
       </c>
     </row>
@@ -2831,7 +2866,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B6" s="27">
-        <f>SUM(B7:B16)</f>
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -2908,7 +2943,7 @@
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v>Consell De Cent 538</v>
+        <v>Còrsega 396</v>
       </c>
       <c r="B14" s="29">
         <f>IF($A14&lt;&gt;"",SUMIF('data-services'!$A:$A,$A14,'data-services'!C:C),"")</f>
@@ -2918,7 +2953,7 @@
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
-        <v>Còrsega 396</v>
+        <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="29">
         <f>IF($A15&lt;&gt;"",SUMIF('data-services'!$A:$A,$A15,'data-services'!C:C),"")</f>
@@ -2926,41 +2961,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="31" t="str">
+        <v>Amigó 26</v>
+      </c>
+      <c r="B16" s="29">
         <f>IF($A16&lt;&gt;"",SUMIF('data-services'!$A:$A,$A16,'data-services'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-services'!$A:$A,$A17,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="27">
-        <f>SUM(B18:B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B18" s="27">
+        <f>SUM(B19:B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="28">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-services'!$A:$A,$A18,'data-services'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Salamanca 46</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <f>IF($A19&lt;&gt;"",SUMIF('data-services'!$A:$A,$A19,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -2968,7 +3003,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Nau 14</v>
+        <v>Salamanca 46</v>
       </c>
       <c r="B20" s="29">
         <f>IF($A20&lt;&gt;"",SUMIF('data-services'!$A:$A,$A20,'data-services'!C:C),"")</f>
@@ -2978,7 +3013,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Facultades</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="29">
         <f>IF($A21&lt;&gt;"",SUMIF('data-services'!$A:$A,$A21,'data-services'!C:C),"")</f>
@@ -2986,121 +3021,121 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="31" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",SUMIF('data-services'!$A:$A,$A22,'data-services'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="31" t="str">
+        <f>IF($A23&lt;&gt;"",SUMIF('data-services'!$A:$A,$A23,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="27">
-        <f>SUM(B24:B26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
+      <c r="B24" s="27">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="28">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-services'!$A:$A,$A24,'data-services'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+      <c r="B25" s="28">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-services'!$A:$A,$A25,'data-services'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="29">
-        <f>IF($A25&lt;&gt;"",SUMIF('data-services'!$A:$A,$A25,'data-services'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="31" t="str">
+      <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",SUMIF('data-services'!$A:$A,$A26,'data-services'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>IF($A27&lt;&gt;"",SUMIF('data-services'!$A:$A,$A27,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="27">
-        <f>SUM(B28:B29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
+      <c r="B28" s="27">
+        <f>SUM(B29:B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="28">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-services'!$A:$A,$A28,'data-services'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
-        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="28">
         <f>IF($A29&lt;&gt;"",SUMIF('data-services'!$A:$A,$A29,'data-services'!C:C),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="31" t="str">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-services'!$A:$A,$A30,'data-services'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="26">
-        <f>B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B31" s="26">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="27">
-        <f>SUM(B32:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B32" s="27">
+        <f>SUM(B33:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="28">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-services'!$A:$A,$A32,'data-services'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>IF($A33&lt;&gt;"",SUMIF('data-services'!$A:$A,$A33,'data-services'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -3108,7 +3143,7 @@
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B34" s="29">
         <f>IF($A34&lt;&gt;"",SUMIF('data-services'!$A:$A,$A34,'data-services'!C:C),"")</f>
@@ -3118,7 +3153,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B35" s="29">
         <f>IF($A35&lt;&gt;"",SUMIF('data-services'!$A:$A,$A35,'data-services'!C:C),"")</f>
@@ -3128,7 +3163,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",SUMIF('data-services'!$A:$A,$A36,'data-services'!C:C),"")</f>
@@ -3138,7 +3173,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnació 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",SUMIF('data-services'!$A:$A,$A37,'data-services'!C:C),"")</f>
@@ -3148,7 +3183,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",SUMIF('data-services'!$A:$A,$A38,'data-services'!C:C),"")</f>
@@ -3158,7 +3193,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",SUMIF('data-services'!$A:$A,$A39,'data-services'!C:C),"")</f>
@@ -3168,7 +3203,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",SUMIF('data-services'!$A:$A,$A40,'data-services'!C:C),"")</f>
@@ -3178,7 +3213,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",SUMIF('data-services'!$A:$A,$A41,'data-services'!C:C),"")</f>
@@ -3188,7 +3223,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",SUMIF('data-services'!$A:$A,$A42,'data-services'!C:C),"")</f>
@@ -3196,18 +3231,31 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="31" t="str">
+        <v>Travessera 43</v>
+      </c>
+      <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",SUMIF('data-services'!$A:$A,$A43,'data-services'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="31" t="str">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-services'!$A:$A,$A44,'data-services'!C:C),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="B18:B28" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3217,7 +3265,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3349,7 +3397,7 @@
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v>Consell De Cent 538</v>
+        <v>Còrsega 396</v>
       </c>
       <c r="B14" s="29">
         <f>IF($A14&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
@@ -3359,49 +3407,49 @@
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
-        <v>Còrsega 396</v>
+        <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="29">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
+        <f>IF($A15&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="31" t="str">
+        <v>Amigó 26</v>
+      </c>
+      <c r="B16" s="29">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16*Occupancy!B16&lt;&gt;0,'Income rent'!B16/(Beds!B16*Occupancy!B16),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",IF(Beds!B17*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B17*Occupancy!B17),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="27">
-        <f>IF($A17&lt;&gt;"",IF(Beds!B17*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B17*Occupancy!B17),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B18" s="27">
+        <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="28">
-        <f>IF($A18&lt;&gt;"",IF(Beds!B18*Occupancy!B18&lt;&gt;0,'Income rent'!B18/(Beds!B18*Occupancy!B18),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Salamanca 46</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19*Occupancy!B19&lt;&gt;0,'Income rent'!B19/(Beds!B19*Occupancy!B19),0),"")</f>
         <v>0</v>
       </c>
@@ -3409,7 +3457,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Nau 14</v>
+        <v>Salamanca 46</v>
       </c>
       <c r="B20" s="29">
         <f>IF($A20&lt;&gt;"",IF(Beds!B20*Occupancy!B20&lt;&gt;0,'Income rent'!B20/(Beds!B20*Occupancy!B20),0),"")</f>
@@ -3419,7 +3467,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Facultades</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="29">
         <f>IF($A21&lt;&gt;"",IF(Beds!B21*Occupancy!B21&lt;&gt;0,'Income rent'!B21/(Beds!B21*Occupancy!B21),0),"")</f>
@@ -3427,121 +3475,121 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="31" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22*Occupancy!B22&lt;&gt;0,'Income rent'!B22/(Beds!B22*Occupancy!B22),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="31" t="str">
+        <f>IF($A23&lt;&gt;"",IF(Beds!B23*Occupancy!B23&lt;&gt;0,'Income rent'!B23/(Beds!B23*Occupancy!B23),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="27">
-        <f>IF($A23&lt;&gt;"",IF(Beds!B23*Occupancy!B23&lt;&gt;0,'Income rent'!B23/(Beds!B23*Occupancy!B23),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
+      <c r="B24" s="27">
+        <f>IF($A24&lt;&gt;"",IF(Beds!B24*Occupancy!B24&lt;&gt;0,'Income rent'!B24/(Beds!B24*Occupancy!B24),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="28">
-        <f>IF($A24&lt;&gt;"",IF(Beds!B24*Occupancy!B24&lt;&gt;0,'Income rent'!B24/(Beds!B24*Occupancy!B24),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+      <c r="B25" s="28">
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B25&lt;&gt;0,'Income rent'!B25/(Beds!B25*Occupancy!B25),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="29">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25*Occupancy!B25&lt;&gt;0,'Income rent'!B25/(Beds!B25*Occupancy!B25),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="31" t="str">
+      <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26*Occupancy!B26&lt;&gt;0,'Income rent'!B26/(Beds!B26*Occupancy!B26),0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="27">
-        <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
+      <c r="B28" s="27">
+        <f>IF($A28&lt;&gt;"",IF(Beds!B28*Occupancy!B28&lt;&gt;0,'Income rent'!B28/(Beds!B28*Occupancy!B28),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="28">
-        <f>IF($A28&lt;&gt;"",IF(Beds!B28*Occupancy!B28&lt;&gt;0,'Income rent'!B28/(Beds!B28*Occupancy!B28),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
-        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="28">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29*Occupancy!B29&lt;&gt;0,'Income rent'!B29/(Beds!B29*Occupancy!B29),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="31" t="str">
+        <f>IF($A30&lt;&gt;"",IF(Beds!B30*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B30*Occupancy!B30),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="26">
-        <f>B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B31" s="26">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="27">
-        <f>SUM(B32:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B32" s="27">
+        <f>SUM(B33:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="28">
-        <f>IF($A32&lt;&gt;"",IF(Beds!B32*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B32*Occupancy!B32),0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33*Occupancy!B33&lt;&gt;0,'Income rent'!B33/(Beds!B33*Occupancy!B33),0),"")</f>
         <v>0</v>
       </c>
@@ -3549,7 +3597,7 @@
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B34" s="29">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34*Occupancy!B34&lt;&gt;0,'Income rent'!B34/(Beds!B34*Occupancy!B34),0),"")</f>
@@ -3559,7 +3607,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B35" s="29">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35*Occupancy!B35&lt;&gt;0,'Income rent'!B35/(Beds!B35*Occupancy!B35),0),"")</f>
@@ -3569,7 +3617,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36*Occupancy!B36&lt;&gt;0,'Income rent'!B36/(Beds!B36*Occupancy!B36),0),"")</f>
@@ -3579,7 +3627,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnació 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37*Occupancy!B37&lt;&gt;0,'Income rent'!B37/(Beds!B37*Occupancy!B37),0),"")</f>
@@ -3589,7 +3637,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38*Occupancy!B38&lt;&gt;0,'Income rent'!B38/(Beds!B38*Occupancy!B38),0),"")</f>
@@ -3599,7 +3647,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39*Occupancy!B39&lt;&gt;0,'Income rent'!B39/(Beds!B39*Occupancy!B39),0),"")</f>
@@ -3609,7 +3657,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40*Occupancy!B40&lt;&gt;0,'Income rent'!B40/(Beds!B40*Occupancy!B40),0),"")</f>
@@ -3619,7 +3667,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41*Occupancy!B41&lt;&gt;0,'Income rent'!B41/(Beds!B41*Occupancy!B41),0),"")</f>
@@ -3629,7 +3677,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42*Occupancy!B42&lt;&gt;0,'Income rent'!B42/(Beds!B42*Occupancy!B42),0),"")</f>
@@ -3637,12 +3685,22 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="31" t="str">
+        <v>Travessera 43</v>
+      </c>
+      <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43*Occupancy!B43&lt;&gt;0,'Income rent'!B43/(Beds!B43*Occupancy!B43),0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="31" t="str">
+        <f>IF($A44&lt;&gt;"",IF(Beds!B44*Occupancy!B44&lt;&gt;0,'Income rent'!B44/(Beds!B44*Occupancy!B44),0),"")</f>
         <v/>
       </c>
     </row>
@@ -3658,7 +3716,7 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3790,7 +3848,7 @@
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v>Consell De Cent 538</v>
+        <v>Còrsega 396</v>
       </c>
       <c r="B14" s="29">
         <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
@@ -3800,49 +3858,49 @@
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
-        <v>Còrsega 396</v>
+        <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="30">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,'Income rent'!B15/Beds!B15,0),"")</f>
+        <f>IF($A15&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="31" t="str">
+        <v>Amigó 26</v>
+      </c>
+      <c r="B16" s="30">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,'Income rent'!B16/Beds!B16,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="31" t="str">
+        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,'Income rent'!B17/Beds!B17,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="27">
-        <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,'Income rent'!B17/Beds!B17,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B18" s="27">
+        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="28">
-        <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,'Income rent'!B18/Beds!B18,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Salamanca 46</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,'Income rent'!B19/Beds!B19,0),"")</f>
         <v>0</v>
       </c>
@@ -3850,7 +3908,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Nau 14</v>
+        <v>Salamanca 46</v>
       </c>
       <c r="B20" s="29">
         <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,'Income rent'!B20/Beds!B20,0),"")</f>
@@ -3860,7 +3918,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Facultades</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="29">
         <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,'Income rent'!B21/Beds!B21,0),"")</f>
@@ -3868,121 +3926,121 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="31" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="29">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,'Income rent'!B22/Beds!B22,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="31" t="str">
+        <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,'Income rent'!B23/Beds!B23,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="27">
-        <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,'Income rent'!B23/Beds!B23,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
+      <c r="B24" s="27">
+        <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,'Income rent'!B24/Beds!B24,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="28">
-        <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,'Income rent'!B24/Beds!B24,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+      <c r="B25" s="28">
+        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B25/Beds!B25,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="29">
-        <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,'Income rent'!B25/Beds!B25,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="31" t="str">
+      <c r="B26" s="29">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,'Income rent'!B26/Beds!B26,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="27">
-        <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
+      <c r="B28" s="27">
+        <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,'Income rent'!B28/Beds!B28,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="28">
-        <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,'Income rent'!B28/Beds!B28,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
-        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="28">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,'Income rent'!B29/Beds!B29,0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="31" t="str">
+        <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="26">
-        <f>B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B31" s="26">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="27">
-        <f>SUM(B32:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B32" s="27">
+        <f>SUM(B33:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="28">
-        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,'Income rent'!B32/Beds!B32,0),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,'Income rent'!B33/Beds!B33,0),"")</f>
         <v>0</v>
       </c>
@@ -3990,7 +4048,7 @@
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B34" s="29">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,'Income rent'!B34/Beds!B34,0),"")</f>
@@ -4000,7 +4058,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B35" s="29">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,'Income rent'!B35/Beds!B35,0),"")</f>
@@ -4010,7 +4068,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B36" s="29">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,'Income rent'!B36/Beds!B36,0),"")</f>
@@ -4020,7 +4078,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnació 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B37" s="29">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,'Income rent'!B37/Beds!B37,0),"")</f>
@@ -4030,7 +4088,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B38" s="29">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,'Income rent'!B38/Beds!B38,0),"")</f>
@@ -4040,7 +4098,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B39" s="29">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,'Income rent'!B39/Beds!B39,0),"")</f>
@@ -4050,7 +4108,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B40" s="29">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,'Income rent'!B40/Beds!B40,0),"")</f>
@@ -4060,7 +4118,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B41" s="29">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,'Income rent'!B41/Beds!B41,0),"")</f>
@@ -4070,7 +4128,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B42" s="29">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,'Income rent'!B42/Beds!B42,0),"")</f>
@@ -4078,12 +4136,22 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="31" t="str">
+        <v>Travessera 43</v>
+      </c>
+      <c r="B43" s="29">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,'Income rent'!B43/Beds!B43,0),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="31" t="str">
+        <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,'Income rent'!B44/Beds!B44,0),"")</f>
         <v/>
       </c>
     </row>
@@ -4099,11 +4167,9 @@
   <sheetPr>
     <tabColor rgb="FF08BDBD"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4136,7 +4202,7 @@
         <v>TOTAL</v>
       </c>
       <c r="B4" s="38">
-        <f>B5+B30</f>
+        <f>B5+B31</f>
         <v>0</v>
       </c>
     </row>
@@ -4146,7 +4212,7 @@
         <v>VANDOR</v>
       </c>
       <c r="B5" s="39">
-        <f>B6+B17+B27+B23</f>
+        <f>B6+B18+B28+B24</f>
         <v>0</v>
       </c>
     </row>
@@ -4156,7 +4222,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B6" s="40">
-        <f>SUM(B7:B16)</f>
+        <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -4233,7 +4299,7 @@
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
-        <v>Consell De Cent 538</v>
+        <v>Còrsega 396</v>
       </c>
       <c r="B14" s="42">
         <f>IF($A14&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A14,'data-nights'!C:C),"")</f>
@@ -4243,7 +4309,7 @@
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
-        <v>Còrsega 396</v>
+        <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="43">
         <f>IF($A15&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A15,'data-nights'!C:C),"")</f>
@@ -4251,41 +4317,41 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="44" t="str">
+        <v>Amigó 26</v>
+      </c>
+      <c r="B16" s="43">
         <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="44" t="str">
+        <f>IF($A17&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A17,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="str">
+        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B17" s="40">
-        <f>SUM(B18:B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
+      <c r="B18" s="40">
+        <f>SUM(B19:B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B18" s="41">
-        <f>IF($A18&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A18,'data-nights'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
-        <v>Salamanca 46</v>
-      </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4293,7 +4359,7 @@
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
-        <v>Nau 14</v>
+        <v>Salamanca 46</v>
       </c>
       <c r="B20" s="42">
         <f>IF($A20&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A20,'data-nights'!C:C),"")</f>
@@ -4303,7 +4369,7 @@
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
-        <v>Facultades</v>
+        <v>Nau 14</v>
       </c>
       <c r="B21" s="42">
         <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!C:C),"")</f>
@@ -4311,121 +4377,121 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="44" t="str">
+        <v>Facultades</v>
+      </c>
+      <c r="B22" s="42">
         <f>IF($A22&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A22,'data-nights'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="44" t="str">
+        <f>IF($A23&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A23,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="str">
+        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B23" s="40">
-        <f>SUM(B24:B26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
+      <c r="B24" s="40">
+        <f>SUM(B25:B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
+        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B24" s="41">
-        <f>IF($A24&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A24,'data-nights'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
+      <c r="B25" s="41">
+        <f>IF($A25&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A25,'data-nights'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B25" s="42">
-        <f>IF($A25&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A25,'data-nights'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="str">
-        <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="42">
         <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!C:C),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="44" t="str">
+        <f>IF($A27&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A27,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="str">
+        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B27" s="40">
-        <f>SUM(B28:B29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
-        <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
+      <c r="B28" s="40">
+        <f>SUM(B29:B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B28" s="41">
-        <f>IF($A28&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A28,'data-nights'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="str">
-        <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="41">
         <f>IF($A29&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A29,'data-nights'!C:C),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="15" t="str">
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="44" t="str">
+        <f>IF($A30&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A30,'data-nights'!C:C),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B30" s="39">
-        <f>B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
+      <c r="B31" s="39">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B31" s="40">
-        <f>SUM(B32:B43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
-        <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
+      <c r="B32" s="40">
+        <f>SUM(B33:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B32" s="41">
-        <f>IF($A32&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A32,'data-nights'!C:C),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
-        <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
-        <v>Bailén 33</v>
-      </c>
-      <c r="B33" s="42">
+      <c r="B33" s="41">
         <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4433,7 +4499,7 @@
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
-        <v>Consell De Cent 222</v>
+        <v>Bailén 33</v>
       </c>
       <c r="B34" s="42">
         <f>IF($A34&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A34,'data-nights'!C:C),"")</f>
@@ -4443,7 +4509,7 @@
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
-        <v>Còrsega 52</v>
+        <v>Consell De Cent 222</v>
       </c>
       <c r="B35" s="42">
         <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!C:C),"")</f>
@@ -4453,7 +4519,7 @@
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
-        <v>Còrsega 207</v>
+        <v>Còrsega 52</v>
       </c>
       <c r="B36" s="42">
         <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!C:C),"")</f>
@@ -4463,7 +4529,7 @@
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
-        <v>Encarnació 160</v>
+        <v>Còrsega 207</v>
       </c>
       <c r="B37" s="42">
         <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!C:C),"")</f>
@@ -4473,7 +4539,7 @@
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
-        <v>Gran Via 598</v>
+        <v>Encarnació 160</v>
       </c>
       <c r="B38" s="42">
         <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!C:C),"")</f>
@@ -4483,7 +4549,7 @@
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
-        <v>Ramón Albó 6</v>
+        <v>Gran Via 598</v>
       </c>
       <c r="B39" s="42">
         <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!C:C),"")</f>
@@ -4493,7 +4559,7 @@
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
-        <v>Robrenyo 67</v>
+        <v>Ramón Albó 6</v>
       </c>
       <c r="B40" s="42">
         <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!C:C),"")</f>
@@ -4503,7 +4569,7 @@
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
-        <v>Sardenya 326</v>
+        <v>Robrenyo 67</v>
       </c>
       <c r="B41" s="42">
         <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!C:C),"")</f>
@@ -4513,7 +4579,7 @@
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
-        <v>Travessera 43</v>
+        <v>Sardenya 326</v>
       </c>
       <c r="B42" s="42">
         <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!C:C),"")</f>
@@ -4521,18 +4587,31 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
-        <v/>
-      </c>
-      <c r="B43" s="44" t="str">
+        <v>Travessera 43</v>
+      </c>
+      <c r="B43" s="42">
         <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!C:C),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="str">
+        <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="44" t="str">
+        <f>IF($A44&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A44,'data-nights'!C:C),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="B18:B44" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4545,8 +4624,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="68" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="68" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -4636,8 +4716,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="68" width="13" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="68" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8689E69-BC54-434B-81B2-DA82D6E627B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830CBE9-E7CE-459B-B275-57113C9C9D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,9 +539,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1342,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1917,7 +1914,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1940,7 +1937,7 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <f>IF($A4&lt;&gt;"",IF(Beds!B4&lt;&gt;0,Nights!B4/(Occupancy!B$3*Beds!B4),0),"")</f>
         <v>0</v>
       </c>
@@ -1950,7 +1947,7 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <f>IF($A5&lt;&gt;"",IF(Beds!B5&lt;&gt;0,Nights!B5/(Occupancy!B$3*Beds!B5),0),"")</f>
         <v>0</v>
       </c>
@@ -1960,7 +1957,7 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <f>IF($A6&lt;&gt;"",IF(Beds!B6&lt;&gt;0,Nights!B6/(Occupancy!B$3*Beds!B6),0),"")</f>
         <v>0</v>
       </c>
@@ -1970,7 +1967,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <f>IF($A7&lt;&gt;"",IF(Beds!B7&lt;&gt;0,Nights!B7/(Occupancy!B$3*Beds!B7),0),"")</f>
         <v>0</v>
       </c>
@@ -1980,7 +1977,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Nàpols 206</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <f>IF($A8&lt;&gt;"",IF(Beds!B8&lt;&gt;0,Nights!B8/(Occupancy!B$3*Beds!B8),0),"")</f>
         <v>0</v>
       </c>
@@ -1990,7 +1987,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <f>IF($A9&lt;&gt;"",IF(Beds!B9&lt;&gt;0,Nights!B9/(Occupancy!B$3*Beds!B9),0),"")</f>
         <v>0</v>
       </c>
@@ -2000,7 +1997,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <f>IF($A10&lt;&gt;"",IF(Beds!B10&lt;&gt;0,Nights!B10/(Occupancy!B$3*Beds!B10),0),"")</f>
         <v>0</v>
       </c>
@@ -2010,7 +2007,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <f>IF($A11&lt;&gt;"",IF(Beds!B11&lt;&gt;0,Nights!B11/(Occupancy!B$3*Beds!B11),0),"")</f>
         <v>0</v>
       </c>
@@ -2020,7 +2017,7 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <f>IF($A12&lt;&gt;"",IF(Beds!B12&lt;&gt;0,Nights!B12/(Occupancy!B$3*Beds!B12),0),"")</f>
         <v>0</v>
       </c>
@@ -2030,7 +2027,7 @@
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
         <v>Concordia 12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <f>IF($A13&lt;&gt;"",IF(Beds!B13&lt;&gt;0,Nights!B13/(Occupancy!B$3*Beds!B13),0),"")</f>
         <v>0</v>
       </c>
@@ -2040,7 +2037,7 @@
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <f>IF($A14&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B14/(Occupancy!B$3*Beds!B14),0),"")</f>
         <v>0</v>
       </c>
@@ -2050,8 +2047,8 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Consell De Cent 538</v>
       </c>
-      <c r="B15" s="36">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B14&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B14),0),"")</f>
+      <c r="B15" s="35">
+        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,Nights!B15/(Occupancy!B$3*Beds!B15),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2060,7 +2057,7 @@
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v>Amigó 26</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,Nights!B16/(Occupancy!B$3*Beds!B16),0),"")</f>
         <v>0</v>
       </c>
@@ -2070,7 +2067,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="37" t="str">
+      <c r="B17" s="36" t="str">
         <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,Nights!B17/(Occupancy!B$3*Beds!B17),0),"")</f>
         <v/>
       </c>
@@ -2080,7 +2077,7 @@
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <f>IF($A18&lt;&gt;"",IF(Beds!B18&lt;&gt;0,Nights!B18/(Occupancy!B$3*Beds!B18),0),"")</f>
         <v>0</v>
       </c>
@@ -2090,7 +2087,7 @@
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <f>IF($A19&lt;&gt;"",IF(Beds!B19&lt;&gt;0,Nights!B19/(Occupancy!B$3*Beds!B19),0),"")</f>
         <v>0</v>
       </c>
@@ -2100,7 +2097,7 @@
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <f>IF($A20&lt;&gt;"",IF(Beds!B20&lt;&gt;0,Nights!B20/(Occupancy!B$3*Beds!B20),0),"")</f>
         <v>0</v>
       </c>
@@ -2110,7 +2107,7 @@
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
         <v>Nau 14</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <f>IF($A21&lt;&gt;"",IF(Beds!B21&lt;&gt;0,Nights!B21/(Occupancy!B$3*Beds!B21),0),"")</f>
         <v>0</v>
       </c>
@@ -2120,7 +2117,7 @@
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v>Facultades</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <f>IF($A22&lt;&gt;"",IF(Beds!B22&lt;&gt;0,Nights!B22/(Occupancy!B$3*Beds!B22),0),"")</f>
         <v>0</v>
       </c>
@@ -2130,7 +2127,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="37" t="str">
+      <c r="B23" s="36" t="str">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,Nights!B23/(Occupancy!B$3*Beds!B23),0),"")</f>
         <v/>
       </c>
@@ -2140,7 +2137,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <f>IF($A24&lt;&gt;"",IF(Beds!B24&lt;&gt;0,Nights!B24/(Occupancy!B$3*Beds!B24),0),"")</f>
         <v>0</v>
       </c>
@@ -2150,7 +2147,7 @@
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <f>IF($A25&lt;&gt;"",IF(Beds!B25&lt;&gt;0,Nights!B25/(Occupancy!B$3*Beds!B25),0),"")</f>
         <v>0</v>
       </c>
@@ -2160,7 +2157,7 @@
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <f>IF($A26&lt;&gt;"",IF(Beds!B26&lt;&gt;0,Nights!B26/(Occupancy!B$3*Beds!B26),0),"")</f>
         <v>0</v>
       </c>
@@ -2170,7 +2167,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="37" t="str">
+      <c r="B27" s="36" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,Nights!B27/(Occupancy!B$3*Beds!B27),0),"")</f>
         <v/>
       </c>
@@ -2180,7 +2177,7 @@
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="33">
         <f>IF($A28&lt;&gt;"",IF(Beds!B28&lt;&gt;0,Nights!B28/(Occupancy!B$3*Beds!B28),0),"")</f>
         <v>0</v>
       </c>
@@ -2190,7 +2187,7 @@
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="34">
         <f>IF($A29&lt;&gt;"",IF(Beds!B29&lt;&gt;0,Nights!B29/(Occupancy!B$3*Beds!B29),0),"")</f>
         <v>0</v>
       </c>
@@ -2200,7 +2197,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="37" t="str">
+      <c r="B30" s="36" t="str">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,Nights!B30/(Occupancy!B$3*Beds!B30),0),"")</f>
         <v/>
       </c>
@@ -2210,7 +2207,7 @@
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,Nights!B31/(Occupancy!B$3*Beds!B31),0),"")</f>
         <v>0</v>
       </c>
@@ -2220,7 +2217,7 @@
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,Nights!B32/(Occupancy!B$3*Beds!B32),0),"")</f>
         <v>0</v>
       </c>
@@ -2230,7 +2227,7 @@
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="34">
         <f>IF($A33&lt;&gt;"",IF(Beds!B33&lt;&gt;0,Nights!B33/(Occupancy!B$3*Beds!B33),0),"")</f>
         <v>0</v>
       </c>
@@ -2240,7 +2237,7 @@
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>Bailén 33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <f>IF($A34&lt;&gt;"",IF(Beds!B34&lt;&gt;0,Nights!B34/(Occupancy!B$3*Beds!B34),0),"")</f>
         <v>0</v>
       </c>
@@ -2250,7 +2247,7 @@
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Consell De Cent 222</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <f>IF($A35&lt;&gt;"",IF(Beds!B35&lt;&gt;0,Nights!B35/(Occupancy!B$3*Beds!B35),0),"")</f>
         <v>0</v>
       </c>
@@ -2260,7 +2257,7 @@
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Còrsega 52</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <f>IF($A36&lt;&gt;"",IF(Beds!B36&lt;&gt;0,Nights!B36/(Occupancy!B$3*Beds!B36),0),"")</f>
         <v>0</v>
       </c>
@@ -2270,7 +2267,7 @@
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
         <v>Còrsega 207</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <f>IF($A37&lt;&gt;"",IF(Beds!B37&lt;&gt;0,Nights!B37/(Occupancy!B$3*Beds!B37),0),"")</f>
         <v>0</v>
       </c>
@@ -2280,7 +2277,7 @@
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
         <v>Encarnació 160</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="35">
         <f>IF($A38&lt;&gt;"",IF(Beds!B38&lt;&gt;0,Nights!B38/(Occupancy!B$3*Beds!B38),0),"")</f>
         <v>0</v>
       </c>
@@ -2290,7 +2287,7 @@
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
         <v>Gran Via 598</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="35">
         <f>IF($A39&lt;&gt;"",IF(Beds!B39&lt;&gt;0,Nights!B39/(Occupancy!B$3*Beds!B39),0),"")</f>
         <v>0</v>
       </c>
@@ -2300,7 +2297,7 @@
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
         <v>Ramón Albó 6</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="35">
         <f>IF($A40&lt;&gt;"",IF(Beds!B40&lt;&gt;0,Nights!B40/(Occupancy!B$3*Beds!B40),0),"")</f>
         <v>0</v>
       </c>
@@ -2310,7 +2307,7 @@
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
         <v>Robrenyo 67</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <f>IF($A41&lt;&gt;"",IF(Beds!B41&lt;&gt;0,Nights!B41/(Occupancy!B$3*Beds!B41),0),"")</f>
         <v>0</v>
       </c>
@@ -2320,7 +2317,7 @@
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
         <v>Sardenya 326</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="35">
         <f>IF($A42&lt;&gt;"",IF(Beds!B42&lt;&gt;0,Nights!B42/(Occupancy!B$3*Beds!B42),0),"")</f>
         <v>0</v>
       </c>
@@ -2330,7 +2327,7 @@
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="35">
         <f>IF($A43&lt;&gt;"",IF(Beds!B43&lt;&gt;0,Nights!B43/(Occupancy!B$3*Beds!B43),0),"")</f>
         <v>0</v>
       </c>
@@ -2340,7 +2337,7 @@
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="37" t="str">
+      <c r="B44" s="36" t="str">
         <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,Nights!B44/(Occupancy!B$3*Beds!B44),0),"")</f>
         <v/>
       </c>
@@ -2368,7 +2365,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2521,7 +2518,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="30" t="str">
         <f>IF($A17&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A17,'data-rent'!C:C),"")</f>
         <v/>
       </c>
@@ -2581,7 +2578,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="31" t="str">
+      <c r="B23" s="30" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A23,'data-rent'!C:C),"")</f>
         <v/>
       </c>
@@ -2621,7 +2618,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="31" t="str">
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A27,'data-rent'!C:C),"")</f>
         <v/>
       </c>
@@ -2651,7 +2648,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="31" t="str">
+      <c r="B30" s="30" t="str">
         <f>IF($A30&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A30,'data-rent'!C:C),"")</f>
         <v/>
       </c>
@@ -2791,7 +2788,7 @@
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="31" t="str">
+      <c r="B44" s="30" t="str">
         <f>IF($A44&lt;&gt;"",SUMIF('data-rent'!$A:$A,$A44,'data-rent'!C:C),"")</f>
         <v/>
       </c>
@@ -2822,7 +2819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2975,7 +2972,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="30" t="str">
         <f>IF($A17&lt;&gt;"",SUMIF('data-services'!$A:$A,$A17,'data-services'!C:C),"")</f>
         <v/>
       </c>
@@ -3035,7 +3032,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="31" t="str">
+      <c r="B23" s="30" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-services'!$A:$A,$A23,'data-services'!C:C),"")</f>
         <v/>
       </c>
@@ -3075,7 +3072,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="31" t="str">
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-services'!$A:$A,$A27,'data-services'!C:C),"")</f>
         <v/>
       </c>
@@ -3105,7 +3102,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="31" t="str">
+      <c r="B30" s="30" t="str">
         <f>IF($A30&lt;&gt;"",SUMIF('data-services'!$A:$A,$A30,'data-services'!C:C),"")</f>
         <v/>
       </c>
@@ -3245,7 +3242,7 @@
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="31" t="str">
+      <c r="B44" s="30" t="str">
         <f>IF($A44&lt;&gt;"",SUMIF('data-services'!$A:$A,$A44,'data-services'!C:C),"")</f>
         <v/>
       </c>
@@ -3276,7 +3273,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3410,7 +3407,7 @@
         <v>Consell De Cent 538</v>
       </c>
       <c r="B15" s="29">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B14*Occupancy!B14&lt;&gt;0,'Income rent'!B14/(Beds!B14*Occupancy!B14),0),"")</f>
+        <f>IF($A15&lt;&gt;"",IF(Beds!B15*Occupancy!B15&lt;&gt;0,'Income rent'!B15/(Beds!B15*Occupancy!B15),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3429,7 +3426,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="30" t="str">
         <f>IF($A17&lt;&gt;"",IF(Beds!B17*Occupancy!B17&lt;&gt;0,'Income rent'!B17/(Beds!B17*Occupancy!B17),0),"")</f>
         <v/>
       </c>
@@ -3489,7 +3486,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="31" t="str">
+      <c r="B23" s="30" t="str">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23*Occupancy!B23&lt;&gt;0,'Income rent'!B23/(Beds!B23*Occupancy!B23),0),"")</f>
         <v/>
       </c>
@@ -3529,7 +3526,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="31" t="str">
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27*Occupancy!B27&lt;&gt;0,'Income rent'!B27/(Beds!B27*Occupancy!B27),0),"")</f>
         <v/>
       </c>
@@ -3559,7 +3556,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="31" t="str">
+      <c r="B30" s="30" t="str">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30*Occupancy!B30&lt;&gt;0,'Income rent'!B30/(Beds!B30*Occupancy!B30),0),"")</f>
         <v/>
       </c>
@@ -3699,7 +3696,7 @@
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="31" t="str">
+      <c r="B44" s="30" t="str">
         <f>IF($A44&lt;&gt;"",IF(Beds!B44*Occupancy!B44&lt;&gt;0,'Income rent'!B44/(Beds!B44*Occupancy!B44),0),"")</f>
         <v/>
       </c>
@@ -3727,7 +3724,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3860,8 +3857,8 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Consell De Cent 538</v>
       </c>
-      <c r="B15" s="30">
-        <f>IF($A15&lt;&gt;"",IF(Beds!B14&lt;&gt;0,'Income rent'!B14/Beds!B14,0),"")</f>
+      <c r="B15" s="29">
+        <f>IF($A15&lt;&gt;"",IF(Beds!B15&lt;&gt;0,'Income rent'!B15/Beds!B15,0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3870,7 +3867,7 @@
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v>Amigó 26</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <f>IF($A16&lt;&gt;"",IF(Beds!B16&lt;&gt;0,'Income rent'!B16/Beds!B16,0),"")</f>
         <v>0</v>
       </c>
@@ -3880,7 +3877,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="30" t="str">
         <f>IF($A17&lt;&gt;"",IF(Beds!B17&lt;&gt;0,'Income rent'!B17/Beds!B17,0),"")</f>
         <v/>
       </c>
@@ -3940,7 +3937,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="31" t="str">
+      <c r="B23" s="30" t="str">
         <f>IF($A23&lt;&gt;"",IF(Beds!B23&lt;&gt;0,'Income rent'!B23/Beds!B23,0),"")</f>
         <v/>
       </c>
@@ -3980,7 +3977,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="31" t="str">
+      <c r="B27" s="30" t="str">
         <f>IF($A27&lt;&gt;"",IF(Beds!B27&lt;&gt;0,'Income rent'!B27/Beds!B27,0),"")</f>
         <v/>
       </c>
@@ -4010,7 +4007,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="31" t="str">
+      <c r="B30" s="30" t="str">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
         <v/>
       </c>
@@ -4150,7 +4147,7 @@
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="31" t="str">
+      <c r="B44" s="30" t="str">
         <f>IF($A44&lt;&gt;"",IF(Beds!B44&lt;&gt;0,'Income rent'!B44/Beds!B44,0),"")</f>
         <v/>
       </c>
@@ -4178,7 +4175,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4201,7 +4198,7 @@
         <f>IF(Beds!A4&lt;&gt;"",Beds!A4,"")</f>
         <v>TOTAL</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <f>B5+B31</f>
         <v>0</v>
       </c>
@@ -4211,7 +4208,7 @@
         <f>IF(Beds!A5&lt;&gt;"",Beds!A5,"")</f>
         <v>VANDOR</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <f>B6+B18+B28+B24</f>
         <v>0</v>
       </c>
@@ -4221,7 +4218,7 @@
         <f>IF(Beds!A6&lt;&gt;"",Beds!A6,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <f>SUM(B7:B17)</f>
         <v>0</v>
       </c>
@@ -4231,7 +4228,7 @@
         <f>IF(Beds!A7&lt;&gt;"",Beds!A7,"")</f>
         <v>Balmes 335</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <f>IF($A7&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A7,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4241,7 +4238,7 @@
         <f>IF(Beds!A8&lt;&gt;"",Beds!A8,"")</f>
         <v>Nàpols 206</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <f>IF($A8&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A8,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4251,7 +4248,7 @@
         <f>IF(Beds!A9&lt;&gt;"",Beds!A9,"")</f>
         <v>Rocafort 219</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <f>IF($A9&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A9,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4261,7 +4258,7 @@
         <f>IF(Beds!A10&lt;&gt;"",Beds!A10,"")</f>
         <v>Entença 069</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <f>IF($A10&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A10,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4271,7 +4268,7 @@
         <f>IF(Beds!A11&lt;&gt;"",Beds!A11,"")</f>
         <v>Avenida Madrid 110</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <f>IF($A11&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A11,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4281,7 +4278,7 @@
         <f>IF(Beds!A12&lt;&gt;"",Beds!A12,"")</f>
         <v>Muntaner 448</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="41">
         <f>IF($A12&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A12,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4291,7 +4288,7 @@
         <f>IF(Beds!A13&lt;&gt;"",Beds!A13,"")</f>
         <v>Concordia 12</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <f>IF($A13&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A13,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4301,7 +4298,7 @@
         <f>IF(Beds!A14&lt;&gt;"",Beds!A14,"")</f>
         <v>Còrsega 396</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <f>IF($A14&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A14,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4311,7 +4308,7 @@
         <f>IF(Beds!A15&lt;&gt;"",Beds!A15,"")</f>
         <v>Consell De Cent 538</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <f>IF($A15&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A15,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4321,7 +4318,7 @@
         <f>IF(Beds!A16&lt;&gt;"",Beds!A16,"")</f>
         <v>Amigó 26</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="42">
         <f>IF($A16&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A16,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4331,7 +4328,7 @@
         <f>IF(Beds!A17&lt;&gt;"",Beds!A17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="43" t="str">
         <f>IF($A17&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A17,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4341,7 +4338,7 @@
         <f>IF(Beds!A18&lt;&gt;"",Beds!A18,"")</f>
         <v>VALENCIA</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <f>SUM(B19:B23)</f>
         <v>0</v>
       </c>
@@ -4351,7 +4348,7 @@
         <f>IF(Beds!A19&lt;&gt;"",Beds!A19,"")</f>
         <v>Rodríguez De Cepeda 044</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <f>IF($A19&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A19,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4361,7 +4358,7 @@
         <f>IF(Beds!A20&lt;&gt;"",Beds!A20,"")</f>
         <v>Salamanca 46</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <f>IF($A20&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A20,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4371,7 +4368,7 @@
         <f>IF(Beds!A21&lt;&gt;"",Beds!A21,"")</f>
         <v>Nau 14</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <f>IF($A21&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A21,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4381,7 +4378,7 @@
         <f>IF(Beds!A22&lt;&gt;"",Beds!A22,"")</f>
         <v>Facultades</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <f>IF($A22&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A22,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4391,7 +4388,7 @@
         <f>IF(Beds!A23&lt;&gt;"",Beds!A23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="43" t="str">
         <f>IF($A23&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A23,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4401,7 +4398,7 @@
         <f>IF(Beds!A24&lt;&gt;"",Beds!A24,"")</f>
         <v>MADRID</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <f>SUM(B25:B27)</f>
         <v>0</v>
       </c>
@@ -4411,7 +4408,7 @@
         <f>IF(Beds!A25&lt;&gt;"",Beds!A25,"")</f>
         <v>Carlos III Campus Getafe</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <f>IF($A25&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A25,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4421,7 +4418,7 @@
         <f>IF(Beds!A26&lt;&gt;"",Beds!A26,"")</f>
         <v>Donoso Cortés 75</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="41">
         <f>IF($A26&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A26,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4431,7 +4428,7 @@
         <f>IF(Beds!A27&lt;&gt;"",Beds!A27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="44" t="str">
+      <c r="B27" s="43" t="str">
         <f>IF($A27&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A27,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4441,7 +4438,7 @@
         <f>IF(Beds!A28&lt;&gt;"",Beds!A28,"")</f>
         <v>BILBAO</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="39">
         <f>SUM(B29:B30)</f>
         <v>0</v>
       </c>
@@ -4451,7 +4448,7 @@
         <f>IF(Beds!A29&lt;&gt;"",Beds!A29,"")</f>
         <v>General Concha 24</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="40">
         <f>IF($A29&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A29,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4461,7 +4458,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="43" t="str">
         <f>IF($A30&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A30,'data-nights'!C:C),"")</f>
         <v/>
       </c>
@@ -4471,7 +4468,7 @@
         <f>IF(Beds!A31&lt;&gt;"",Beds!A31,"")</f>
         <v>3rd PARTIES</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="38">
         <f>B32</f>
         <v>0</v>
       </c>
@@ -4481,7 +4478,7 @@
         <f>IF(Beds!A32&lt;&gt;"",Beds!A32,"")</f>
         <v>BARCELONA</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="39">
         <f>SUM(B33:B44)</f>
         <v>0</v>
       </c>
@@ -4491,7 +4488,7 @@
         <f>IF(Beds!A33&lt;&gt;"",Beds!A33,"")</f>
         <v>Artesania 30</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="40">
         <f>IF($A33&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A33,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4501,7 +4498,7 @@
         <f>IF(Beds!A34&lt;&gt;"",Beds!A34,"")</f>
         <v>Bailén 33</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <f>IF($A34&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A34,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4511,7 +4508,7 @@
         <f>IF(Beds!A35&lt;&gt;"",Beds!A35,"")</f>
         <v>Consell De Cent 222</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="41">
         <f>IF($A35&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A35,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4521,7 +4518,7 @@
         <f>IF(Beds!A36&lt;&gt;"",Beds!A36,"")</f>
         <v>Còrsega 52</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="41">
         <f>IF($A36&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A36,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4531,7 +4528,7 @@
         <f>IF(Beds!A37&lt;&gt;"",Beds!A37,"")</f>
         <v>Còrsega 207</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="41">
         <f>IF($A37&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A37,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4541,7 +4538,7 @@
         <f>IF(Beds!A38&lt;&gt;"",Beds!A38,"")</f>
         <v>Encarnació 160</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="41">
         <f>IF($A38&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A38,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4551,7 +4548,7 @@
         <f>IF(Beds!A39&lt;&gt;"",Beds!A39,"")</f>
         <v>Gran Via 598</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="41">
         <f>IF($A39&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A39,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4561,7 +4558,7 @@
         <f>IF(Beds!A40&lt;&gt;"",Beds!A40,"")</f>
         <v>Ramón Albó 6</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="41">
         <f>IF($A40&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A40,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4571,7 +4568,7 @@
         <f>IF(Beds!A41&lt;&gt;"",Beds!A41,"")</f>
         <v>Robrenyo 67</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="41">
         <f>IF($A41&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A41,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4581,7 +4578,7 @@
         <f>IF(Beds!A42&lt;&gt;"",Beds!A42,"")</f>
         <v>Sardenya 326</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="41">
         <f>IF($A42&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A42,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4591,7 +4588,7 @@
         <f>IF(Beds!A43&lt;&gt;"",Beds!A43,"")</f>
         <v>Travessera 43</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="41">
         <f>IF($A43&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A43,'data-nights'!C:C),"")</f>
         <v>0</v>
       </c>
@@ -4601,7 +4598,7 @@
         <f>IF(Beds!A44&lt;&gt;"",Beds!A44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="44" t="str">
+      <c r="B44" s="43" t="str">
         <f>IF($A44&lt;&gt;"",SUMIF('data-nights'!$A:$A,$A44,'data-nights'!C:C),"")</f>
         <v/>
       </c>

--- a/app/templates/report/occupancy.xlsx
+++ b/app/templates/report/occupancy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830CBE9-E7CE-459B-B275-57113C9C9D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BF146-1A98-4C87-9DA8-F506738C0A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3567,7 +3567,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B31" s="26">
-        <f>B32</f>
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31*Occupancy!B31&lt;&gt;0,'Income rent'!B31/(Beds!B31*Occupancy!B31),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B32" s="27">
-        <f>SUM(B33:B44)</f>
+        <f>IF($A32&lt;&gt;"",IF(Beds!B32*Occupancy!B32&lt;&gt;0,'Income rent'!B32/(Beds!B32*Occupancy!B32),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
         <f>IF(Beds!A30&lt;&gt;"",Beds!A30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="30" t="str">
+      <c r="B30" s="28" t="str">
         <f>IF($A30&lt;&gt;"",IF(Beds!B30&lt;&gt;0,'Income rent'!B30/Beds!B30,0),"")</f>
         <v/>
       </c>
@@ -4018,7 +4018,7 @@
         <v>3rd PARTIES</v>
       </c>
       <c r="B31" s="26">
-        <f>B32</f>
+        <f>IF($A31&lt;&gt;"",IF(Beds!B31&lt;&gt;0,'Income rent'!B31/Beds!B31,0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
         <v>BARCELONA</v>
       </c>
       <c r="B32" s="27">
-        <f>SUM(B33:B44)</f>
+        <f>IF($A32&lt;&gt;"",IF(Beds!B32&lt;&gt;0,'Income rent'!B32/Beds!B32,0),"")</f>
         <v>0</v>
       </c>
     </row>
